--- a/data/planning.xlsx
+++ b/data/planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265139E4-B59A-47C7-BE99-D9C0D3DD7D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429F118B-F67E-4592-83FB-2A049019571E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BEFE39CF-4712-4775-9411-5C503787578E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{BEFE39CF-4712-4775-9411-5C503787578E}"/>
   </bookViews>
   <sheets>
     <sheet name="selections" sheetId="1" r:id="rId1"/>
@@ -656,9 +656,6 @@
     <t>&lt;</t>
   </si>
   <si>
-    <t>Winter Oat/Pea Trial (M XM)</t>
-  </si>
-  <si>
     <t>Heading - %|CO_350:0005127</t>
   </si>
   <si>
@@ -999,6 +996,9 @@
   </si>
   <si>
     <t>replicates</t>
+  </si>
+  <si>
+    <t>Winter Oat/Pea Trial (66M X 45M)</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E147DB-166A-44B5-BCC5-098A0311CA8B}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -1625,7 +1625,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1640,13 +1640,13 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1680,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1706,7 +1706,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1732,7 +1732,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1758,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1784,7 +1784,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -1810,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1836,7 +1836,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1862,7 +1862,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -1888,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
@@ -1914,7 +1914,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -1940,7 +1940,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1966,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -1992,7 +1992,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -2018,7 +2018,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -2044,7 +2044,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -2070,7 +2070,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -2096,7 +2096,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -2122,7 +2122,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
@@ -2148,7 +2148,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -2174,7 +2174,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2200,7 +2200,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s">
         <v>70</v>
@@ -2226,7 +2226,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
         <v>52</v>
@@ -2252,7 +2252,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
@@ -2278,7 +2278,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
         <v>56</v>
@@ -2304,7 +2304,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -2330,7 +2330,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -2356,7 +2356,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
         <v>62</v>
@@ -2382,7 +2382,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
@@ -2408,7 +2408,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31" t="s">
         <v>54</v>
@@ -2434,7 +2434,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32" t="s">
         <v>80</v>
@@ -2460,7 +2460,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C33" t="s">
         <v>72</v>
@@ -2486,7 +2486,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C34" t="s">
         <v>92</v>
@@ -2512,7 +2512,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C35" t="s">
         <v>96</v>
@@ -2538,7 +2538,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
         <v>86</v>
@@ -2564,7 +2564,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C37" t="s">
         <v>60</v>
@@ -2590,7 +2590,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C38" t="s">
         <v>84</v>
@@ -2616,7 +2616,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C39" t="s">
         <v>66</v>
@@ -2642,7 +2642,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C40" t="s">
         <v>76</v>
@@ -2668,7 +2668,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
@@ -2694,7 +2694,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s">
         <v>112</v>
@@ -2720,7 +2720,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C43" t="s">
         <v>74</v>
@@ -2746,7 +2746,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" t="s">
         <v>90</v>
@@ -2772,7 +2772,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C45" t="s">
         <v>82</v>
@@ -2798,7 +2798,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C46" t="s">
         <v>114</v>
@@ -2824,7 +2824,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C47" t="s">
         <v>98</v>
@@ -2850,7 +2850,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C48" t="s">
         <v>118</v>
@@ -2876,7 +2876,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C49" t="s">
         <v>106</v>
@@ -2902,7 +2902,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C50" t="s">
         <v>64</v>
@@ -2928,7 +2928,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C51" t="s">
         <v>88</v>
@@ -2954,7 +2954,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C52" t="s">
         <v>100</v>
@@ -2980,7 +2980,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C53" t="s">
         <v>126</v>
@@ -3006,7 +3006,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C54" t="s">
         <v>94</v>
@@ -3032,7 +3032,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C55" t="s">
         <v>122</v>
@@ -3058,7 +3058,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C56" t="s">
         <v>104</v>
@@ -3084,7 +3084,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C57" t="s">
         <v>110</v>
@@ -3110,7 +3110,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C58" t="s">
         <v>124</v>
@@ -3136,7 +3136,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C59" t="s">
         <v>120</v>
@@ -3162,7 +3162,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C60" t="s">
         <v>102</v>
@@ -3188,7 +3188,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C61" t="s">
         <v>78</v>
@@ -3214,7 +3214,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C62" t="s">
         <v>130</v>
@@ -3240,7 +3240,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C63" t="s">
         <v>108</v>
@@ -3266,13 +3266,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E64">
         <v>948</v>
@@ -3292,7 +3292,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C65" t="s">
         <v>136</v>
@@ -3318,7 +3318,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C66" t="s">
         <v>128</v>
@@ -3344,7 +3344,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C67" t="s">
         <v>140</v>
@@ -3370,7 +3370,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C68" t="s">
         <v>116</v>
@@ -3396,13 +3396,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s">
+        <v>313</v>
+      </c>
+      <c r="D69" t="s">
         <v>314</v>
-      </c>
-      <c r="D69" t="s">
-        <v>315</v>
       </c>
       <c r="E69">
         <v>793</v>
@@ -3422,7 +3422,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C70" t="s">
         <v>142</v>
@@ -3448,7 +3448,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C71" t="s">
         <v>134</v>
@@ -3474,7 +3474,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C72" t="s">
         <v>132</v>
@@ -3500,7 +3500,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C73" t="s">
         <v>138</v>
@@ -3526,7 +3526,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C74" t="s">
         <v>144</v>
@@ -3556,7 +3556,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C75" t="s">
         <v>147</v>
@@ -3586,7 +3586,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C76" t="s">
         <v>149</v>
@@ -3616,7 +3616,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C77" t="s">
         <v>151</v>
@@ -3646,7 +3646,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C78" t="s">
         <v>153</v>
@@ -3676,7 +3676,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C79" t="s">
         <v>155</v>
@@ -3706,7 +3706,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C80" t="s">
         <v>157</v>
@@ -3736,7 +3736,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C81" t="s">
         <v>159</v>
@@ -3766,7 +3766,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C82" t="s">
         <v>161</v>
@@ -3796,7 +3796,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C83" t="s">
         <v>163</v>
@@ -3826,7 +3826,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C84" t="s">
         <v>165</v>
@@ -3856,7 +3856,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C85" t="s">
         <v>167</v>
@@ -3886,7 +3886,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C86" t="s">
         <v>169</v>
@@ -3916,7 +3916,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C87" t="s">
         <v>171</v>
@@ -3946,7 +3946,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C88" t="s">
         <v>173</v>
@@ -3976,7 +3976,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C89" t="s">
         <v>175</v>
@@ -4006,7 +4006,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C90" t="s">
         <v>146</v>
@@ -4061,13 +4061,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4434,8 +4434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370C69D5-2497-4046-8AB5-D3D451AD9898}">
   <dimension ref="B3:AG22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8:AG19"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AN18" sqref="AN18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4449,7 +4449,7 @@
   <sheetData>
     <row r="3" spans="2:33" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="AE3" s="2"/>
     </row>
@@ -5863,15 +5863,15 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" t="s">
         <v>205</v>
-      </c>
-      <c r="D1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" s="22">
         <v>0.21</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" s="22">
         <v>0.44</v>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9" s="22">
         <v>0.64</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B10" s="22">
         <v>0.7</v>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B11" s="22">
         <v>0.81</v>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" s="22">
         <v>1.01</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B13" s="22">
         <v>1.56</v>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B14" s="22">
         <v>1.66</v>
@@ -6014,7 +6014,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B15" s="22">
         <v>1.83</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B16" s="22">
         <v>2.08</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B17" s="22">
         <v>2.1</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B18" s="22">
         <v>3.37</v>
@@ -6058,7 +6058,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B19" s="22">
         <v>3.5</v>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" s="22">
         <v>3.83</v>
@@ -6080,7 +6080,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B21" s="22">
         <v>4.01</v>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B22" s="22">
         <v>4.12</v>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="22">
         <v>4.95</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="22">
         <v>4.96</v>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B25" s="22">
         <v>5.22</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="22">
         <v>5.33</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B27" s="22">
         <v>5.52</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B28" s="22">
         <v>5.58</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" s="22">
         <v>5.97</v>
@@ -6179,7 +6179,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30">
         <v>7.17</v>
@@ -6190,7 +6190,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B31">
         <v>7.2</v>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B32">
         <v>7.42</v>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B33">
         <v>7.49</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B34">
         <v>7.88</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B35">
         <v>7.99</v>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B36" s="21">
         <v>9.09</v>
@@ -6254,12 +6254,12 @@
         <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B37" s="21">
         <v>10</v>
@@ -6268,12 +6268,12 @@
         <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38">
         <v>10.26</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B39">
         <v>10.38</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B40" s="21">
         <v>10.6</v>
@@ -6304,12 +6304,12 @@
         <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B41">
         <v>11.15</v>
@@ -6320,7 +6320,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B42">
         <v>14.16</v>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B43" s="21">
         <v>17.149999999999999</v>
@@ -6340,12 +6340,12 @@
         <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B44">
         <v>17.5</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B45" s="21">
         <v>18.32</v>
@@ -6365,12 +6365,12 @@
         <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B46" s="21">
         <v>18.73</v>
@@ -6379,12 +6379,12 @@
         <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B47">
         <v>18.940000000000001</v>
@@ -6395,7 +6395,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B48">
         <v>19.05</v>
@@ -6406,7 +6406,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B49">
         <v>21.67</v>
@@ -6417,7 +6417,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B50">
         <v>21.8</v>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B51">
         <v>23.82</v>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B52">
         <v>25.36</v>
@@ -6450,7 +6450,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B53" s="21">
         <v>26.51</v>
@@ -6459,12 +6459,12 @@
         <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B54" s="21">
         <v>27.47</v>
@@ -6473,12 +6473,12 @@
         <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B55">
         <v>27.72</v>
@@ -6489,7 +6489,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B56">
         <v>28.77</v>
@@ -6500,7 +6500,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B57" s="21">
         <v>29.07</v>
@@ -6509,12 +6509,12 @@
         <v>100</v>
       </c>
       <c r="D57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B58">
         <v>29.16</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B59" s="21">
         <v>29.74</v>
@@ -6534,12 +6534,12 @@
         <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B60" s="21">
         <v>31.36</v>
@@ -6548,12 +6548,12 @@
         <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B61" s="21">
         <v>33.020000000000003</v>
@@ -6562,12 +6562,12 @@
         <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B62" s="21">
         <v>35.31</v>
@@ -6576,12 +6576,12 @@
         <v>100</v>
       </c>
       <c r="D62" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B63" s="21">
         <v>37.33</v>
@@ -6590,12 +6590,12 @@
         <v>100</v>
       </c>
       <c r="D63" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B64" s="21">
         <v>40.58</v>
@@ -6604,12 +6604,12 @@
         <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B65" s="21">
         <v>42.4</v>
@@ -6618,12 +6618,12 @@
         <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B66" s="21">
         <v>42.79</v>
@@ -6632,12 +6632,12 @@
         <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B67">
         <v>45.72</v>
@@ -6648,7 +6648,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B68">
         <v>46.84</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B69" s="21">
         <v>47.45</v>
@@ -6668,12 +6668,12 @@
         <v>90</v>
       </c>
       <c r="D69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B70" s="21">
         <v>48.04</v>
@@ -6682,12 +6682,12 @@
         <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B71" s="21">
         <v>53.38</v>
@@ -6696,12 +6696,12 @@
         <v>100</v>
       </c>
       <c r="D71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B72" s="21">
         <v>53.46</v>
@@ -6710,12 +6710,12 @@
         <v>100</v>
       </c>
       <c r="D72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B73" s="21">
         <v>53.77</v>
@@ -6724,12 +6724,12 @@
         <v>100</v>
       </c>
       <c r="D73" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B74" s="21">
         <v>57.13</v>
@@ -6738,12 +6738,12 @@
         <v>100</v>
       </c>
       <c r="D74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B75" s="21">
         <v>58.49</v>
@@ -6752,12 +6752,12 @@
         <v>90</v>
       </c>
       <c r="D75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B76" s="21">
         <v>61.54</v>
@@ -6766,12 +6766,12 @@
         <v>100</v>
       </c>
       <c r="D76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B77" s="21">
         <v>67.430000000000007</v>
@@ -6780,12 +6780,12 @@
         <v>100</v>
       </c>
       <c r="D77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B78" s="21">
         <v>68.900000000000006</v>
@@ -6794,12 +6794,12 @@
         <v>90</v>
       </c>
       <c r="D78" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B79" s="21">
         <v>72.319999999999993</v>
@@ -6808,12 +6808,12 @@
         <v>100</v>
       </c>
       <c r="D79" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B80" s="21">
         <v>81.66</v>
@@ -6822,12 +6822,12 @@
         <v>100</v>
       </c>
       <c r="D80" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B81" s="21">
         <v>83.68</v>
@@ -6836,7 +6836,7 @@
         <v>100</v>
       </c>
       <c r="D81" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -6850,7 +6850,7 @@
         <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -6864,7 +6864,7 @@
         <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -6878,7 +6878,7 @@
         <v>100</v>
       </c>
       <c r="D84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -6892,7 +6892,7 @@
         <v>100</v>
       </c>
       <c r="D85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -6906,7 +6906,7 @@
         <v>100</v>
       </c>
       <c r="D86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -6920,7 +6920,7 @@
         <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -6934,7 +6934,7 @@
         <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -6948,7 +6948,7 @@
         <v>100</v>
       </c>
       <c r="D89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -6962,7 +6962,7 @@
         <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -6976,7 +6976,7 @@
         <v>100</v>
       </c>
       <c r="D91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -6990,7 +6990,7 @@
         <v>100</v>
       </c>
       <c r="D92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -7004,7 +7004,7 @@
         <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -7018,7 +7018,7 @@
         <v>100</v>
       </c>
       <c r="D94" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -7032,7 +7032,7 @@
         <v>100</v>
       </c>
       <c r="D95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -7046,7 +7046,7 @@
         <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -7060,7 +7060,7 @@
         <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -7101,60 +7101,60 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" t="s">
         <v>292</v>
       </c>
-      <c r="B1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M1" t="s">
         <v>290</v>
       </c>
-      <c r="D1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G1" t="s">
-        <v>296</v>
-      </c>
-      <c r="H1" t="s">
-        <v>297</v>
-      </c>
-      <c r="I1" t="s">
-        <v>288</v>
-      </c>
-      <c r="J1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K1" t="s">
-        <v>299</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>300</v>
       </c>
-      <c r="M1" t="s">
-        <v>291</v>
-      </c>
-      <c r="N1" t="s">
-        <v>301</v>
-      </c>
       <c r="O1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>177</v>
@@ -7179,7 +7179,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J2" s="25">
         <v>60</v>
@@ -7251,12 +7251,12 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20">
         <f>72*2</f>
@@ -7265,7 +7265,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B21">
         <f>16*2</f>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B22">
         <f>8*2</f>
@@ -7283,7 +7283,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B23">
         <f>SUM(B20:B22)</f>
@@ -7340,16 +7340,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7357,7 +7357,7 @@
         <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -7371,7 +7371,7 @@
         <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -7385,7 +7385,7 @@
         <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -7399,7 +7399,7 @@
         <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -7413,7 +7413,7 @@
         <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -7427,7 +7427,7 @@
         <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -7441,7 +7441,7 @@
         <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -7455,7 +7455,7 @@
         <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -7469,7 +7469,7 @@
         <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -7483,7 +7483,7 @@
         <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -7497,7 +7497,7 @@
         <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -7511,7 +7511,7 @@
         <v>177</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -7525,7 +7525,7 @@
         <v>177</v>
       </c>
       <c r="B14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -7539,7 +7539,7 @@
         <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -7553,7 +7553,7 @@
         <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -7567,7 +7567,7 @@
         <v>177</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -7581,7 +7581,7 @@
         <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -7595,7 +7595,7 @@
         <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -7609,7 +7609,7 @@
         <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -7623,7 +7623,7 @@
         <v>177</v>
       </c>
       <c r="B21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -7637,7 +7637,7 @@
         <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -7651,7 +7651,7 @@
         <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -7665,7 +7665,7 @@
         <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -7679,7 +7679,7 @@
         <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -7693,7 +7693,7 @@
         <v>177</v>
       </c>
       <c r="B26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -7707,7 +7707,7 @@
         <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -7721,7 +7721,7 @@
         <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -7735,7 +7735,7 @@
         <v>177</v>
       </c>
       <c r="B29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -7749,7 +7749,7 @@
         <v>177</v>
       </c>
       <c r="B30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -7763,7 +7763,7 @@
         <v>177</v>
       </c>
       <c r="B31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -7777,7 +7777,7 @@
         <v>177</v>
       </c>
       <c r="B32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -7791,7 +7791,7 @@
         <v>177</v>
       </c>
       <c r="B33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C33">
         <v>6</v>

--- a/data/planning.xlsx
+++ b/data/planning.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEBA67B-FC80-4949-8D66-A622778ADC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8FE922-0D33-46D8-BCB6-4FDAE0A61DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{BEFE39CF-4712-4775-9411-5C503787578E}"/>
+    <workbookView xWindow="1185" yWindow="1530" windowWidth="24975" windowHeight="18300" activeTab="3" xr2:uid="{BEFE39CF-4712-4775-9411-5C503787578E}"/>
   </bookViews>
   <sheets>
     <sheet name="selections" sheetId="1" r:id="rId1"/>
     <sheet name="wof_plots" sheetId="6" r:id="rId2"/>
     <sheet name="map 2" sheetId="9" r:id="rId3"/>
-    <sheet name="headrows" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId5"/>
-    <sheet name="pea_planting" sheetId="4" r:id="rId6"/>
-    <sheet name="bulk_pea_labels" sheetId="5" r:id="rId7"/>
+    <sheet name="guardrows" sheetId="11" r:id="rId4"/>
+    <sheet name="headrows" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
+    <sheet name="pea_planting" sheetId="4" r:id="rId7"/>
+    <sheet name="bulk_pea_labels" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="661">
   <si>
     <t>observationUnitName</t>
   </si>
@@ -2019,13 +2020,19 @@
   </si>
   <si>
     <t>42km S of Senafe</t>
+  </si>
+  <si>
+    <t>Nplots</t>
+  </si>
+  <si>
+    <t>guard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2084,6 +2091,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2567,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E147DB-166A-44B5-BCC5-098A0311CA8B}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5384,7 +5397,7 @@
   <dimension ref="C2:AF24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE30" sqref="AE30"/>
+      <selection activeCell="C7" sqref="C7:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7071,11 +7084,530 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87E3149-F9DD-4EEA-98FE-2BE3A4575C08}">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>318</v>
+      </c>
+      <c r="B22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>308</v>
+      </c>
+      <c r="B27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>310</v>
+      </c>
+      <c r="B29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>1035</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J29">
+    <sortCondition ref="D2:D29"/>
+  </sortState>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8182AD-1F8B-4032-B388-AB87E57B275B}">
-  <dimension ref="A1:S97"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:E65"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7087,19 +7619,21 @@
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7112,6 +7646,9 @@
       <c r="D1" t="s">
         <v>323</v>
       </c>
+      <c r="E1" t="s">
+        <v>659</v>
+      </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
@@ -7119,37 +7656,43 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K1" t="s">
+        <v>659</v>
+      </c>
+      <c r="L1" t="s">
         <v>192</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>325</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>326</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>327</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>328</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>329</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>330</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>331</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>193</v>
       </c>
@@ -7165,38 +7708,38 @@
       <c r="I2" t="s">
         <v>338</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>339</v>
       </c>
-      <c r="M2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N2" t="s">
-        <v>146</v>
-      </c>
       <c r="O2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q2" t="s">
         <v>340</v>
       </c>
-      <c r="P2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>146</v>
-      </c>
       <c r="R2" t="s">
         <v>146</v>
       </c>
       <c r="S2" t="s">
+        <v>146</v>
+      </c>
+      <c r="T2" t="s">
+        <v>146</v>
+      </c>
+      <c r="U2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>195</v>
       </c>
@@ -7212,414 +7755,444 @@
       <c r="I3" t="s">
         <v>345</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>346</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>347</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>348</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>340</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>109.7</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>349</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>314</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>29.16</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>353</v>
-      </c>
-      <c r="M4" t="s">
-        <v>354</v>
+        <v>538</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>29.16</v>
       </c>
       <c r="N4" t="s">
+        <v>539</v>
+      </c>
+      <c r="O4" t="s">
+        <v>146</v>
+      </c>
+      <c r="P4" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>340</v>
+      </c>
+      <c r="R4">
+        <v>106.8</v>
+      </c>
+      <c r="S4" t="s">
+        <v>356</v>
+      </c>
+      <c r="T4">
+        <v>325</v>
+      </c>
+      <c r="U4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5">
+        <v>19.05</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I5" t="s">
+        <v>509</v>
+      </c>
+      <c r="L5">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>19.05</v>
+      </c>
+      <c r="N5" t="s">
+        <v>510</v>
+      </c>
+      <c r="O5" t="s">
+        <v>511</v>
+      </c>
+      <c r="P5" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>340</v>
+      </c>
+      <c r="R5">
+        <v>105.1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>356</v>
+      </c>
+      <c r="T5">
+        <v>319</v>
+      </c>
+      <c r="U5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="9">
+        <v>83.68</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" t="s">
+        <v>614</v>
+      </c>
+      <c r="J6" t="s">
+        <v>321</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>83.68</v>
+      </c>
+      <c r="N6" t="s">
+        <v>615</v>
+      </c>
+      <c r="O6" t="s">
+        <v>146</v>
+      </c>
+      <c r="P6" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>438</v>
+      </c>
+      <c r="R6">
+        <v>110.8</v>
+      </c>
+      <c r="S6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T6" t="s">
+        <v>146</v>
+      </c>
+      <c r="U6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7">
+        <v>7.99</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" t="s">
+        <v>463</v>
+      </c>
+      <c r="J7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L7">
+        <v>70</v>
+      </c>
+      <c r="M7">
+        <v>7.99</v>
+      </c>
+      <c r="N7" t="s">
+        <v>464</v>
+      </c>
+      <c r="O7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>340</v>
+      </c>
+      <c r="R7">
+        <v>106</v>
+      </c>
+      <c r="S7" t="s">
+        <v>453</v>
+      </c>
+      <c r="T7" t="s">
+        <v>146</v>
+      </c>
+      <c r="U7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I8" t="s">
+        <v>409</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>3.5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>410</v>
+      </c>
+      <c r="O8" t="s">
+        <v>411</v>
+      </c>
+      <c r="P8" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>340</v>
+      </c>
+      <c r="R8" t="s">
+        <v>146</v>
+      </c>
+      <c r="S8" t="s">
+        <v>146</v>
+      </c>
+      <c r="T8" t="s">
+        <v>146</v>
+      </c>
+      <c r="U8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9">
+        <v>27.72</v>
+      </c>
+      <c r="C9">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" t="s">
+        <v>529</v>
+      </c>
+      <c r="L9">
+        <v>70</v>
+      </c>
+      <c r="M9">
+        <v>27.72</v>
+      </c>
+      <c r="N9" t="s">
+        <v>530</v>
+      </c>
+      <c r="O9" t="s">
+        <v>146</v>
+      </c>
+      <c r="P9" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>340</v>
+      </c>
+      <c r="R9">
+        <v>104.6</v>
+      </c>
+      <c r="S9" t="s">
+        <v>146</v>
+      </c>
+      <c r="T9">
+        <v>180</v>
+      </c>
+      <c r="U9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="10">
+        <v>3.83</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>202</v>
+      </c>
+      <c r="I10" t="s">
+        <v>413</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10">
+        <v>3.83</v>
+      </c>
+      <c r="N10" t="s">
+        <v>410</v>
+      </c>
+      <c r="O10" t="s">
+        <v>414</v>
+      </c>
+      <c r="P10" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>340</v>
+      </c>
+      <c r="R10" t="s">
+        <v>146</v>
+      </c>
+      <c r="S10" t="s">
+        <v>146</v>
+      </c>
+      <c r="T10" t="s">
+        <v>146</v>
+      </c>
+      <c r="U10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="9">
+        <v>58.49</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11" t="s">
+        <v>594</v>
+      </c>
+      <c r="J11" t="s">
+        <v>321</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>90</v>
+      </c>
+      <c r="M11">
+        <v>58.49</v>
+      </c>
+      <c r="N11" t="s">
+        <v>530</v>
+      </c>
+      <c r="O11" t="s">
+        <v>595</v>
+      </c>
+      <c r="P11" t="s">
         <v>355</v>
       </c>
-      <c r="O4" t="s">
-        <v>340</v>
-      </c>
-      <c r="P4">
-        <v>108.7</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>356</v>
-      </c>
-      <c r="R4">
-        <v>358</v>
-      </c>
-      <c r="S4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>239</v>
-      </c>
-      <c r="I5" t="s">
-        <v>360</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>361</v>
-      </c>
-      <c r="M5" t="s">
-        <v>146</v>
-      </c>
-      <c r="N5" t="s">
-        <v>146</v>
-      </c>
-      <c r="O5" t="s">
-        <v>362</v>
-      </c>
-      <c r="P5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>146</v>
-      </c>
-      <c r="R5" t="s">
-        <v>146</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="Q11" t="s">
+        <v>438</v>
+      </c>
+      <c r="R11">
+        <v>105.1</v>
+      </c>
+      <c r="S11" t="s">
+        <v>146</v>
+      </c>
+      <c r="T11">
+        <v>333</v>
+      </c>
+      <c r="U11" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>364</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>353</v>
-      </c>
-      <c r="M6" t="s">
-        <v>365</v>
-      </c>
-      <c r="N6" t="s">
-        <v>146</v>
-      </c>
-      <c r="O6" t="s">
-        <v>340</v>
-      </c>
-      <c r="P6" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>146</v>
-      </c>
-      <c r="R6" t="s">
-        <v>146</v>
-      </c>
-      <c r="S6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0.21</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>209</v>
-      </c>
-      <c r="I7" t="s">
-        <v>367</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0.21</v>
-      </c>
-      <c r="L7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M7" t="s">
-        <v>354</v>
-      </c>
-      <c r="N7" t="s">
-        <v>368</v>
-      </c>
-      <c r="O7" t="s">
-        <v>340</v>
-      </c>
-      <c r="P7">
-        <v>103.3</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>356</v>
-      </c>
-      <c r="R7">
-        <v>211</v>
-      </c>
-      <c r="S7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0.44</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>265</v>
-      </c>
-      <c r="I8" t="s">
-        <v>370</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0.44</v>
-      </c>
-      <c r="L8" t="s">
-        <v>353</v>
-      </c>
-      <c r="M8" t="s">
-        <v>371</v>
-      </c>
-      <c r="N8" t="s">
-        <v>146</v>
-      </c>
-      <c r="O8" t="s">
-        <v>340</v>
-      </c>
-      <c r="P8" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>146</v>
-      </c>
-      <c r="R8" t="s">
-        <v>146</v>
-      </c>
-      <c r="S8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0.64</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>222</v>
-      </c>
-      <c r="I9" t="s">
-        <v>373</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <v>0.64</v>
-      </c>
-      <c r="L9" t="s">
-        <v>361</v>
-      </c>
-      <c r="M9" t="s">
-        <v>146</v>
-      </c>
-      <c r="N9" t="s">
-        <v>146</v>
-      </c>
-      <c r="O9" t="s">
-        <v>340</v>
-      </c>
-      <c r="P9" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>146</v>
-      </c>
-      <c r="R9" t="s">
-        <v>146</v>
-      </c>
-      <c r="S9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>261</v>
-      </c>
-      <c r="I10" t="s">
-        <v>376</v>
-      </c>
-      <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="K10">
-        <v>0.7</v>
-      </c>
-      <c r="L10" t="s">
-        <v>353</v>
-      </c>
-      <c r="M10" t="s">
-        <v>377</v>
-      </c>
-      <c r="N10" t="s">
-        <v>146</v>
-      </c>
-      <c r="O10" t="s">
-        <v>340</v>
-      </c>
-      <c r="P10" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>146</v>
-      </c>
-      <c r="R10" t="s">
-        <v>146</v>
-      </c>
-      <c r="S10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>249</v>
-      </c>
-      <c r="B11" s="10">
-        <v>0.81</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I11" t="s">
-        <v>380</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0.81</v>
-      </c>
-      <c r="L11" t="s">
-        <v>381</v>
-      </c>
-      <c r="M11" t="s">
-        <v>146</v>
-      </c>
-      <c r="N11" t="s">
-        <v>146</v>
-      </c>
-      <c r="O11" t="s">
-        <v>340</v>
-      </c>
-      <c r="P11" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>146</v>
-      </c>
-      <c r="R11" t="s">
-        <v>146</v>
-      </c>
-      <c r="S11" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>204</v>
       </c>
@@ -7635,2177 +8208,2297 @@
       <c r="I12" t="s">
         <v>384</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>0</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>1.01</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>385</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>386</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>387</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>340</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>107.6</v>
       </c>
-      <c r="Q12" t="s">
-        <v>146</v>
-      </c>
-      <c r="R12">
+      <c r="S12" t="s">
+        <v>146</v>
+      </c>
+      <c r="T12">
         <v>451</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1.56</v>
+        <v>205</v>
+      </c>
+      <c r="B13">
+        <v>28.77</v>
       </c>
       <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" t="s">
+        <v>532</v>
+      </c>
+      <c r="L13">
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <v>28.77</v>
+      </c>
+      <c r="N13" t="s">
+        <v>533</v>
+      </c>
+      <c r="O13" t="s">
+        <v>534</v>
+      </c>
+      <c r="P13" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>438</v>
+      </c>
+      <c r="R13">
+        <v>109.3</v>
+      </c>
+      <c r="S13" t="s">
+        <v>356</v>
+      </c>
+      <c r="T13">
+        <v>214</v>
+      </c>
+      <c r="U13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="9">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="C14">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" t="s">
+        <v>604</v>
+      </c>
+      <c r="J14" t="s">
+        <v>321</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>90</v>
+      </c>
+      <c r="M14">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="N14" t="s">
+        <v>605</v>
+      </c>
+      <c r="O14" t="s">
+        <v>606</v>
+      </c>
+      <c r="P14" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>438</v>
+      </c>
+      <c r="R14">
+        <v>99</v>
+      </c>
+      <c r="S14" t="s">
+        <v>146</v>
+      </c>
+      <c r="T14">
+        <v>240</v>
+      </c>
+      <c r="U14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="10">
+        <v>7.88</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" t="s">
+        <v>460</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <v>7.88</v>
+      </c>
+      <c r="N15" t="s">
+        <v>353</v>
+      </c>
+      <c r="O15" t="s">
+        <v>461</v>
+      </c>
+      <c r="P15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>340</v>
+      </c>
+      <c r="R15" t="s">
+        <v>146</v>
+      </c>
+      <c r="S15" t="s">
+        <v>146</v>
+      </c>
+      <c r="T15" t="s">
+        <v>146</v>
+      </c>
+      <c r="U15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="9">
+        <v>61.54</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I16" t="s">
+        <v>597</v>
+      </c>
+      <c r="J16" t="s">
+        <v>321</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>61.54</v>
+      </c>
+      <c r="N16" t="s">
+        <v>569</v>
+      </c>
+      <c r="O16" t="s">
+        <v>146</v>
+      </c>
+      <c r="P16" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>438</v>
+      </c>
+      <c r="R16">
+        <v>100.5</v>
+      </c>
+      <c r="S16" t="s">
+        <v>146</v>
+      </c>
+      <c r="T16">
+        <v>346</v>
+      </c>
+      <c r="U16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
-        <v>264</v>
-      </c>
-      <c r="I13" t="s">
-        <v>389</v>
-      </c>
-      <c r="J13">
+      <c r="H17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I17" t="s">
+        <v>367</v>
+      </c>
+      <c r="L17">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>1.56</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M17">
+        <v>0.21</v>
+      </c>
+      <c r="N17" t="s">
         <v>353</v>
       </c>
-      <c r="M13" t="s">
-        <v>390</v>
-      </c>
-      <c r="N13" t="s">
-        <v>146</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="O17" t="s">
+        <v>354</v>
+      </c>
+      <c r="P17" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q17" t="s">
         <v>340</v>
       </c>
-      <c r="P13" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>146</v>
-      </c>
-      <c r="R13" t="s">
-        <v>146</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="R17">
+        <v>103.3</v>
+      </c>
+      <c r="S17" t="s">
+        <v>356</v>
+      </c>
+      <c r="T17">
+        <v>211</v>
+      </c>
+      <c r="U17" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="10">
+        <v>4.95</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>210</v>
+      </c>
+      <c r="I18" t="s">
+        <v>425</v>
+      </c>
+      <c r="L18">
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <v>4.95</v>
+      </c>
+      <c r="N18" t="s">
+        <v>353</v>
+      </c>
+      <c r="O18" t="s">
+        <v>354</v>
+      </c>
+      <c r="P18" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>340</v>
+      </c>
+      <c r="R18">
+        <v>104.4</v>
+      </c>
+      <c r="S18" t="s">
+        <v>356</v>
+      </c>
+      <c r="T18">
+        <v>227</v>
+      </c>
+      <c r="U18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="10">
+        <v>5.58</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I19" t="s">
+        <v>440</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>5.58</v>
+      </c>
+      <c r="N19" t="s">
+        <v>353</v>
+      </c>
+      <c r="O19" t="s">
+        <v>354</v>
+      </c>
+      <c r="P19" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>340</v>
+      </c>
+      <c r="R19">
+        <v>106.6</v>
+      </c>
+      <c r="S19" t="s">
+        <v>356</v>
+      </c>
+      <c r="T19">
+        <v>205</v>
+      </c>
+      <c r="U19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I20" t="s">
+        <v>352</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>353</v>
+      </c>
+      <c r="O20" t="s">
+        <v>354</v>
+      </c>
+      <c r="P20" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>340</v>
+      </c>
+      <c r="R20">
+        <v>108.7</v>
+      </c>
+      <c r="S20" t="s">
+        <v>356</v>
+      </c>
+      <c r="T20">
+        <v>358</v>
+      </c>
+      <c r="U20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="9">
+        <v>26.51</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" t="s">
+        <v>524</v>
+      </c>
+      <c r="J21" t="s">
+        <v>273</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <v>26.51</v>
+      </c>
+      <c r="N21" t="s">
+        <v>525</v>
+      </c>
+      <c r="O21" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>340</v>
+      </c>
+      <c r="R21">
+        <v>100.5</v>
+      </c>
+      <c r="S21" t="s">
+        <v>356</v>
+      </c>
+      <c r="T21">
+        <v>208</v>
+      </c>
+      <c r="U21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="9">
+        <v>53.38</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>321</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>214</v>
+      </c>
+      <c r="I22" t="s">
+        <v>583</v>
+      </c>
+      <c r="J22" t="s">
+        <v>321</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22">
+        <v>53.38</v>
+      </c>
+      <c r="N22" t="s">
+        <v>584</v>
+      </c>
+      <c r="O22" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>362</v>
+      </c>
+      <c r="R22">
+        <v>107.4</v>
+      </c>
+      <c r="S22" t="s">
+        <v>349</v>
+      </c>
+      <c r="T22">
+        <v>339</v>
+      </c>
+      <c r="U22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23">
+        <v>45.72</v>
+      </c>
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="H23" t="s">
+        <v>215</v>
+      </c>
+      <c r="I23" t="s">
+        <v>568</v>
+      </c>
+      <c r="L23">
+        <v>60</v>
+      </c>
+      <c r="M23">
+        <v>45.72</v>
+      </c>
+      <c r="N23" t="s">
+        <v>569</v>
+      </c>
+      <c r="O23" t="s">
+        <v>146</v>
+      </c>
+      <c r="P23" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>438</v>
+      </c>
+      <c r="R23">
+        <v>107.2</v>
+      </c>
+      <c r="S23" t="s">
+        <v>453</v>
+      </c>
+      <c r="T23" t="s">
+        <v>146</v>
+      </c>
+      <c r="U23" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" s="10">
+        <v>5.22</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>216</v>
+      </c>
+      <c r="I24" t="s">
+        <v>429</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>5.22</v>
+      </c>
+      <c r="N24" t="s">
+        <v>430</v>
+      </c>
+      <c r="O24" t="s">
+        <v>431</v>
+      </c>
+      <c r="P24" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>340</v>
+      </c>
+      <c r="R24" t="s">
+        <v>146</v>
+      </c>
+      <c r="S24" t="s">
+        <v>146</v>
+      </c>
+      <c r="T24" t="s">
+        <v>146</v>
+      </c>
+      <c r="U24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="9">
+        <v>31.36</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>217</v>
+      </c>
+      <c r="I25" t="s">
+        <v>543</v>
+      </c>
+      <c r="J25" t="s">
+        <v>273</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="M25">
+        <v>31.36</v>
+      </c>
+      <c r="N25" t="s">
+        <v>544</v>
+      </c>
+      <c r="O25" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>438</v>
+      </c>
+      <c r="R25">
+        <v>102.2</v>
+      </c>
+      <c r="S25" t="s">
+        <v>146</v>
+      </c>
+      <c r="T25">
+        <v>239</v>
+      </c>
+      <c r="U25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26">
+        <v>10.26</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>218</v>
+      </c>
+      <c r="I26" t="s">
+        <v>475</v>
+      </c>
+      <c r="L26">
+        <v>40</v>
+      </c>
+      <c r="M26">
+        <v>10.26</v>
+      </c>
+      <c r="N26" t="s">
+        <v>476</v>
+      </c>
+      <c r="O26" t="s">
+        <v>146</v>
+      </c>
+      <c r="P26" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>340</v>
+      </c>
+      <c r="R26" t="s">
+        <v>146</v>
+      </c>
+      <c r="S26" t="s">
+        <v>477</v>
+      </c>
+      <c r="T26">
+        <v>202</v>
+      </c>
+      <c r="U26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="9">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>321</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>219</v>
+      </c>
+      <c r="I27" t="s">
+        <v>608</v>
+      </c>
+      <c r="J27" t="s">
+        <v>321</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="M27">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="N27" t="s">
+        <v>589</v>
+      </c>
+      <c r="O27" t="s">
+        <v>146</v>
+      </c>
+      <c r="P27" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>438</v>
+      </c>
+      <c r="R27">
+        <v>101.6</v>
+      </c>
+      <c r="S27" t="s">
+        <v>349</v>
+      </c>
+      <c r="T27">
+        <v>179</v>
+      </c>
+      <c r="U27" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="9">
+        <v>35.31</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>273</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>220</v>
+      </c>
+      <c r="I28" t="s">
+        <v>550</v>
+      </c>
+      <c r="J28" t="s">
+        <v>273</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+      <c r="M28">
+        <v>35.31</v>
+      </c>
+      <c r="N28" t="s">
+        <v>361</v>
+      </c>
+      <c r="O28" t="s">
+        <v>146</v>
+      </c>
+      <c r="P28" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>340</v>
+      </c>
+      <c r="R28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S28" t="s">
+        <v>146</v>
+      </c>
+      <c r="T28" t="s">
+        <v>146</v>
+      </c>
+      <c r="U28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B29" s="10">
+        <v>4.96</v>
+      </c>
+      <c r="C29">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
+        <v>221</v>
+      </c>
+      <c r="I29" t="s">
+        <v>427</v>
+      </c>
+      <c r="L29">
+        <v>40</v>
+      </c>
+      <c r="M29">
+        <v>4.96</v>
+      </c>
+      <c r="N29" t="s">
+        <v>361</v>
+      </c>
+      <c r="O29" t="s">
+        <v>146</v>
+      </c>
+      <c r="P29" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>340</v>
+      </c>
+      <c r="R29" t="s">
+        <v>146</v>
+      </c>
+      <c r="S29" t="s">
+        <v>146</v>
+      </c>
+      <c r="T29" t="s">
+        <v>146</v>
+      </c>
+      <c r="U29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>222</v>
+      </c>
+      <c r="I30" t="s">
+        <v>373</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>0.64</v>
+      </c>
+      <c r="N30" t="s">
+        <v>361</v>
+      </c>
+      <c r="O30" t="s">
+        <v>146</v>
+      </c>
+      <c r="P30" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>340</v>
+      </c>
+      <c r="R30" t="s">
+        <v>146</v>
+      </c>
+      <c r="S30" t="s">
+        <v>146</v>
+      </c>
+      <c r="T30" t="s">
+        <v>146</v>
+      </c>
+      <c r="U30" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B31" s="10">
+        <v>5.33</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>223</v>
+      </c>
+      <c r="I31" t="s">
+        <v>434</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>5.33</v>
+      </c>
+      <c r="N31" t="s">
+        <v>361</v>
+      </c>
+      <c r="O31" t="s">
+        <v>146</v>
+      </c>
+      <c r="P31" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>340</v>
+      </c>
+      <c r="R31" t="s">
+        <v>146</v>
+      </c>
+      <c r="S31" t="s">
+        <v>146</v>
+      </c>
+      <c r="T31" t="s">
+        <v>146</v>
+      </c>
+      <c r="U31" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" s="9">
+        <v>10.6</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>273</v>
+      </c>
+      <c r="H32" t="s">
+        <v>224</v>
+      </c>
+      <c r="I32" t="s">
+        <v>483</v>
+      </c>
+      <c r="J32" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32">
+        <v>100</v>
+      </c>
+      <c r="M32">
+        <v>10.6</v>
+      </c>
+      <c r="N32" t="s">
+        <v>484</v>
+      </c>
+      <c r="O32" t="s">
+        <v>146</v>
+      </c>
+      <c r="P32" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>438</v>
+      </c>
+      <c r="R32">
+        <v>100.4</v>
+      </c>
+      <c r="S32" t="s">
+        <v>356</v>
+      </c>
+      <c r="T32">
         <v>263</v>
       </c>
-      <c r="B14" s="10">
-        <v>1.66</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>263</v>
-      </c>
-      <c r="I14" t="s">
-        <v>392</v>
-      </c>
-      <c r="J14">
-        <v>20</v>
-      </c>
-      <c r="K14">
-        <v>1.66</v>
-      </c>
-      <c r="L14" t="s">
-        <v>353</v>
-      </c>
-      <c r="M14" t="s">
-        <v>393</v>
-      </c>
-      <c r="N14" t="s">
-        <v>146</v>
-      </c>
-      <c r="O14" t="s">
-        <v>340</v>
-      </c>
-      <c r="P14" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>146</v>
-      </c>
-      <c r="R14" t="s">
-        <v>146</v>
-      </c>
-      <c r="S14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1.83</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>267</v>
-      </c>
-      <c r="I15" t="s">
-        <v>395</v>
-      </c>
-      <c r="J15">
-        <v>30</v>
-      </c>
-      <c r="K15">
-        <v>1.83</v>
-      </c>
-      <c r="L15" t="s">
-        <v>353</v>
-      </c>
-      <c r="M15" t="s">
-        <v>396</v>
-      </c>
-      <c r="N15" t="s">
-        <v>146</v>
-      </c>
-      <c r="O15" t="s">
-        <v>146</v>
-      </c>
-      <c r="P15" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>146</v>
-      </c>
-      <c r="R15" t="s">
-        <v>146</v>
-      </c>
-      <c r="S15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>272</v>
-      </c>
-      <c r="B16" s="10">
-        <v>2.08</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>272</v>
-      </c>
-      <c r="I16" t="s">
-        <v>398</v>
-      </c>
-      <c r="J16">
-        <v>20</v>
-      </c>
-      <c r="K16">
-        <v>2.08</v>
-      </c>
-      <c r="L16" t="s">
-        <v>399</v>
-      </c>
-      <c r="M16" t="s">
-        <v>400</v>
-      </c>
-      <c r="N16" t="s">
-        <v>348</v>
-      </c>
-      <c r="O16" t="s">
-        <v>340</v>
-      </c>
-      <c r="P16">
-        <v>110.9</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="U32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="8">
+        <v>99.23</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>194</v>
+      </c>
+      <c r="H33" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" t="s">
+        <v>144</v>
+      </c>
+      <c r="J33" t="s">
+        <v>194</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+      <c r="M33">
+        <v>99.23</v>
+      </c>
+      <c r="N33" t="s">
+        <v>484</v>
+      </c>
+      <c r="O33" t="s">
+        <v>146</v>
+      </c>
+      <c r="P33" t="s">
         <v>356</v>
       </c>
-      <c r="R16">
-        <v>308</v>
-      </c>
-      <c r="S16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>257</v>
-      </c>
-      <c r="B17" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s">
-        <v>257</v>
-      </c>
-      <c r="I17" t="s">
-        <v>402</v>
-      </c>
-      <c r="J17">
-        <v>10</v>
-      </c>
-      <c r="K17">
-        <v>2.1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>403</v>
-      </c>
-      <c r="M17" t="s">
-        <v>146</v>
-      </c>
-      <c r="N17" t="s">
-        <v>368</v>
-      </c>
-      <c r="O17" t="s">
-        <v>340</v>
-      </c>
-      <c r="P17">
-        <v>114.8</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="Q33" t="s">
+        <v>438</v>
+      </c>
+      <c r="R33">
+        <v>101</v>
+      </c>
+      <c r="S33" t="s">
         <v>356</v>
       </c>
-      <c r="R17">
-        <v>185</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="T33">
+        <v>218</v>
+      </c>
+      <c r="U33" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>266</v>
-      </c>
-      <c r="B18" s="10">
-        <v>3.37</v>
-      </c>
-      <c r="C18">
-        <v>50</v>
-      </c>
-      <c r="H18" t="s">
-        <v>266</v>
-      </c>
-      <c r="I18" t="s">
-        <v>407</v>
-      </c>
-      <c r="J18">
-        <v>50</v>
-      </c>
-      <c r="K18">
-        <v>3.37</v>
-      </c>
-      <c r="L18" t="s">
-        <v>353</v>
-      </c>
-      <c r="M18" t="s">
-        <v>396</v>
-      </c>
-      <c r="N18" t="s">
-        <v>146</v>
-      </c>
-      <c r="O18" t="s">
-        <v>340</v>
-      </c>
-      <c r="P18" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>146</v>
-      </c>
-      <c r="R18" t="s">
-        <v>146</v>
-      </c>
-      <c r="S18" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="C19">
-        <v>50</v>
-      </c>
-      <c r="H19" t="s">
-        <v>200</v>
-      </c>
-      <c r="I19" t="s">
-        <v>409</v>
-      </c>
-      <c r="J19">
-        <v>50</v>
-      </c>
-      <c r="K19">
-        <v>3.5</v>
-      </c>
-      <c r="L19" t="s">
-        <v>410</v>
-      </c>
-      <c r="M19" t="s">
-        <v>411</v>
-      </c>
-      <c r="N19" t="s">
-        <v>146</v>
-      </c>
-      <c r="O19" t="s">
-        <v>340</v>
-      </c>
-      <c r="P19" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>146</v>
-      </c>
-      <c r="R19" t="s">
-        <v>146</v>
-      </c>
-      <c r="S19" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20" s="10">
-        <v>3.83</v>
-      </c>
-      <c r="C20">
-        <v>50</v>
-      </c>
-      <c r="H20" t="s">
-        <v>202</v>
-      </c>
-      <c r="I20" t="s">
-        <v>413</v>
-      </c>
-      <c r="J20">
-        <v>50</v>
-      </c>
-      <c r="K20">
-        <v>3.83</v>
-      </c>
-      <c r="L20" t="s">
-        <v>410</v>
-      </c>
-      <c r="M20" t="s">
-        <v>414</v>
-      </c>
-      <c r="N20" t="s">
-        <v>146</v>
-      </c>
-      <c r="O20" t="s">
-        <v>340</v>
-      </c>
-      <c r="P20" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>146</v>
-      </c>
-      <c r="R20" t="s">
-        <v>146</v>
-      </c>
-      <c r="S20" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B21" s="10">
-        <v>4.01</v>
-      </c>
-      <c r="C21">
-        <v>30</v>
-      </c>
-      <c r="H21" t="s">
-        <v>255</v>
-      </c>
-      <c r="I21" t="s">
-        <v>416</v>
-      </c>
-      <c r="J21">
-        <v>30</v>
-      </c>
-      <c r="K21">
-        <v>4.01</v>
-      </c>
-      <c r="L21" t="s">
-        <v>417</v>
-      </c>
-      <c r="M21" t="s">
-        <v>146</v>
-      </c>
-      <c r="N21" t="s">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B34" s="9">
+        <v>29.07</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
+        <v>273</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>225</v>
+      </c>
+      <c r="I34" t="s">
+        <v>536</v>
+      </c>
+      <c r="J34" t="s">
+        <v>273</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>100</v>
+      </c>
+      <c r="M34">
+        <v>29.07</v>
+      </c>
+      <c r="N34" t="s">
+        <v>484</v>
+      </c>
+      <c r="O34" t="s">
+        <v>146</v>
+      </c>
+      <c r="P34" t="s">
         <v>356</v>
       </c>
-      <c r="O21" t="s">
-        <v>418</v>
-      </c>
-      <c r="P21">
-        <v>100.5</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="Q34" t="s">
+        <v>438</v>
+      </c>
+      <c r="R34">
+        <v>101</v>
+      </c>
+      <c r="S34" t="s">
         <v>356</v>
       </c>
-      <c r="R21">
-        <v>251</v>
-      </c>
-      <c r="S21" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>243</v>
-      </c>
-      <c r="B22" s="10">
-        <v>4.12</v>
-      </c>
-      <c r="C22">
-        <v>40</v>
-      </c>
-      <c r="H22" t="s">
-        <v>243</v>
-      </c>
-      <c r="I22" t="s">
-        <v>421</v>
-      </c>
-      <c r="J22">
-        <v>40</v>
-      </c>
-      <c r="K22">
-        <v>4.12</v>
-      </c>
-      <c r="L22" t="s">
-        <v>422</v>
-      </c>
-      <c r="M22" t="s">
-        <v>146</v>
-      </c>
-      <c r="N22" t="s">
-        <v>356</v>
-      </c>
-      <c r="O22" t="s">
-        <v>340</v>
-      </c>
-      <c r="P22">
-        <v>110.9</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>423</v>
-      </c>
-      <c r="R22">
-        <v>307</v>
-      </c>
-      <c r="S22" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>210</v>
-      </c>
-      <c r="B23" s="10">
-        <v>4.95</v>
-      </c>
-      <c r="C23">
-        <v>30</v>
-      </c>
-      <c r="H23" t="s">
-        <v>210</v>
-      </c>
-      <c r="I23" t="s">
-        <v>425</v>
-      </c>
-      <c r="J23">
-        <v>30</v>
-      </c>
-      <c r="K23">
-        <v>4.95</v>
-      </c>
-      <c r="L23" t="s">
-        <v>353</v>
-      </c>
-      <c r="M23" t="s">
-        <v>354</v>
-      </c>
-      <c r="N23" t="s">
-        <v>356</v>
-      </c>
-      <c r="O23" t="s">
-        <v>340</v>
-      </c>
-      <c r="P23">
-        <v>104.4</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>356</v>
-      </c>
-      <c r="R23">
-        <v>227</v>
-      </c>
-      <c r="S23" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" s="10">
-        <v>4.96</v>
-      </c>
-      <c r="C24">
-        <v>40</v>
-      </c>
-      <c r="H24" t="s">
-        <v>221</v>
-      </c>
-      <c r="I24" t="s">
-        <v>427</v>
-      </c>
-      <c r="J24">
-        <v>40</v>
-      </c>
-      <c r="K24">
-        <v>4.96</v>
-      </c>
-      <c r="L24" t="s">
-        <v>361</v>
-      </c>
-      <c r="M24" t="s">
-        <v>146</v>
-      </c>
-      <c r="N24" t="s">
-        <v>146</v>
-      </c>
-      <c r="O24" t="s">
-        <v>340</v>
-      </c>
-      <c r="P24" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>146</v>
-      </c>
-      <c r="R24" t="s">
-        <v>146</v>
-      </c>
-      <c r="S24" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="10">
-        <v>5.22</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="H25" t="s">
-        <v>216</v>
-      </c>
-      <c r="I25" t="s">
-        <v>429</v>
-      </c>
-      <c r="J25">
-        <v>10</v>
-      </c>
-      <c r="K25">
-        <v>5.22</v>
-      </c>
-      <c r="L25" t="s">
-        <v>430</v>
-      </c>
-      <c r="M25" t="s">
-        <v>431</v>
-      </c>
-      <c r="N25" t="s">
-        <v>146</v>
-      </c>
-      <c r="O25" t="s">
-        <v>340</v>
-      </c>
-      <c r="P25" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>146</v>
-      </c>
-      <c r="R25" t="s">
-        <v>146</v>
-      </c>
-      <c r="S25" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>223</v>
-      </c>
-      <c r="B26" s="10">
-        <v>5.33</v>
-      </c>
-      <c r="C26">
-        <v>30</v>
-      </c>
-      <c r="H26" t="s">
-        <v>223</v>
-      </c>
-      <c r="I26" t="s">
-        <v>434</v>
-      </c>
-      <c r="J26">
-        <v>30</v>
-      </c>
-      <c r="K26">
-        <v>5.33</v>
-      </c>
-      <c r="L26" t="s">
-        <v>361</v>
-      </c>
-      <c r="M26" t="s">
-        <v>146</v>
-      </c>
-      <c r="N26" t="s">
-        <v>146</v>
-      </c>
-      <c r="O26" t="s">
-        <v>340</v>
-      </c>
-      <c r="P26" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>146</v>
-      </c>
-      <c r="R26" t="s">
-        <v>146</v>
-      </c>
-      <c r="S26" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>237</v>
-      </c>
-      <c r="B27" s="10">
-        <v>5.52</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="H27" t="s">
-        <v>237</v>
-      </c>
-      <c r="I27" t="s">
-        <v>436</v>
-      </c>
-      <c r="J27">
-        <v>10</v>
-      </c>
-      <c r="K27">
-        <v>5.52</v>
-      </c>
-      <c r="L27" t="s">
-        <v>361</v>
-      </c>
-      <c r="M27" t="s">
-        <v>146</v>
-      </c>
-      <c r="N27" t="s">
-        <v>437</v>
-      </c>
-      <c r="O27" t="s">
-        <v>438</v>
-      </c>
-      <c r="P27">
-        <v>112.6</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>356</v>
-      </c>
-      <c r="R27">
-        <v>276</v>
-      </c>
-      <c r="S27" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B28" s="10">
-        <v>5.58</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>211</v>
-      </c>
-      <c r="I28" t="s">
-        <v>440</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>5.58</v>
-      </c>
-      <c r="L28" t="s">
-        <v>353</v>
-      </c>
-      <c r="M28" t="s">
-        <v>354</v>
-      </c>
-      <c r="N28" t="s">
-        <v>348</v>
-      </c>
-      <c r="O28" t="s">
-        <v>340</v>
-      </c>
-      <c r="P28">
-        <v>106.6</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>356</v>
-      </c>
-      <c r="R28">
-        <v>205</v>
-      </c>
-      <c r="S28" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>234</v>
-      </c>
-      <c r="B29" s="10">
-        <v>5.97</v>
-      </c>
-      <c r="C29">
-        <v>70</v>
-      </c>
-      <c r="H29" t="s">
-        <v>234</v>
-      </c>
-      <c r="I29" t="s">
-        <v>442</v>
-      </c>
-      <c r="J29">
-        <v>70</v>
-      </c>
-      <c r="K29">
-        <v>5.97</v>
-      </c>
-      <c r="L29" t="s">
-        <v>443</v>
-      </c>
-      <c r="M29" t="s">
-        <v>146</v>
-      </c>
-      <c r="N29" t="s">
-        <v>348</v>
-      </c>
-      <c r="O29" t="s">
-        <v>438</v>
-      </c>
-      <c r="P29">
-        <v>102.2</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>356</v>
-      </c>
-      <c r="R29">
+      <c r="T34">
+        <v>194</v>
+      </c>
+      <c r="U34" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>226</v>
       </c>
-      <c r="S29" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B30" s="10">
-        <v>7.17</v>
-      </c>
-      <c r="C30">
-        <v>30</v>
-      </c>
-      <c r="H30" t="s">
-        <v>227</v>
-      </c>
-      <c r="I30" t="s">
-        <v>446</v>
-      </c>
-      <c r="J30">
-        <v>30</v>
-      </c>
-      <c r="K30">
-        <v>7.17</v>
-      </c>
-      <c r="L30" t="s">
-        <v>447</v>
-      </c>
-      <c r="M30" t="s">
-        <v>146</v>
-      </c>
-      <c r="N30" t="s">
-        <v>448</v>
-      </c>
-      <c r="O30" t="s">
-        <v>340</v>
-      </c>
-      <c r="P30">
-        <v>107.4</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>449</v>
-      </c>
-      <c r="R30">
-        <v>258</v>
-      </c>
-      <c r="S30" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31" s="10">
-        <v>7.2</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="H31" t="s">
-        <v>229</v>
-      </c>
-      <c r="I31" t="s">
-        <v>451</v>
-      </c>
-      <c r="J31">
-        <v>10</v>
-      </c>
-      <c r="K31">
-        <v>7.2</v>
-      </c>
-      <c r="L31" t="s">
-        <v>452</v>
-      </c>
-      <c r="M31" t="s">
-        <v>146</v>
-      </c>
-      <c r="N31" t="s">
-        <v>387</v>
-      </c>
-      <c r="O31" t="s">
-        <v>340</v>
-      </c>
-      <c r="P31">
-        <v>103.7</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>453</v>
-      </c>
-      <c r="R31" t="s">
-        <v>146</v>
-      </c>
-      <c r="S31" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>269</v>
-      </c>
-      <c r="B32" s="10">
-        <v>7.42</v>
-      </c>
-      <c r="C32">
-        <v>30</v>
-      </c>
-      <c r="H32" t="s">
-        <v>269</v>
-      </c>
-      <c r="I32" t="s">
-        <v>455</v>
-      </c>
-      <c r="J32">
-        <v>30</v>
-      </c>
-      <c r="K32">
-        <v>7.42</v>
-      </c>
-      <c r="L32" t="s">
-        <v>353</v>
-      </c>
-      <c r="M32" t="s">
-        <v>456</v>
-      </c>
-      <c r="N32" t="s">
-        <v>146</v>
-      </c>
-      <c r="O32" t="s">
-        <v>340</v>
-      </c>
-      <c r="P32" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>146</v>
-      </c>
-      <c r="R32" t="s">
-        <v>146</v>
-      </c>
-      <c r="S32" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>238</v>
-      </c>
-      <c r="B33" s="10">
-        <v>7.49</v>
-      </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-      <c r="H33" t="s">
-        <v>238</v>
-      </c>
-      <c r="I33" t="s">
-        <v>458</v>
-      </c>
-      <c r="J33">
-        <v>10</v>
-      </c>
-      <c r="K33">
-        <v>7.49</v>
-      </c>
-      <c r="L33" t="s">
-        <v>361</v>
-      </c>
-      <c r="M33" t="s">
-        <v>146</v>
-      </c>
-      <c r="N33" t="s">
-        <v>146</v>
-      </c>
-      <c r="O33" t="s">
-        <v>362</v>
-      </c>
-      <c r="P33" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>146</v>
-      </c>
-      <c r="R33" t="s">
-        <v>146</v>
-      </c>
-      <c r="S33" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>207</v>
-      </c>
-      <c r="B34" s="10">
-        <v>7.88</v>
-      </c>
-      <c r="C34">
-        <v>20</v>
-      </c>
-      <c r="H34" t="s">
-        <v>207</v>
-      </c>
-      <c r="I34" t="s">
-        <v>460</v>
-      </c>
-      <c r="J34">
-        <v>20</v>
-      </c>
-      <c r="K34">
-        <v>7.88</v>
-      </c>
-      <c r="L34" t="s">
-        <v>353</v>
-      </c>
-      <c r="M34" t="s">
-        <v>461</v>
-      </c>
-      <c r="N34" t="s">
-        <v>146</v>
-      </c>
-      <c r="O34" t="s">
-        <v>340</v>
-      </c>
-      <c r="P34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>146</v>
-      </c>
-      <c r="R34" t="s">
-        <v>146</v>
-      </c>
-      <c r="S34" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>199</v>
-      </c>
-      <c r="B35">
-        <v>7.99</v>
+      <c r="B35" s="9">
+        <v>33.020000000000003</v>
       </c>
       <c r="C35">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
         <v>273</v>
       </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
       <c r="H35" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="I35" t="s">
-        <v>463</v>
-      </c>
-      <c r="J35">
-        <v>70</v>
-      </c>
-      <c r="K35">
-        <v>7.99</v>
-      </c>
-      <c r="L35" t="s">
-        <v>464</v>
-      </c>
-      <c r="M35" t="s">
-        <v>465</v>
+        <v>547</v>
+      </c>
+      <c r="J35" t="s">
+        <v>273</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
+      </c>
+      <c r="M35">
+        <v>33.020000000000003</v>
       </c>
       <c r="N35" t="s">
-        <v>466</v>
+        <v>548</v>
       </c>
       <c r="O35" t="s">
+        <v>146</v>
+      </c>
+      <c r="P35" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>438</v>
+      </c>
+      <c r="R35">
+        <v>105.7</v>
+      </c>
+      <c r="S35" t="s">
+        <v>356</v>
+      </c>
+      <c r="T35">
+        <v>408</v>
+      </c>
+      <c r="U35" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="10">
+        <v>7.17</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="H36" t="s">
+        <v>227</v>
+      </c>
+      <c r="I36" t="s">
+        <v>446</v>
+      </c>
+      <c r="L36">
+        <v>30</v>
+      </c>
+      <c r="M36">
+        <v>7.17</v>
+      </c>
+      <c r="N36" t="s">
+        <v>447</v>
+      </c>
+      <c r="O36" t="s">
+        <v>146</v>
+      </c>
+      <c r="P36" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q36" t="s">
         <v>340</v>
       </c>
-      <c r="P35">
-        <v>106</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>453</v>
-      </c>
-      <c r="R35" t="s">
-        <v>146</v>
-      </c>
-      <c r="S35" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>235</v>
-      </c>
-      <c r="B36" s="9">
-        <v>9.09</v>
-      </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-      <c r="H36" t="s">
-        <v>235</v>
-      </c>
-      <c r="I36" t="s">
-        <v>468</v>
-      </c>
-      <c r="J36">
-        <v>100</v>
-      </c>
-      <c r="K36">
-        <v>9.09</v>
-      </c>
-      <c r="L36" t="s">
-        <v>469</v>
-      </c>
-      <c r="M36" t="s">
-        <v>146</v>
-      </c>
-      <c r="N36" t="s">
-        <v>348</v>
-      </c>
-      <c r="O36" t="s">
-        <v>438</v>
-      </c>
-      <c r="P36">
-        <v>98.9</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>356</v>
-      </c>
       <c r="R36">
-        <v>206</v>
+        <v>107.4</v>
       </c>
       <c r="S36" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="T36">
+        <v>258</v>
+      </c>
+      <c r="U36" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="B37" s="9">
-        <v>10</v>
+        <v>29.74</v>
       </c>
       <c r="C37">
         <v>100</v>
       </c>
-      <c r="E37" s="10">
-        <v>0</v>
+      <c r="D37" t="s">
+        <v>273</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="I37" t="s">
-        <v>472</v>
-      </c>
-      <c r="J37">
+        <v>541</v>
+      </c>
+      <c r="J37" t="s">
+        <v>273</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
         <v>100</v>
       </c>
-      <c r="K37">
+      <c r="M37">
+        <v>29.74</v>
+      </c>
+      <c r="N37" t="s">
+        <v>447</v>
+      </c>
+      <c r="O37" t="s">
+        <v>146</v>
+      </c>
+      <c r="P37" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>340</v>
+      </c>
+      <c r="R37">
+        <v>105.7</v>
+      </c>
+      <c r="S37" t="s">
+        <v>453</v>
+      </c>
+      <c r="T37">
+        <v>226</v>
+      </c>
+      <c r="U37" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="8">
+        <v>120.98</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38" t="s">
+        <v>194</v>
+      </c>
+      <c r="H38" t="s">
+        <v>148</v>
+      </c>
+      <c r="I38" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" t="s">
+        <v>194</v>
+      </c>
+      <c r="L38">
+        <v>100</v>
+      </c>
+      <c r="M38">
+        <v>120.98</v>
+      </c>
+      <c r="N38" t="s">
+        <v>447</v>
+      </c>
+      <c r="O38" t="s">
+        <v>146</v>
+      </c>
+      <c r="P38" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>438</v>
+      </c>
+      <c r="R38">
+        <v>109.7</v>
+      </c>
+      <c r="S38" t="s">
+        <v>453</v>
+      </c>
+      <c r="T38">
+        <v>268</v>
+      </c>
+      <c r="U38" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="C39">
         <v>10</v>
       </c>
-      <c r="L37" t="s">
-        <v>353</v>
-      </c>
-      <c r="M37" t="s">
-        <v>473</v>
-      </c>
-      <c r="N37" t="s">
-        <v>146</v>
-      </c>
-      <c r="O37" t="s">
-        <v>438</v>
-      </c>
-      <c r="P37" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>146</v>
-      </c>
-      <c r="R37" t="s">
-        <v>146</v>
-      </c>
-      <c r="S37" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>218</v>
-      </c>
-      <c r="B38">
-        <v>10.26</v>
-      </c>
-      <c r="C38">
-        <v>40</v>
-      </c>
-      <c r="H38" t="s">
-        <v>218</v>
-      </c>
-      <c r="I38" t="s">
-        <v>475</v>
-      </c>
-      <c r="J38">
-        <v>40</v>
-      </c>
-      <c r="K38">
-        <v>10.26</v>
-      </c>
-      <c r="L38" t="s">
-        <v>476</v>
-      </c>
-      <c r="M38" t="s">
-        <v>146</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="H39" t="s">
+        <v>229</v>
+      </c>
+      <c r="I39" t="s">
+        <v>451</v>
+      </c>
+      <c r="L39">
+        <v>10</v>
+      </c>
+      <c r="M39">
+        <v>7.2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>452</v>
+      </c>
+      <c r="O39" t="s">
+        <v>146</v>
+      </c>
+      <c r="P39" t="s">
         <v>387</v>
       </c>
-      <c r="O38" t="s">
+      <c r="Q39" t="s">
         <v>340</v>
       </c>
-      <c r="P38" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>477</v>
-      </c>
-      <c r="R38">
-        <v>202</v>
-      </c>
-      <c r="S38" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="R39">
+        <v>103.7</v>
+      </c>
+      <c r="S39" t="s">
+        <v>453</v>
+      </c>
+      <c r="T39" t="s">
+        <v>146</v>
+      </c>
+      <c r="U39" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>230</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>10.38</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>20</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>230</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I40" t="s">
         <v>479</v>
       </c>
-      <c r="J39">
+      <c r="L40">
         <v>20</v>
       </c>
-      <c r="K39">
+      <c r="M40">
         <v>10.38</v>
       </c>
-      <c r="L39" t="s">
+      <c r="N40" t="s">
         <v>361</v>
       </c>
-      <c r="M39" t="s">
+      <c r="O40" t="s">
         <v>480</v>
       </c>
-      <c r="N39" t="s">
+      <c r="P40" t="s">
         <v>437</v>
       </c>
-      <c r="O39" t="s">
+      <c r="Q40" t="s">
         <v>340</v>
       </c>
-      <c r="P39">
+      <c r="R40">
         <v>116.1</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="S40" t="s">
         <v>481</v>
       </c>
-      <c r="R39">
+      <c r="T40">
         <v>366</v>
       </c>
-      <c r="S39" t="s">
+      <c r="U40" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>224</v>
-      </c>
-      <c r="B40" s="9">
-        <v>10.6</v>
-      </c>
-      <c r="C40">
-        <v>100</v>
-      </c>
-      <c r="D40" t="s">
-        <v>273</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
-        <v>224</v>
-      </c>
-      <c r="I40" t="s">
-        <v>483</v>
-      </c>
-      <c r="J40">
-        <v>100</v>
-      </c>
-      <c r="K40">
-        <v>10.6</v>
-      </c>
-      <c r="L40" t="s">
-        <v>484</v>
-      </c>
-      <c r="M40" t="s">
-        <v>146</v>
-      </c>
-      <c r="N40" t="s">
-        <v>356</v>
-      </c>
-      <c r="O40" t="s">
-        <v>438</v>
-      </c>
-      <c r="P40">
-        <v>100.4</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>356</v>
-      </c>
-      <c r="R40">
-        <v>263</v>
-      </c>
-      <c r="S40" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B41">
-        <v>11.15</v>
+        <v>23.82</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="H41" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I41" t="s">
-        <v>487</v>
-      </c>
-      <c r="J41">
-        <v>10</v>
-      </c>
-      <c r="K41">
-        <v>11.15</v>
-      </c>
-      <c r="L41" t="s">
-        <v>430</v>
-      </c>
-      <c r="M41" t="s">
-        <v>146</v>
+        <v>519</v>
+      </c>
+      <c r="L41">
+        <v>70</v>
+      </c>
+      <c r="M41">
+        <v>23.82</v>
       </c>
       <c r="N41" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="O41" t="s">
+        <v>515</v>
+      </c>
+      <c r="P41" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q41" t="s">
         <v>340</v>
       </c>
-      <c r="P41">
-        <v>107.4</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>449</v>
-      </c>
       <c r="R41">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="S41" t="s">
+        <v>349</v>
+      </c>
+      <c r="T41">
+        <v>300</v>
+      </c>
+      <c r="U41" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B42">
-        <v>14.16</v>
+        <v>21.67</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="I42" t="s">
-        <v>489</v>
-      </c>
-      <c r="J42">
-        <v>10</v>
-      </c>
-      <c r="K42">
-        <v>14.16</v>
-      </c>
-      <c r="L42" t="s">
-        <v>422</v>
-      </c>
-      <c r="M42" t="s">
-        <v>146</v>
+        <v>514</v>
+      </c>
+      <c r="L42">
+        <v>20</v>
+      </c>
+      <c r="M42">
+        <v>21.67</v>
       </c>
       <c r="N42" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="O42" t="s">
+        <v>515</v>
+      </c>
+      <c r="P42" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q42" t="s">
         <v>340</v>
       </c>
-      <c r="P42">
-        <v>109.7</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>449</v>
-      </c>
       <c r="R42">
-        <v>280</v>
+        <v>116.1</v>
       </c>
       <c r="S42" t="s">
+        <v>423</v>
+      </c>
+      <c r="T42">
+        <v>183</v>
+      </c>
+      <c r="U42" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B43" s="9">
-        <v>17.149999999999999</v>
+        <v>40.58</v>
       </c>
       <c r="C43">
         <v>100</v>
       </c>
-      <c r="D43" t="s">
-        <v>273</v>
-      </c>
-      <c r="E43">
-        <v>4</v>
-      </c>
       <c r="H43" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="I43" t="s">
-        <v>491</v>
-      </c>
-      <c r="J43">
+        <v>556</v>
+      </c>
+      <c r="L43">
         <v>100</v>
       </c>
-      <c r="K43">
-        <v>17.149999999999999</v>
-      </c>
-      <c r="L43" t="s">
-        <v>492</v>
-      </c>
-      <c r="M43" t="s">
-        <v>146</v>
+      <c r="M43">
+        <v>40.58</v>
       </c>
       <c r="N43" t="s">
+        <v>361</v>
+      </c>
+      <c r="O43" t="s">
+        <v>557</v>
+      </c>
+      <c r="P43" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>438</v>
+      </c>
+      <c r="R43">
+        <v>106.8</v>
+      </c>
+      <c r="S43" t="s">
+        <v>453</v>
+      </c>
+      <c r="T43">
+        <v>329</v>
+      </c>
+      <c r="U43" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>234</v>
+      </c>
+      <c r="B44" s="10">
+        <v>5.97</v>
+      </c>
+      <c r="C44">
+        <v>70</v>
+      </c>
+      <c r="H44" t="s">
+        <v>234</v>
+      </c>
+      <c r="I44" t="s">
+        <v>442</v>
+      </c>
+      <c r="L44">
+        <v>70</v>
+      </c>
+      <c r="M44">
+        <v>5.97</v>
+      </c>
+      <c r="N44" t="s">
+        <v>443</v>
+      </c>
+      <c r="O44" t="s">
+        <v>146</v>
+      </c>
+      <c r="P44" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>438</v>
+      </c>
+      <c r="R44">
+        <v>102.2</v>
+      </c>
+      <c r="S44" t="s">
         <v>356</v>
       </c>
-      <c r="O43" t="s">
-        <v>438</v>
-      </c>
-      <c r="P43">
-        <v>100.4</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>356</v>
-      </c>
-      <c r="R43">
-        <v>170</v>
-      </c>
-      <c r="S43" t="s">
+      <c r="T44">
+        <v>226</v>
+      </c>
+      <c r="U44" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>270</v>
-      </c>
-      <c r="B44">
-        <v>17.5</v>
-      </c>
-      <c r="C44">
-        <v>90</v>
-      </c>
-      <c r="D44" t="s">
-        <v>273</v>
-      </c>
-      <c r="E44">
-        <v>4</v>
-      </c>
-      <c r="H44" t="s">
-        <v>270</v>
-      </c>
-      <c r="I44" t="s">
-        <v>494</v>
-      </c>
-      <c r="J44">
-        <v>90</v>
-      </c>
-      <c r="K44">
-        <v>17.5</v>
-      </c>
-      <c r="L44" t="s">
-        <v>353</v>
-      </c>
-      <c r="M44" t="s">
-        <v>495</v>
-      </c>
-      <c r="N44" t="s">
-        <v>146</v>
-      </c>
-      <c r="O44" t="s">
-        <v>340</v>
-      </c>
-      <c r="P44" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>146</v>
-      </c>
-      <c r="R44" t="s">
-        <v>146</v>
-      </c>
-      <c r="S44" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>247</v>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>235</v>
       </c>
       <c r="B45" s="9">
-        <v>18.32</v>
+        <v>9.09</v>
       </c>
       <c r="C45">
         <v>100</v>
       </c>
-      <c r="D45" t="s">
+      <c r="H45" t="s">
+        <v>235</v>
+      </c>
+      <c r="I45" t="s">
+        <v>468</v>
+      </c>
+      <c r="L45">
+        <v>100</v>
+      </c>
+      <c r="M45">
+        <v>9.09</v>
+      </c>
+      <c r="N45" t="s">
+        <v>469</v>
+      </c>
+      <c r="O45" t="s">
+        <v>146</v>
+      </c>
+      <c r="P45" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>438</v>
+      </c>
+      <c r="R45">
+        <v>98.9</v>
+      </c>
+      <c r="S45" t="s">
+        <v>356</v>
+      </c>
+      <c r="T45">
+        <v>206</v>
+      </c>
+      <c r="U45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46">
+        <v>11.15</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="H46" t="s">
+        <v>236</v>
+      </c>
+      <c r="I46" t="s">
+        <v>487</v>
+      </c>
+      <c r="L46">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>11.15</v>
+      </c>
+      <c r="N46" t="s">
+        <v>430</v>
+      </c>
+      <c r="O46" t="s">
+        <v>146</v>
+      </c>
+      <c r="P46" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>340</v>
+      </c>
+      <c r="R46">
+        <v>107.4</v>
+      </c>
+      <c r="S46" t="s">
+        <v>449</v>
+      </c>
+      <c r="T46">
+        <v>358</v>
+      </c>
+      <c r="U46" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" s="10">
+        <v>5.52</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>237</v>
+      </c>
+      <c r="I47" t="s">
+        <v>436</v>
+      </c>
+      <c r="L47">
+        <v>10</v>
+      </c>
+      <c r="M47">
+        <v>5.52</v>
+      </c>
+      <c r="N47" t="s">
+        <v>361</v>
+      </c>
+      <c r="O47" t="s">
+        <v>146</v>
+      </c>
+      <c r="P47" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>438</v>
+      </c>
+      <c r="R47">
+        <v>112.6</v>
+      </c>
+      <c r="S47" t="s">
+        <v>356</v>
+      </c>
+      <c r="T47">
+        <v>276</v>
+      </c>
+      <c r="U47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>238</v>
+      </c>
+      <c r="B48" s="10">
+        <v>7.49</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>238</v>
+      </c>
+      <c r="I48" t="s">
+        <v>458</v>
+      </c>
+      <c r="L48">
+        <v>10</v>
+      </c>
+      <c r="M48">
+        <v>7.49</v>
+      </c>
+      <c r="N48" t="s">
+        <v>361</v>
+      </c>
+      <c r="O48" t="s">
+        <v>146</v>
+      </c>
+      <c r="P48" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>362</v>
+      </c>
+      <c r="R48" t="s">
+        <v>146</v>
+      </c>
+      <c r="S48" t="s">
+        <v>146</v>
+      </c>
+      <c r="T48" t="s">
+        <v>146</v>
+      </c>
+      <c r="U48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="8">
+        <v>144.16999999999999</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49" t="s">
+        <v>194</v>
+      </c>
+      <c r="H49" t="s">
+        <v>150</v>
+      </c>
+      <c r="I49" t="s">
+        <v>149</v>
+      </c>
+      <c r="J49" t="s">
+        <v>194</v>
+      </c>
+      <c r="L49">
+        <v>100</v>
+      </c>
+      <c r="M49">
+        <v>144.16999999999999</v>
+      </c>
+      <c r="N49" t="s">
+        <v>653</v>
+      </c>
+      <c r="O49" t="s">
+        <v>146</v>
+      </c>
+      <c r="P49" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>340</v>
+      </c>
+      <c r="R49" t="s">
+        <v>146</v>
+      </c>
+      <c r="S49" t="s">
+        <v>146</v>
+      </c>
+      <c r="T49" t="s">
+        <v>146</v>
+      </c>
+      <c r="U49" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="H50" t="s">
+        <v>239</v>
+      </c>
+      <c r="I50" t="s">
+        <v>360</v>
+      </c>
+      <c r="L50">
+        <v>10</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>361</v>
+      </c>
+      <c r="O50" t="s">
+        <v>146</v>
+      </c>
+      <c r="P50" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>362</v>
+      </c>
+      <c r="R50" t="s">
+        <v>146</v>
+      </c>
+      <c r="S50" t="s">
+        <v>146</v>
+      </c>
+      <c r="T50" t="s">
+        <v>146</v>
+      </c>
+      <c r="U50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" s="9">
+        <v>18.73</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s">
         <v>273</v>
       </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-      <c r="H45" t="s">
-        <v>247</v>
-      </c>
-      <c r="I45" t="s">
-        <v>497</v>
-      </c>
-      <c r="J45">
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>240</v>
+      </c>
+      <c r="I51" t="s">
+        <v>501</v>
+      </c>
+      <c r="J51" t="s">
+        <v>273</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
         <v>100</v>
       </c>
-      <c r="K45">
-        <v>18.32</v>
-      </c>
-      <c r="L45" t="s">
-        <v>498</v>
-      </c>
-      <c r="M45" t="s">
-        <v>146</v>
-      </c>
-      <c r="N45" t="s">
-        <v>146</v>
-      </c>
-      <c r="O45" t="s">
+      <c r="M51">
+        <v>18.73</v>
+      </c>
+      <c r="N51" t="s">
+        <v>502</v>
+      </c>
+      <c r="O51" t="s">
+        <v>146</v>
+      </c>
+      <c r="P51" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q51" t="s">
         <v>340</v>
       </c>
-      <c r="P45" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>146</v>
-      </c>
-      <c r="R45" t="s">
-        <v>146</v>
-      </c>
-      <c r="S45" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>240</v>
-      </c>
-      <c r="B46" s="9">
-        <v>18.73</v>
-      </c>
-      <c r="C46">
+      <c r="R51" t="s">
+        <v>146</v>
+      </c>
+      <c r="S51" t="s">
+        <v>146</v>
+      </c>
+      <c r="T51" t="s">
+        <v>146</v>
+      </c>
+      <c r="U51" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52" s="9">
+        <v>57.13</v>
+      </c>
+      <c r="C52">
         <v>100</v>
       </c>
-      <c r="D46" t="s">
-        <v>273</v>
-      </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
-      <c r="H46" t="s">
-        <v>240</v>
-      </c>
-      <c r="I46" t="s">
-        <v>501</v>
-      </c>
-      <c r="J46">
+      <c r="D52" t="s">
+        <v>321</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>241</v>
+      </c>
+      <c r="I52" t="s">
+        <v>592</v>
+      </c>
+      <c r="J52" t="s">
+        <v>321</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
         <v>100</v>
       </c>
-      <c r="K46">
-        <v>18.73</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="M52">
+        <v>57.13</v>
+      </c>
+      <c r="N52" t="s">
         <v>502</v>
       </c>
-      <c r="M46" t="s">
-        <v>146</v>
-      </c>
-      <c r="N46" t="s">
-        <v>146</v>
-      </c>
-      <c r="O46" t="s">
+      <c r="O52" t="s">
+        <v>146</v>
+      </c>
+      <c r="P52" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q52" t="s">
         <v>340</v>
       </c>
-      <c r="P46" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>146</v>
-      </c>
-      <c r="R46" t="s">
-        <v>146</v>
-      </c>
-      <c r="S46" t="s">
+      <c r="R52" t="s">
+        <v>146</v>
+      </c>
+      <c r="S52" t="s">
+        <v>146</v>
+      </c>
+      <c r="T52" t="s">
+        <v>146</v>
+      </c>
+      <c r="U52" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>268</v>
-      </c>
-      <c r="B47">
-        <v>18.940000000000001</v>
-      </c>
-      <c r="C47">
-        <v>50</v>
-      </c>
-      <c r="D47" t="s">
-        <v>273</v>
-      </c>
-      <c r="E47">
-        <v>4</v>
-      </c>
-      <c r="H47" t="s">
-        <v>268</v>
-      </c>
-      <c r="I47" t="s">
-        <v>505</v>
-      </c>
-      <c r="J47">
-        <v>50</v>
-      </c>
-      <c r="K47">
-        <v>18.940000000000001</v>
-      </c>
-      <c r="L47" t="s">
-        <v>506</v>
-      </c>
-      <c r="M47" t="s">
-        <v>507</v>
-      </c>
-      <c r="N47" t="s">
-        <v>146</v>
-      </c>
-      <c r="O47" t="s">
-        <v>340</v>
-      </c>
-      <c r="P47" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>146</v>
-      </c>
-      <c r="R47" t="s">
-        <v>146</v>
-      </c>
-      <c r="S47" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>197</v>
-      </c>
-      <c r="B48">
-        <v>19.05</v>
-      </c>
-      <c r="C48">
-        <v>40</v>
-      </c>
-      <c r="H48" t="s">
-        <v>197</v>
-      </c>
-      <c r="I48" t="s">
-        <v>509</v>
-      </c>
-      <c r="J48">
-        <v>40</v>
-      </c>
-      <c r="K48">
-        <v>19.05</v>
-      </c>
-      <c r="L48" t="s">
-        <v>510</v>
-      </c>
-      <c r="M48" t="s">
-        <v>511</v>
-      </c>
-      <c r="N48" t="s">
-        <v>466</v>
-      </c>
-      <c r="O48" t="s">
-        <v>340</v>
-      </c>
-      <c r="P48">
-        <v>105.1</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>356</v>
-      </c>
-      <c r="R48">
-        <v>319</v>
-      </c>
-      <c r="S48" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>232</v>
-      </c>
-      <c r="B49">
-        <v>21.67</v>
-      </c>
-      <c r="C49">
-        <v>20</v>
-      </c>
-      <c r="H49" t="s">
-        <v>232</v>
-      </c>
-      <c r="I49" t="s">
-        <v>514</v>
-      </c>
-      <c r="J49">
-        <v>20</v>
-      </c>
-      <c r="K49">
-        <v>21.67</v>
-      </c>
-      <c r="L49" t="s">
-        <v>361</v>
-      </c>
-      <c r="M49" t="s">
-        <v>515</v>
-      </c>
-      <c r="N49" t="s">
-        <v>437</v>
-      </c>
-      <c r="O49" t="s">
-        <v>340</v>
-      </c>
-      <c r="P49">
-        <v>116.1</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>423</v>
-      </c>
-      <c r="R49">
-        <v>183</v>
-      </c>
-      <c r="S49" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>262</v>
-      </c>
-      <c r="B50">
-        <v>21.8</v>
-      </c>
-      <c r="C50">
-        <v>30</v>
-      </c>
-      <c r="H50" t="s">
-        <v>262</v>
-      </c>
-      <c r="I50" t="s">
-        <v>517</v>
-      </c>
-      <c r="J50">
-        <v>30</v>
-      </c>
-      <c r="K50">
-        <v>21.8</v>
-      </c>
-      <c r="L50" t="s">
-        <v>452</v>
-      </c>
-      <c r="M50" t="s">
-        <v>146</v>
-      </c>
-      <c r="N50" t="s">
-        <v>387</v>
-      </c>
-      <c r="O50" t="s">
-        <v>418</v>
-      </c>
-      <c r="P50">
-        <v>105.1</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>349</v>
-      </c>
-      <c r="R50">
-        <v>202</v>
-      </c>
-      <c r="S50" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>231</v>
-      </c>
-      <c r="B51">
-        <v>23.82</v>
-      </c>
-      <c r="C51">
-        <v>70</v>
-      </c>
-      <c r="H51" t="s">
-        <v>231</v>
-      </c>
-      <c r="I51" t="s">
-        <v>519</v>
-      </c>
-      <c r="J51">
-        <v>70</v>
-      </c>
-      <c r="K51">
-        <v>23.82</v>
-      </c>
-      <c r="L51" t="s">
-        <v>361</v>
-      </c>
-      <c r="M51" t="s">
-        <v>515</v>
-      </c>
-      <c r="N51" t="s">
-        <v>448</v>
-      </c>
-      <c r="O51" t="s">
-        <v>340</v>
-      </c>
-      <c r="P51">
-        <v>108</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>349</v>
-      </c>
-      <c r="R51">
-        <v>300</v>
-      </c>
-      <c r="S51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B52">
-        <v>25.36</v>
-      </c>
-      <c r="C52">
-        <v>80</v>
-      </c>
-      <c r="D52" t="s">
-        <v>273</v>
-      </c>
-      <c r="E52">
-        <v>4</v>
-      </c>
-      <c r="F52" t="s">
-        <v>324</v>
-      </c>
-      <c r="H52" t="s">
-        <v>259</v>
-      </c>
-      <c r="I52" t="s">
-        <v>521</v>
-      </c>
-      <c r="J52">
-        <v>80</v>
-      </c>
-      <c r="K52">
-        <v>25.36</v>
-      </c>
-      <c r="L52" t="s">
-        <v>353</v>
-      </c>
-      <c r="M52" t="s">
-        <v>522</v>
-      </c>
-      <c r="N52" t="s">
-        <v>356</v>
-      </c>
-      <c r="O52" t="s">
-        <v>340</v>
-      </c>
-      <c r="P52">
-        <v>108.6</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>356</v>
-      </c>
-      <c r="R52">
-        <v>399</v>
-      </c>
-      <c r="S52" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="B53" s="9">
-        <v>26.51</v>
+        <v>67.430000000000007</v>
       </c>
       <c r="C53">
         <v>100</v>
       </c>
       <c r="D53" t="s">
+        <v>321</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>242</v>
+      </c>
+      <c r="I53" t="s">
+        <v>600</v>
+      </c>
+      <c r="J53" t="s">
+        <v>321</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>100</v>
+      </c>
+      <c r="M53">
+        <v>67.430000000000007</v>
+      </c>
+      <c r="N53" t="s">
+        <v>601</v>
+      </c>
+      <c r="O53" t="s">
+        <v>146</v>
+      </c>
+      <c r="P53" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>340</v>
+      </c>
+      <c r="R53" t="s">
+        <v>146</v>
+      </c>
+      <c r="S53" t="s">
+        <v>146</v>
+      </c>
+      <c r="T53" t="s">
+        <v>146</v>
+      </c>
+      <c r="U53" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>243</v>
+      </c>
+      <c r="B54" s="10">
+        <v>4.12</v>
+      </c>
+      <c r="C54">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s">
+        <v>243</v>
+      </c>
+      <c r="I54" t="s">
+        <v>421</v>
+      </c>
+      <c r="L54">
+        <v>40</v>
+      </c>
+      <c r="M54">
+        <v>4.12</v>
+      </c>
+      <c r="N54" t="s">
+        <v>422</v>
+      </c>
+      <c r="O54" t="s">
+        <v>146</v>
+      </c>
+      <c r="P54" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>340</v>
+      </c>
+      <c r="R54">
+        <v>110.9</v>
+      </c>
+      <c r="S54" t="s">
+        <v>423</v>
+      </c>
+      <c r="T54">
+        <v>307</v>
+      </c>
+      <c r="U54" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>244</v>
+      </c>
+      <c r="B55">
+        <v>14.16</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
+        <v>244</v>
+      </c>
+      <c r="I55" t="s">
+        <v>489</v>
+      </c>
+      <c r="L55">
+        <v>10</v>
+      </c>
+      <c r="M55">
+        <v>14.16</v>
+      </c>
+      <c r="N55" t="s">
+        <v>422</v>
+      </c>
+      <c r="O55" t="s">
+        <v>146</v>
+      </c>
+      <c r="P55" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>340</v>
+      </c>
+      <c r="R55">
+        <v>109.7</v>
+      </c>
+      <c r="S55" t="s">
+        <v>449</v>
+      </c>
+      <c r="T55">
+        <v>280</v>
+      </c>
+      <c r="U55" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>245</v>
+      </c>
+      <c r="B56" s="9">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="C56">
+        <v>100</v>
+      </c>
+      <c r="D56" t="s">
         <v>273</v>
       </c>
-      <c r="E53">
-        <v>4</v>
-      </c>
-      <c r="H53" t="s">
-        <v>213</v>
-      </c>
-      <c r="I53" t="s">
-        <v>524</v>
-      </c>
-      <c r="J53">
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>245</v>
+      </c>
+      <c r="I56" t="s">
+        <v>491</v>
+      </c>
+      <c r="J56" t="s">
+        <v>273</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
         <v>100</v>
       </c>
-      <c r="K53">
-        <v>26.51</v>
-      </c>
-      <c r="L53" t="s">
-        <v>525</v>
-      </c>
-      <c r="M53" t="s">
-        <v>146</v>
-      </c>
-      <c r="N53" t="s">
-        <v>448</v>
-      </c>
-      <c r="O53" t="s">
-        <v>340</v>
-      </c>
-      <c r="P53">
-        <v>100.5</v>
-      </c>
-      <c r="Q53" t="s">
+      <c r="M56">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="N56" t="s">
+        <v>492</v>
+      </c>
+      <c r="O56" t="s">
+        <v>146</v>
+      </c>
+      <c r="P56" t="s">
         <v>356</v>
       </c>
-      <c r="R53">
-        <v>208</v>
-      </c>
-      <c r="S53" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="Q56" t="s">
+        <v>438</v>
+      </c>
+      <c r="R56">
+        <v>100.4</v>
+      </c>
+      <c r="S56" t="s">
+        <v>356</v>
+      </c>
+      <c r="T56">
+        <v>170</v>
+      </c>
+      <c r="U56" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>246</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B57" s="9">
         <v>27.47</v>
-      </c>
-      <c r="C54">
-        <v>100</v>
-      </c>
-      <c r="D54" t="s">
-        <v>273</v>
-      </c>
-      <c r="E54">
-        <v>4</v>
-      </c>
-      <c r="H54" t="s">
-        <v>246</v>
-      </c>
-      <c r="I54" t="s">
-        <v>527</v>
-      </c>
-      <c r="J54">
-        <v>100</v>
-      </c>
-      <c r="K54">
-        <v>27.47</v>
-      </c>
-      <c r="L54" t="s">
-        <v>464</v>
-      </c>
-      <c r="M54" t="s">
-        <v>146</v>
-      </c>
-      <c r="N54" t="s">
-        <v>146</v>
-      </c>
-      <c r="O54" t="s">
-        <v>340</v>
-      </c>
-      <c r="P54" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>146</v>
-      </c>
-      <c r="R54" t="s">
-        <v>146</v>
-      </c>
-      <c r="S54" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>201</v>
-      </c>
-      <c r="B55">
-        <v>27.72</v>
-      </c>
-      <c r="C55">
-        <v>70</v>
-      </c>
-      <c r="H55" t="s">
-        <v>201</v>
-      </c>
-      <c r="I55" t="s">
-        <v>529</v>
-      </c>
-      <c r="J55">
-        <v>70</v>
-      </c>
-      <c r="K55">
-        <v>27.72</v>
-      </c>
-      <c r="L55" t="s">
-        <v>530</v>
-      </c>
-      <c r="M55" t="s">
-        <v>146</v>
-      </c>
-      <c r="N55" t="s">
-        <v>448</v>
-      </c>
-      <c r="O55" t="s">
-        <v>340</v>
-      </c>
-      <c r="P55">
-        <v>104.6</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>146</v>
-      </c>
-      <c r="R55">
-        <v>180</v>
-      </c>
-      <c r="S55" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>205</v>
-      </c>
-      <c r="B56">
-        <v>28.77</v>
-      </c>
-      <c r="C56">
-        <v>20</v>
-      </c>
-      <c r="H56" t="s">
-        <v>205</v>
-      </c>
-      <c r="I56" t="s">
-        <v>532</v>
-      </c>
-      <c r="J56">
-        <v>20</v>
-      </c>
-      <c r="K56">
-        <v>28.77</v>
-      </c>
-      <c r="L56" t="s">
-        <v>533</v>
-      </c>
-      <c r="M56" t="s">
-        <v>534</v>
-      </c>
-      <c r="N56" t="s">
-        <v>368</v>
-      </c>
-      <c r="O56" t="s">
-        <v>438</v>
-      </c>
-      <c r="P56">
-        <v>109.3</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>356</v>
-      </c>
-      <c r="R56">
-        <v>214</v>
-      </c>
-      <c r="S56" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>225</v>
-      </c>
-      <c r="B57" s="9">
-        <v>29.07</v>
       </c>
       <c r="C57">
         <v>100</v>
@@ -9814,257 +10507,269 @@
         <v>273</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="I57" t="s">
-        <v>536</v>
-      </c>
-      <c r="J57">
+        <v>527</v>
+      </c>
+      <c r="J57" t="s">
+        <v>273</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
         <v>100</v>
       </c>
-      <c r="K57">
-        <v>29.07</v>
-      </c>
-      <c r="L57" t="s">
-        <v>484</v>
-      </c>
-      <c r="M57" t="s">
-        <v>146</v>
+      <c r="M57">
+        <v>27.47</v>
       </c>
       <c r="N57" t="s">
-        <v>356</v>
+        <v>464</v>
       </c>
       <c r="O57" t="s">
-        <v>438</v>
-      </c>
-      <c r="P57">
-        <v>101</v>
+        <v>146</v>
+      </c>
+      <c r="P57" t="s">
+        <v>146</v>
       </c>
       <c r="Q57" t="s">
-        <v>356</v>
-      </c>
-      <c r="R57">
-        <v>194</v>
+        <v>340</v>
+      </c>
+      <c r="R57" t="s">
+        <v>146</v>
       </c>
       <c r="S57" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>196</v>
-      </c>
-      <c r="B58">
-        <v>29.16</v>
+        <v>146</v>
+      </c>
+      <c r="T57" t="s">
+        <v>146</v>
+      </c>
+      <c r="U57" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B58" s="9">
+        <v>18.32</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="D58" t="s">
+        <v>273</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="I58" t="s">
-        <v>538</v>
-      </c>
-      <c r="J58">
-        <v>10</v>
+        <v>497</v>
+      </c>
+      <c r="J58" t="s">
+        <v>273</v>
       </c>
       <c r="K58">
-        <v>29.16</v>
-      </c>
-      <c r="L58" t="s">
-        <v>539</v>
-      </c>
-      <c r="M58" t="s">
-        <v>146</v>
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>100</v>
+      </c>
+      <c r="M58">
+        <v>18.32</v>
       </c>
       <c r="N58" t="s">
-        <v>356</v>
+        <v>498</v>
       </c>
       <c r="O58" t="s">
+        <v>146</v>
+      </c>
+      <c r="P58" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q58" t="s">
         <v>340</v>
       </c>
-      <c r="P58">
-        <v>106.8</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>356</v>
-      </c>
-      <c r="R58">
-        <v>325</v>
+      <c r="R58" t="s">
+        <v>146</v>
       </c>
       <c r="S58" t="s">
+        <v>146</v>
+      </c>
+      <c r="T58" t="s">
+        <v>146</v>
+      </c>
+      <c r="U58" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="B59" s="9">
-        <v>29.74</v>
+        <v>53.46</v>
       </c>
       <c r="C59">
         <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="I59" t="s">
-        <v>541</v>
-      </c>
-      <c r="J59">
+        <v>586</v>
+      </c>
+      <c r="J59" t="s">
+        <v>321</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
         <v>100</v>
       </c>
-      <c r="K59">
-        <v>29.74</v>
-      </c>
-      <c r="L59" t="s">
-        <v>447</v>
-      </c>
-      <c r="M59" t="s">
-        <v>146</v>
+      <c r="M59">
+        <v>53.46</v>
       </c>
       <c r="N59" t="s">
+        <v>492</v>
+      </c>
+      <c r="O59" t="s">
+        <v>146</v>
+      </c>
+      <c r="P59" t="s">
         <v>356</v>
       </c>
-      <c r="O59" t="s">
+      <c r="Q59" t="s">
+        <v>438</v>
+      </c>
+      <c r="R59">
+        <v>101.6</v>
+      </c>
+      <c r="S59" t="s">
+        <v>356</v>
+      </c>
+      <c r="T59">
+        <v>217</v>
+      </c>
+      <c r="U59" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>249</v>
+      </c>
+      <c r="B60" s="10">
+        <v>0.81</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>249</v>
+      </c>
+      <c r="I60" t="s">
+        <v>380</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0.81</v>
+      </c>
+      <c r="N60" t="s">
+        <v>381</v>
+      </c>
+      <c r="O60" t="s">
+        <v>146</v>
+      </c>
+      <c r="P60" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q60" t="s">
         <v>340</v>
       </c>
-      <c r="P59">
-        <v>105.7</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>453</v>
-      </c>
-      <c r="R59">
-        <v>226</v>
-      </c>
-      <c r="S59" t="s">
+      <c r="R60" t="s">
+        <v>146</v>
+      </c>
+      <c r="S60" t="s">
+        <v>146</v>
+      </c>
+      <c r="T60" t="s">
+        <v>146</v>
+      </c>
+      <c r="U60" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61">
+        <v>46.84</v>
+      </c>
+      <c r="C61">
+        <v>50</v>
+      </c>
+      <c r="H61" t="s">
+        <v>250</v>
+      </c>
+      <c r="I61" t="s">
+        <v>571</v>
+      </c>
+      <c r="L61">
+        <v>50</v>
+      </c>
+      <c r="M61">
+        <v>46.84</v>
+      </c>
+      <c r="N61" t="s">
+        <v>572</v>
+      </c>
+      <c r="O61" t="s">
+        <v>146</v>
+      </c>
+      <c r="P61" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>340</v>
+      </c>
+      <c r="R61" t="s">
+        <v>146</v>
+      </c>
+      <c r="S61" t="s">
+        <v>146</v>
+      </c>
+      <c r="T61" t="s">
+        <v>146</v>
+      </c>
+      <c r="U61" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>217</v>
-      </c>
-      <c r="B60" s="9">
-        <v>31.36</v>
-      </c>
-      <c r="C60">
-        <v>100</v>
-      </c>
-      <c r="D60" t="s">
-        <v>273</v>
-      </c>
-      <c r="E60">
-        <v>4</v>
-      </c>
-      <c r="H60" t="s">
-        <v>217</v>
-      </c>
-      <c r="I60" t="s">
-        <v>543</v>
-      </c>
-      <c r="J60">
-        <v>100</v>
-      </c>
-      <c r="K60">
-        <v>31.36</v>
-      </c>
-      <c r="L60" t="s">
-        <v>544</v>
-      </c>
-      <c r="M60" t="s">
-        <v>146</v>
-      </c>
-      <c r="N60" t="s">
-        <v>356</v>
-      </c>
-      <c r="O60" t="s">
-        <v>438</v>
-      </c>
-      <c r="P60">
-        <v>102.2</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>146</v>
-      </c>
-      <c r="R60">
-        <v>239</v>
-      </c>
-      <c r="S60" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>226</v>
-      </c>
-      <c r="B61" s="9">
-        <v>33.020000000000003</v>
-      </c>
-      <c r="C61">
-        <v>100</v>
-      </c>
-      <c r="D61" t="s">
-        <v>273</v>
-      </c>
-      <c r="E61" s="10">
-        <v>0</v>
-      </c>
-      <c r="H61" t="s">
-        <v>226</v>
-      </c>
-      <c r="I61" t="s">
-        <v>547</v>
-      </c>
-      <c r="J61">
-        <v>100</v>
-      </c>
-      <c r="K61">
-        <v>33.020000000000003</v>
-      </c>
-      <c r="L61" t="s">
-        <v>548</v>
-      </c>
-      <c r="M61" t="s">
-        <v>146</v>
-      </c>
-      <c r="N61" t="s">
-        <v>348</v>
-      </c>
-      <c r="O61" t="s">
-        <v>438</v>
-      </c>
-      <c r="P61">
-        <v>105.7</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>356</v>
-      </c>
-      <c r="R61">
-        <v>408</v>
-      </c>
-      <c r="S61" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="B62" s="9">
-        <v>35.31</v>
+        <v>37.33</v>
       </c>
       <c r="C62">
         <v>100</v>
@@ -10073,51 +10778,57 @@
         <v>273</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="I62" t="s">
-        <v>550</v>
-      </c>
-      <c r="J62">
+        <v>552</v>
+      </c>
+      <c r="J62" t="s">
+        <v>273</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
         <v>100</v>
       </c>
-      <c r="K62">
-        <v>35.31</v>
-      </c>
-      <c r="L62" t="s">
-        <v>361</v>
-      </c>
-      <c r="M62" t="s">
-        <v>146</v>
+      <c r="M62">
+        <v>37.33</v>
       </c>
       <c r="N62" t="s">
-        <v>146</v>
+        <v>553</v>
       </c>
       <c r="O62" t="s">
-        <v>340</v>
+        <v>146</v>
       </c>
       <c r="P62" t="s">
-        <v>146</v>
+        <v>466</v>
       </c>
       <c r="Q62" t="s">
-        <v>146</v>
-      </c>
-      <c r="R62" t="s">
-        <v>146</v>
+        <v>438</v>
+      </c>
+      <c r="R62">
+        <v>104.1</v>
       </c>
       <c r="S62" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="T62" t="s">
+        <v>146</v>
+      </c>
+      <c r="U62" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B63" s="9">
-        <v>37.33</v>
+        <v>42.4</v>
       </c>
       <c r="C63">
         <v>100</v>
@@ -10126,648 +10837,699 @@
         <v>273</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I63" t="s">
-        <v>552</v>
-      </c>
-      <c r="J63">
+        <v>559</v>
+      </c>
+      <c r="J63" t="s">
+        <v>273</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
         <v>100</v>
       </c>
-      <c r="K63">
-        <v>37.33</v>
-      </c>
-      <c r="L63" t="s">
-        <v>553</v>
-      </c>
-      <c r="M63" t="s">
-        <v>146</v>
+      <c r="M63">
+        <v>42.4</v>
       </c>
       <c r="N63" t="s">
+        <v>560</v>
+      </c>
+      <c r="O63" t="s">
+        <v>561</v>
+      </c>
+      <c r="P63" t="s">
         <v>466</v>
       </c>
-      <c r="O63" t="s">
+      <c r="Q63" t="s">
         <v>438</v>
       </c>
-      <c r="P63">
+      <c r="R63">
         <v>104.1</v>
       </c>
-      <c r="Q63" t="s">
-        <v>146</v>
-      </c>
-      <c r="R63" t="s">
-        <v>146</v>
-      </c>
       <c r="S63" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="T63">
+        <v>391</v>
+      </c>
+      <c r="U63" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>233</v>
-      </c>
-      <c r="B64" s="9">
-        <v>40.58</v>
+        <v>152</v>
+      </c>
+      <c r="B64" s="8">
+        <v>132.53</v>
       </c>
       <c r="C64">
         <v>100</v>
       </c>
+      <c r="D64" t="s">
+        <v>194</v>
+      </c>
       <c r="H64" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="I64" t="s">
-        <v>556</v>
-      </c>
-      <c r="J64">
+        <v>151</v>
+      </c>
+      <c r="J64" t="s">
+        <v>194</v>
+      </c>
+      <c r="L64">
         <v>100</v>
       </c>
-      <c r="K64">
-        <v>40.58</v>
-      </c>
-      <c r="L64" t="s">
-        <v>361</v>
-      </c>
-      <c r="M64" t="s">
-        <v>557</v>
+      <c r="M64">
+        <v>132.53</v>
       </c>
       <c r="N64" t="s">
-        <v>368</v>
+        <v>565</v>
       </c>
       <c r="O64" t="s">
+        <v>561</v>
+      </c>
+      <c r="P64" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q64" t="s">
         <v>438</v>
       </c>
-      <c r="P64">
-        <v>106.8</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>453</v>
-      </c>
       <c r="R64">
-        <v>329</v>
+        <v>106.6</v>
       </c>
       <c r="S64" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="T64">
+        <v>342</v>
+      </c>
+      <c r="U64" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B65" s="9">
-        <v>42.4</v>
+        <v>42.79</v>
       </c>
       <c r="C65">
         <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I65" t="s">
-        <v>559</v>
-      </c>
-      <c r="J65">
+        <v>564</v>
+      </c>
+      <c r="J65" t="s">
+        <v>321</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
         <v>100</v>
       </c>
-      <c r="K65">
-        <v>42.4</v>
-      </c>
-      <c r="L65" t="s">
-        <v>560</v>
-      </c>
-      <c r="M65" t="s">
+      <c r="M65">
+        <v>42.79</v>
+      </c>
+      <c r="N65" t="s">
+        <v>565</v>
+      </c>
+      <c r="O65" t="s">
         <v>561</v>
       </c>
-      <c r="N65" t="s">
-        <v>466</v>
-      </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q65" t="s">
         <v>438</v>
       </c>
-      <c r="P65">
-        <v>104.1</v>
-      </c>
-      <c r="Q65" t="s">
+      <c r="R65">
+        <v>104.6</v>
+      </c>
+      <c r="S65" t="s">
         <v>356</v>
       </c>
-      <c r="R65">
-        <v>391</v>
-      </c>
-      <c r="S65" t="s">
+      <c r="T65">
+        <v>290</v>
+      </c>
+      <c r="U65" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>253</v>
-      </c>
-      <c r="B66" s="9">
-        <v>42.79</v>
+        <v>154</v>
+      </c>
+      <c r="B66" s="8">
+        <v>92.8</v>
       </c>
       <c r="C66">
         <v>100</v>
       </c>
       <c r="D66" t="s">
+        <v>194</v>
+      </c>
+      <c r="H66" t="s">
+        <v>154</v>
+      </c>
+      <c r="I66" t="s">
+        <v>153</v>
+      </c>
+      <c r="J66" t="s">
+        <v>194</v>
+      </c>
+      <c r="L66">
+        <v>100</v>
+      </c>
+      <c r="M66">
+        <v>92.8</v>
+      </c>
+      <c r="N66" t="s">
+        <v>621</v>
+      </c>
+      <c r="O66" t="s">
+        <v>146</v>
+      </c>
+      <c r="P66" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>438</v>
+      </c>
+      <c r="R66">
+        <v>99.5</v>
+      </c>
+      <c r="S66" t="s">
+        <v>146</v>
+      </c>
+      <c r="T66">
+        <v>277</v>
+      </c>
+      <c r="U66" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="8">
+        <v>126.29</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67" t="s">
+        <v>194</v>
+      </c>
+      <c r="H67" t="s">
+        <v>156</v>
+      </c>
+      <c r="I67" t="s">
+        <v>155</v>
+      </c>
+      <c r="J67" t="s">
+        <v>194</v>
+      </c>
+      <c r="L67">
+        <v>100</v>
+      </c>
+      <c r="M67">
+        <v>126.29</v>
+      </c>
+      <c r="N67" t="s">
+        <v>639</v>
+      </c>
+      <c r="O67" t="s">
+        <v>146</v>
+      </c>
+      <c r="P67" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>438</v>
+      </c>
+      <c r="R67">
+        <v>99.5</v>
+      </c>
+      <c r="S67" t="s">
+        <v>146</v>
+      </c>
+      <c r="T67">
+        <v>235</v>
+      </c>
+      <c r="U67" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>254</v>
+      </c>
+      <c r="B68" s="9">
+        <v>81.66</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+      <c r="D68" t="s">
         <v>321</v>
       </c>
-      <c r="H66" t="s">
-        <v>253</v>
-      </c>
-      <c r="I66" t="s">
-        <v>564</v>
-      </c>
-      <c r="J66">
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>254</v>
+      </c>
+      <c r="I68" t="s">
+        <v>611</v>
+      </c>
+      <c r="J68" t="s">
+        <v>321</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
         <v>100</v>
       </c>
-      <c r="K66">
-        <v>42.79</v>
-      </c>
-      <c r="L66" t="s">
-        <v>565</v>
-      </c>
-      <c r="M66" t="s">
-        <v>561</v>
-      </c>
-      <c r="N66" t="s">
-        <v>356</v>
-      </c>
-      <c r="O66" t="s">
+      <c r="M68">
+        <v>81.66</v>
+      </c>
+      <c r="N68" t="s">
+        <v>612</v>
+      </c>
+      <c r="O68" t="s">
+        <v>146</v>
+      </c>
+      <c r="P68" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q68" t="s">
         <v>438</v>
       </c>
-      <c r="P66">
-        <v>104.6</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>356</v>
-      </c>
-      <c r="R66">
-        <v>290</v>
-      </c>
-      <c r="S66" t="s">
+      <c r="R68">
+        <v>103.3</v>
+      </c>
+      <c r="S68" t="s">
+        <v>449</v>
+      </c>
+      <c r="T68">
+        <v>229</v>
+      </c>
+      <c r="U68" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" s="8">
+        <v>139.22999999999999</v>
+      </c>
+      <c r="C69">
+        <v>100</v>
+      </c>
+      <c r="D69" t="s">
+        <v>194</v>
+      </c>
+      <c r="H69" t="s">
+        <v>158</v>
+      </c>
+      <c r="I69" t="s">
+        <v>157</v>
+      </c>
+      <c r="J69" t="s">
+        <v>194</v>
+      </c>
+      <c r="L69">
+        <v>100</v>
+      </c>
+      <c r="M69">
+        <v>139.22999999999999</v>
+      </c>
+      <c r="N69" t="s">
+        <v>650</v>
+      </c>
+      <c r="O69" t="s">
+        <v>146</v>
+      </c>
+      <c r="P69" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>438</v>
+      </c>
+      <c r="R69">
+        <v>99.5</v>
+      </c>
+      <c r="S69" t="s">
+        <v>146</v>
+      </c>
+      <c r="T69">
+        <v>230</v>
+      </c>
+      <c r="U69" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>215</v>
-      </c>
-      <c r="B67">
-        <v>45.72</v>
-      </c>
-      <c r="C67">
-        <v>60</v>
-      </c>
-      <c r="H67" t="s">
-        <v>215</v>
-      </c>
-      <c r="I67" t="s">
-        <v>568</v>
-      </c>
-      <c r="J67">
-        <v>60</v>
-      </c>
-      <c r="K67">
-        <v>45.72</v>
-      </c>
-      <c r="L67" t="s">
-        <v>569</v>
-      </c>
-      <c r="M67" t="s">
-        <v>146</v>
-      </c>
-      <c r="N67" t="s">
-        <v>466</v>
-      </c>
-      <c r="O67" t="s">
-        <v>438</v>
-      </c>
-      <c r="P67">
-        <v>107.2</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>453</v>
-      </c>
-      <c r="R67" t="s">
-        <v>146</v>
-      </c>
-      <c r="S67" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>250</v>
-      </c>
-      <c r="B68">
-        <v>46.84</v>
-      </c>
-      <c r="C68">
-        <v>50</v>
-      </c>
-      <c r="H68" t="s">
-        <v>250</v>
-      </c>
-      <c r="I68" t="s">
-        <v>571</v>
-      </c>
-      <c r="J68">
-        <v>50</v>
-      </c>
-      <c r="K68">
-        <v>46.84</v>
-      </c>
-      <c r="L68" t="s">
-        <v>572</v>
-      </c>
-      <c r="M68" t="s">
-        <v>146</v>
-      </c>
-      <c r="N68" t="s">
-        <v>146</v>
-      </c>
-      <c r="O68" t="s">
-        <v>340</v>
-      </c>
-      <c r="P68" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>146</v>
-      </c>
-      <c r="R68" t="s">
-        <v>146</v>
-      </c>
-      <c r="S68" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>271</v>
-      </c>
-      <c r="B69" s="9">
-        <v>47.45</v>
-      </c>
-      <c r="C69">
-        <v>90</v>
-      </c>
-      <c r="D69" t="s">
-        <v>321</v>
-      </c>
-      <c r="F69" t="s">
-        <v>324</v>
-      </c>
-      <c r="H69" t="s">
-        <v>271</v>
-      </c>
-      <c r="I69" t="s">
-        <v>575</v>
-      </c>
-      <c r="J69">
-        <v>90</v>
-      </c>
-      <c r="K69">
-        <v>47.45</v>
-      </c>
-      <c r="L69" t="s">
-        <v>576</v>
-      </c>
-      <c r="M69" t="s">
-        <v>146</v>
-      </c>
-      <c r="N69" t="s">
-        <v>437</v>
-      </c>
-      <c r="O69" t="s">
-        <v>418</v>
-      </c>
-      <c r="P69">
-        <v>102.8</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>449</v>
-      </c>
-      <c r="R69">
-        <v>325</v>
-      </c>
-      <c r="S69" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>258</v>
-      </c>
-      <c r="B70" s="9">
-        <v>48.04</v>
+        <v>160</v>
+      </c>
+      <c r="B70" s="8">
+        <v>98.59</v>
       </c>
       <c r="C70">
         <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>321</v>
+        <v>194</v>
       </c>
       <c r="H70" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="I70" t="s">
-        <v>578</v>
-      </c>
-      <c r="J70">
+        <v>159</v>
+      </c>
+      <c r="J70" t="s">
+        <v>194</v>
+      </c>
+      <c r="L70">
         <v>100</v>
       </c>
-      <c r="K70">
-        <v>48.04</v>
-      </c>
-      <c r="L70" t="s">
-        <v>579</v>
-      </c>
-      <c r="M70" t="s">
-        <v>580</v>
+      <c r="M70">
+        <v>98.59</v>
       </c>
       <c r="N70" t="s">
-        <v>448</v>
+        <v>624</v>
       </c>
       <c r="O70" t="s">
+        <v>146</v>
+      </c>
+      <c r="P70" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q70" t="s">
         <v>438</v>
       </c>
-      <c r="P70">
-        <v>107.1</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>356</v>
-      </c>
-      <c r="R70">
-        <v>320</v>
+      <c r="R70" t="s">
+        <v>146</v>
       </c>
       <c r="S70" t="s">
+        <v>146</v>
+      </c>
+      <c r="T70" t="s">
+        <v>146</v>
+      </c>
+      <c r="U70" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>214</v>
-      </c>
-      <c r="B71" s="9">
-        <v>53.38</v>
+        <v>162</v>
+      </c>
+      <c r="B71" s="8">
+        <v>158.56</v>
       </c>
       <c r="C71">
         <v>100</v>
       </c>
       <c r="D71" t="s">
-        <v>321</v>
+        <v>194</v>
       </c>
       <c r="H71" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="I71" t="s">
-        <v>583</v>
-      </c>
-      <c r="J71">
+        <v>161</v>
+      </c>
+      <c r="J71" t="s">
+        <v>194</v>
+      </c>
+      <c r="L71">
         <v>100</v>
       </c>
-      <c r="K71">
-        <v>53.38</v>
-      </c>
-      <c r="L71" t="s">
-        <v>584</v>
-      </c>
-      <c r="M71" t="s">
-        <v>146</v>
+      <c r="M71">
+        <v>158.56</v>
       </c>
       <c r="N71" t="s">
-        <v>466</v>
+        <v>624</v>
       </c>
       <c r="O71" t="s">
-        <v>362</v>
-      </c>
-      <c r="P71">
-        <v>107.4</v>
+        <v>146</v>
+      </c>
+      <c r="P71" t="s">
+        <v>146</v>
       </c>
       <c r="Q71" t="s">
-        <v>349</v>
-      </c>
-      <c r="R71">
-        <v>339</v>
+        <v>438</v>
+      </c>
+      <c r="R71" t="s">
+        <v>146</v>
       </c>
       <c r="S71" t="s">
+        <v>146</v>
+      </c>
+      <c r="T71" t="s">
+        <v>146</v>
+      </c>
+      <c r="U71" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>255</v>
+      </c>
+      <c r="B72" s="10">
+        <v>4.01</v>
+      </c>
+      <c r="C72">
+        <v>30</v>
+      </c>
+      <c r="H72" t="s">
+        <v>255</v>
+      </c>
+      <c r="I72" t="s">
+        <v>416</v>
+      </c>
+      <c r="L72">
+        <v>30</v>
+      </c>
+      <c r="M72">
+        <v>4.01</v>
+      </c>
+      <c r="N72" t="s">
+        <v>417</v>
+      </c>
+      <c r="O72" t="s">
+        <v>146</v>
+      </c>
+      <c r="P72" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>418</v>
+      </c>
+      <c r="R72">
+        <v>100.5</v>
+      </c>
+      <c r="S72" t="s">
+        <v>356</v>
+      </c>
+      <c r="T72">
+        <v>251</v>
+      </c>
+      <c r="U72" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>248</v>
-      </c>
-      <c r="B72" s="9">
-        <v>53.46</v>
-      </c>
-      <c r="C72">
-        <v>100</v>
-      </c>
-      <c r="D72" t="s">
-        <v>321</v>
-      </c>
-      <c r="H72" t="s">
-        <v>248</v>
-      </c>
-      <c r="I72" t="s">
-        <v>586</v>
-      </c>
-      <c r="J72">
-        <v>100</v>
-      </c>
-      <c r="K72">
-        <v>53.46</v>
-      </c>
-      <c r="L72" t="s">
-        <v>492</v>
-      </c>
-      <c r="M72" t="s">
-        <v>146</v>
-      </c>
-      <c r="N72" t="s">
-        <v>356</v>
-      </c>
-      <c r="O72" t="s">
-        <v>438</v>
-      </c>
-      <c r="P72">
-        <v>101.6</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>356</v>
-      </c>
-      <c r="R72">
-        <v>217</v>
-      </c>
-      <c r="S72" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>256</v>
-      </c>
-      <c r="B73" s="9">
-        <v>53.77</v>
+        <v>164</v>
+      </c>
+      <c r="B73" s="8">
+        <v>117.61</v>
       </c>
       <c r="C73">
         <v>100</v>
       </c>
       <c r="D73" t="s">
-        <v>321</v>
+        <v>194</v>
       </c>
       <c r="H73" t="s">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="I73" t="s">
-        <v>588</v>
-      </c>
-      <c r="J73">
+        <v>163</v>
+      </c>
+      <c r="J73" t="s">
+        <v>194</v>
+      </c>
+      <c r="L73">
         <v>100</v>
       </c>
-      <c r="K73">
-        <v>53.77</v>
-      </c>
-      <c r="L73" t="s">
-        <v>589</v>
-      </c>
-      <c r="M73" t="s">
-        <v>146</v>
+      <c r="M73">
+        <v>117.61</v>
       </c>
       <c r="N73" t="s">
-        <v>368</v>
+        <v>631</v>
       </c>
       <c r="O73" t="s">
-        <v>362</v>
-      </c>
-      <c r="P73">
-        <v>103.6</v>
+        <v>146</v>
+      </c>
+      <c r="P73" t="s">
+        <v>355</v>
       </c>
       <c r="Q73" t="s">
+        <v>438</v>
+      </c>
+      <c r="R73">
+        <v>102</v>
+      </c>
+      <c r="S73" t="s">
         <v>356</v>
       </c>
-      <c r="R73">
-        <v>208</v>
-      </c>
-      <c r="S73" t="s">
+      <c r="T73">
+        <v>251</v>
+      </c>
+      <c r="U73" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>241</v>
-      </c>
-      <c r="B74" s="9">
-        <v>57.13</v>
+        <v>166</v>
+      </c>
+      <c r="B74" s="8">
+        <v>138.80000000000001</v>
       </c>
       <c r="C74">
         <v>100</v>
       </c>
       <c r="D74" t="s">
-        <v>321</v>
+        <v>194</v>
       </c>
       <c r="H74" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="I74" t="s">
-        <v>592</v>
-      </c>
-      <c r="J74">
+        <v>165</v>
+      </c>
+      <c r="J74" t="s">
+        <v>194</v>
+      </c>
+      <c r="L74">
         <v>100</v>
       </c>
-      <c r="K74">
-        <v>57.13</v>
-      </c>
-      <c r="L74" t="s">
-        <v>502</v>
-      </c>
-      <c r="M74" t="s">
-        <v>146</v>
+      <c r="M74">
+        <v>138.80000000000001</v>
       </c>
       <c r="N74" t="s">
-        <v>146</v>
+        <v>647</v>
       </c>
       <c r="O74" t="s">
-        <v>340</v>
+        <v>146</v>
       </c>
       <c r="P74" t="s">
-        <v>146</v>
+        <v>348</v>
       </c>
       <c r="Q74" t="s">
-        <v>146</v>
-      </c>
-      <c r="R74" t="s">
-        <v>146</v>
+        <v>438</v>
+      </c>
+      <c r="R74">
+        <v>99.5</v>
       </c>
       <c r="S74" t="s">
+        <v>356</v>
+      </c>
+      <c r="T74">
+        <v>180</v>
+      </c>
+      <c r="U74" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>203</v>
-      </c>
-      <c r="B75" s="9">
-        <v>58.49</v>
+        <v>168</v>
+      </c>
+      <c r="B75" s="8">
+        <v>186.69</v>
       </c>
       <c r="C75">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D75" t="s">
-        <v>321</v>
+        <v>194</v>
       </c>
       <c r="H75" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="I75" t="s">
-        <v>594</v>
-      </c>
-      <c r="J75">
-        <v>90</v>
-      </c>
-      <c r="K75">
-        <v>58.49</v>
-      </c>
-      <c r="L75" t="s">
-        <v>530</v>
-      </c>
-      <c r="M75" t="s">
-        <v>595</v>
+        <v>167</v>
+      </c>
+      <c r="J75" t="s">
+        <v>194</v>
+      </c>
+      <c r="L75">
+        <v>100</v>
+      </c>
+      <c r="M75">
+        <v>186.69</v>
       </c>
       <c r="N75" t="s">
-        <v>355</v>
+        <v>647</v>
       </c>
       <c r="O75" t="s">
+        <v>146</v>
+      </c>
+      <c r="P75" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q75" t="s">
         <v>438</v>
       </c>
-      <c r="P75">
-        <v>105.1</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>146</v>
-      </c>
       <c r="R75">
-        <v>333</v>
+        <v>99.5</v>
       </c>
       <c r="S75" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="T75">
+        <v>264</v>
+      </c>
+      <c r="U75" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B76" s="9">
-        <v>61.54</v>
+        <v>53.77</v>
       </c>
       <c r="C76">
         <v>100</v>
@@ -10775,349 +11537,373 @@
       <c r="D76" t="s">
         <v>321</v>
       </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
       <c r="H76" t="s">
+        <v>256</v>
+      </c>
+      <c r="I76" t="s">
+        <v>588</v>
+      </c>
+      <c r="J76" t="s">
+        <v>321</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>100</v>
+      </c>
+      <c r="M76">
+        <v>53.77</v>
+      </c>
+      <c r="N76" t="s">
+        <v>589</v>
+      </c>
+      <c r="O76" t="s">
+        <v>146</v>
+      </c>
+      <c r="P76" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>362</v>
+      </c>
+      <c r="R76">
+        <v>103.6</v>
+      </c>
+      <c r="S76" t="s">
+        <v>356</v>
+      </c>
+      <c r="T76">
         <v>208</v>
       </c>
-      <c r="I76" t="s">
-        <v>597</v>
-      </c>
-      <c r="J76">
+      <c r="U76" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>257</v>
+      </c>
+      <c r="B77" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="H77" t="s">
+        <v>257</v>
+      </c>
+      <c r="I77" t="s">
+        <v>402</v>
+      </c>
+      <c r="L77">
+        <v>10</v>
+      </c>
+      <c r="M77">
+        <v>2.1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>403</v>
+      </c>
+      <c r="O77" t="s">
+        <v>146</v>
+      </c>
+      <c r="P77" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>340</v>
+      </c>
+      <c r="R77">
+        <v>114.8</v>
+      </c>
+      <c r="S77" t="s">
+        <v>356</v>
+      </c>
+      <c r="T77">
+        <v>185</v>
+      </c>
+      <c r="U77" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>258</v>
+      </c>
+      <c r="B78" s="9">
+        <v>48.04</v>
+      </c>
+      <c r="C78">
         <v>100</v>
-      </c>
-      <c r="K76">
-        <v>61.54</v>
-      </c>
-      <c r="L76" t="s">
-        <v>569</v>
-      </c>
-      <c r="M76" t="s">
-        <v>146</v>
-      </c>
-      <c r="N76" t="s">
-        <v>598</v>
-      </c>
-      <c r="O76" t="s">
-        <v>438</v>
-      </c>
-      <c r="P76">
-        <v>100.5</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>146</v>
-      </c>
-      <c r="R76">
-        <v>346</v>
-      </c>
-      <c r="S76" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>242</v>
-      </c>
-      <c r="B77" s="9">
-        <v>67.430000000000007</v>
-      </c>
-      <c r="C77">
-        <v>100</v>
-      </c>
-      <c r="D77" t="s">
-        <v>321</v>
-      </c>
-      <c r="H77" t="s">
-        <v>242</v>
-      </c>
-      <c r="I77" t="s">
-        <v>600</v>
-      </c>
-      <c r="J77">
-        <v>100</v>
-      </c>
-      <c r="K77">
-        <v>67.430000000000007</v>
-      </c>
-      <c r="L77" t="s">
-        <v>601</v>
-      </c>
-      <c r="M77" t="s">
-        <v>146</v>
-      </c>
-      <c r="N77" t="s">
-        <v>146</v>
-      </c>
-      <c r="O77" t="s">
-        <v>340</v>
-      </c>
-      <c r="P77" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>146</v>
-      </c>
-      <c r="R77" t="s">
-        <v>146</v>
-      </c>
-      <c r="S77" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>206</v>
-      </c>
-      <c r="B78" s="9">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="C78">
-        <v>90</v>
       </c>
       <c r="D78" t="s">
         <v>321</v>
       </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
       <c r="H78" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="I78" t="s">
-        <v>604</v>
-      </c>
-      <c r="J78">
-        <v>90</v>
+        <v>578</v>
+      </c>
+      <c r="J78" t="s">
+        <v>321</v>
       </c>
       <c r="K78">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="L78" t="s">
-        <v>605</v>
-      </c>
-      <c r="M78" t="s">
-        <v>606</v>
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>100</v>
+      </c>
+      <c r="M78">
+        <v>48.04</v>
       </c>
       <c r="N78" t="s">
-        <v>387</v>
+        <v>579</v>
       </c>
       <c r="O78" t="s">
+        <v>580</v>
+      </c>
+      <c r="P78" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q78" t="s">
         <v>438</v>
       </c>
-      <c r="P78">
-        <v>99</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>146</v>
-      </c>
       <c r="R78">
-        <v>240</v>
+        <v>107.1</v>
       </c>
       <c r="S78" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="T78">
+        <v>320</v>
+      </c>
+      <c r="U78" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>219</v>
-      </c>
-      <c r="B79" s="9">
-        <v>72.319999999999993</v>
+        <v>170</v>
+      </c>
+      <c r="B79" s="8">
+        <v>91.7</v>
       </c>
       <c r="C79">
         <v>100</v>
       </c>
       <c r="D79" t="s">
-        <v>321</v>
+        <v>194</v>
       </c>
       <c r="H79" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="I79" t="s">
-        <v>608</v>
-      </c>
-      <c r="J79">
+        <v>169</v>
+      </c>
+      <c r="J79" t="s">
+        <v>194</v>
+      </c>
+      <c r="L79">
         <v>100</v>
       </c>
-      <c r="K79">
-        <v>72.319999999999993</v>
-      </c>
-      <c r="L79" t="s">
-        <v>589</v>
-      </c>
-      <c r="M79" t="s">
-        <v>146</v>
+      <c r="M79">
+        <v>91.7</v>
       </c>
       <c r="N79" t="s">
+        <v>617</v>
+      </c>
+      <c r="O79" t="s">
+        <v>618</v>
+      </c>
+      <c r="P79" t="s">
         <v>355</v>
       </c>
-      <c r="O79" t="s">
+      <c r="Q79" t="s">
         <v>438</v>
       </c>
-      <c r="P79">
-        <v>101.6</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>349</v>
-      </c>
       <c r="R79">
-        <v>179</v>
+        <v>106.8</v>
       </c>
       <c r="S79" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>254</v>
-      </c>
-      <c r="B80" s="9">
-        <v>81.66</v>
+        <v>449</v>
+      </c>
+      <c r="T79">
+        <v>297</v>
+      </c>
+      <c r="U79" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B80">
+        <v>25.36</v>
       </c>
       <c r="C80">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D80" t="s">
-        <v>321</v>
+        <v>273</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>324</v>
       </c>
       <c r="H80" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="I80" t="s">
-        <v>611</v>
-      </c>
-      <c r="J80">
-        <v>100</v>
+        <v>521</v>
+      </c>
+      <c r="J80" t="s">
+        <v>273</v>
       </c>
       <c r="K80">
-        <v>81.66</v>
-      </c>
-      <c r="L80" t="s">
-        <v>612</v>
-      </c>
-      <c r="M80" t="s">
-        <v>146</v>
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>80</v>
+      </c>
+      <c r="M80">
+        <v>25.36</v>
       </c>
       <c r="N80" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
       <c r="O80" t="s">
-        <v>438</v>
-      </c>
-      <c r="P80">
-        <v>103.3</v>
+        <v>522</v>
+      </c>
+      <c r="P80" t="s">
+        <v>356</v>
       </c>
       <c r="Q80" t="s">
-        <v>449</v>
+        <v>340</v>
       </c>
       <c r="R80">
-        <v>229</v>
+        <v>108.6</v>
       </c>
       <c r="S80" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="T80">
+        <v>399</v>
+      </c>
+      <c r="U80" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="B81" s="9">
-        <v>83.68</v>
+        <v>10</v>
       </c>
       <c r="C81">
         <v>100</v>
       </c>
-      <c r="D81" t="s">
-        <v>321</v>
-      </c>
       <c r="H81" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="I81" t="s">
-        <v>614</v>
-      </c>
-      <c r="J81">
+        <v>472</v>
+      </c>
+      <c r="L81">
         <v>100</v>
       </c>
-      <c r="K81">
-        <v>83.68</v>
-      </c>
-      <c r="L81" t="s">
-        <v>615</v>
-      </c>
-      <c r="M81" t="s">
-        <v>146</v>
+      <c r="M81">
+        <v>10</v>
       </c>
       <c r="N81" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
       <c r="O81" t="s">
+        <v>473</v>
+      </c>
+      <c r="P81" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q81" t="s">
         <v>438</v>
       </c>
-      <c r="P81">
-        <v>110.8</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>356</v>
-      </c>
       <c r="R81" t="s">
         <v>146</v>
       </c>
       <c r="S81" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="T81" t="s">
+        <v>146</v>
+      </c>
+      <c r="U81" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>170</v>
-      </c>
-      <c r="B82" s="8">
-        <v>91.7</v>
+        <v>261</v>
+      </c>
+      <c r="B82" s="10">
+        <v>0.7</v>
       </c>
       <c r="C82">
-        <v>100</v>
-      </c>
-      <c r="D82" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="I82" t="s">
-        <v>169</v>
-      </c>
-      <c r="J82">
-        <v>100</v>
-      </c>
-      <c r="K82">
-        <v>91.7</v>
-      </c>
-      <c r="L82" t="s">
-        <v>617</v>
-      </c>
-      <c r="M82" t="s">
-        <v>618</v>
+        <v>376</v>
+      </c>
+      <c r="L82">
+        <v>10</v>
+      </c>
+      <c r="M82">
+        <v>0.7</v>
       </c>
       <c r="N82" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O82" t="s">
-        <v>438</v>
-      </c>
-      <c r="P82">
-        <v>106.8</v>
+        <v>377</v>
+      </c>
+      <c r="P82" t="s">
+        <v>146</v>
       </c>
       <c r="Q82" t="s">
-        <v>449</v>
-      </c>
-      <c r="R82">
-        <v>297</v>
+        <v>340</v>
+      </c>
+      <c r="R82" t="s">
+        <v>146</v>
       </c>
       <c r="S82" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="T82" t="s">
+        <v>146</v>
+      </c>
+      <c r="U82" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B83" s="8">
-        <v>92.8</v>
+        <v>112.2</v>
       </c>
       <c r="C83">
         <v>100</v>
@@ -11126,548 +11912,545 @@
         <v>194</v>
       </c>
       <c r="H83" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I83" t="s">
-        <v>153</v>
-      </c>
-      <c r="J83">
+        <v>171</v>
+      </c>
+      <c r="J83" t="s">
+        <v>194</v>
+      </c>
+      <c r="L83">
         <v>100</v>
       </c>
-      <c r="K83">
-        <v>92.8</v>
-      </c>
-      <c r="L83" t="s">
-        <v>621</v>
-      </c>
-      <c r="M83" t="s">
-        <v>146</v>
+      <c r="M83">
+        <v>112.2</v>
       </c>
       <c r="N83" t="s">
-        <v>448</v>
+        <v>628</v>
       </c>
       <c r="O83" t="s">
+        <v>146</v>
+      </c>
+      <c r="P83" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q83" t="s">
         <v>438</v>
       </c>
-      <c r="P83">
-        <v>99.5</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>146</v>
-      </c>
-      <c r="R83">
-        <v>277</v>
+      <c r="R83" t="s">
+        <v>146</v>
       </c>
       <c r="S83" t="s">
+        <v>146</v>
+      </c>
+      <c r="T83" t="s">
+        <v>146</v>
+      </c>
+      <c r="U83" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>262</v>
+      </c>
+      <c r="B84">
+        <v>21.8</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+      <c r="H84" t="s">
+        <v>262</v>
+      </c>
+      <c r="I84" t="s">
+        <v>517</v>
+      </c>
+      <c r="L84">
+        <v>30</v>
+      </c>
+      <c r="M84">
+        <v>21.8</v>
+      </c>
+      <c r="N84" t="s">
+        <v>452</v>
+      </c>
+      <c r="O84" t="s">
+        <v>146</v>
+      </c>
+      <c r="P84" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>418</v>
+      </c>
+      <c r="R84">
+        <v>105.1</v>
+      </c>
+      <c r="S84" t="s">
+        <v>349</v>
+      </c>
+      <c r="T84">
+        <v>202</v>
+      </c>
+      <c r="U84" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>160</v>
-      </c>
-      <c r="B84" s="8">
-        <v>98.59</v>
-      </c>
-      <c r="C84">
-        <v>100</v>
-      </c>
-      <c r="D84" t="s">
-        <v>194</v>
-      </c>
-      <c r="H84" t="s">
-        <v>160</v>
-      </c>
-      <c r="I84" t="s">
-        <v>159</v>
-      </c>
-      <c r="J84">
-        <v>100</v>
-      </c>
-      <c r="K84">
-        <v>98.59</v>
-      </c>
-      <c r="L84" t="s">
-        <v>624</v>
-      </c>
-      <c r="M84" t="s">
-        <v>146</v>
-      </c>
-      <c r="N84" t="s">
-        <v>146</v>
-      </c>
-      <c r="O84" t="s">
-        <v>438</v>
-      </c>
-      <c r="P84" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>146</v>
-      </c>
-      <c r="R84" t="s">
-        <v>146</v>
-      </c>
-      <c r="S84" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>145</v>
-      </c>
-      <c r="B85" s="8">
-        <v>99.23</v>
+        <v>263</v>
+      </c>
+      <c r="B85" s="10">
+        <v>1.66</v>
       </c>
       <c r="C85">
-        <v>100</v>
-      </c>
-      <c r="D85" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="H85" t="s">
-        <v>145</v>
+        <v>263</v>
       </c>
       <c r="I85" t="s">
-        <v>144</v>
-      </c>
-      <c r="J85">
-        <v>100</v>
-      </c>
-      <c r="K85">
-        <v>99.23</v>
-      </c>
-      <c r="L85" t="s">
-        <v>484</v>
-      </c>
-      <c r="M85" t="s">
-        <v>146</v>
+        <v>392</v>
+      </c>
+      <c r="L85">
+        <v>20</v>
+      </c>
+      <c r="M85">
+        <v>1.66</v>
       </c>
       <c r="N85" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O85" t="s">
-        <v>438</v>
-      </c>
-      <c r="P85">
-        <v>101</v>
+        <v>393</v>
+      </c>
+      <c r="P85" t="s">
+        <v>146</v>
       </c>
       <c r="Q85" t="s">
-        <v>356</v>
-      </c>
-      <c r="R85">
-        <v>218</v>
+        <v>340</v>
+      </c>
+      <c r="R85" t="s">
+        <v>146</v>
       </c>
       <c r="S85" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="T85" t="s">
+        <v>146</v>
+      </c>
+      <c r="U85" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>172</v>
-      </c>
-      <c r="B86" s="8">
-        <v>112.2</v>
+        <v>264</v>
+      </c>
+      <c r="B86" s="10">
+        <v>1.56</v>
       </c>
       <c r="C86">
-        <v>100</v>
-      </c>
-      <c r="D86" t="s">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="I86" t="s">
-        <v>171</v>
-      </c>
-      <c r="J86">
-        <v>100</v>
-      </c>
-      <c r="K86">
-        <v>112.2</v>
-      </c>
-      <c r="L86" t="s">
-        <v>628</v>
-      </c>
-      <c r="M86" t="s">
-        <v>146</v>
+        <v>389</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1.56</v>
       </c>
       <c r="N86" t="s">
-        <v>146</v>
+        <v>353</v>
       </c>
       <c r="O86" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="P86" t="s">
         <v>146</v>
       </c>
       <c r="Q86" t="s">
-        <v>146</v>
+        <v>340</v>
       </c>
       <c r="R86" t="s">
         <v>146</v>
       </c>
       <c r="S86" t="s">
+        <v>146</v>
+      </c>
+      <c r="T86" t="s">
+        <v>146</v>
+      </c>
+      <c r="U86" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>265</v>
+      </c>
+      <c r="B87" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>265</v>
+      </c>
+      <c r="I87" t="s">
+        <v>370</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0.44</v>
+      </c>
+      <c r="N87" t="s">
+        <v>353</v>
+      </c>
+      <c r="O87" t="s">
+        <v>371</v>
+      </c>
+      <c r="P87" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>340</v>
+      </c>
+      <c r="R87" t="s">
+        <v>146</v>
+      </c>
+      <c r="S87" t="s">
+        <v>146</v>
+      </c>
+      <c r="T87" t="s">
+        <v>146</v>
+      </c>
+      <c r="U87" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>266</v>
+      </c>
+      <c r="B88" s="10">
+        <v>3.37</v>
+      </c>
+      <c r="C88">
+        <v>50</v>
+      </c>
+      <c r="H88" t="s">
+        <v>266</v>
+      </c>
+      <c r="I88" t="s">
+        <v>407</v>
+      </c>
+      <c r="L88">
+        <v>50</v>
+      </c>
+      <c r="M88">
+        <v>3.37</v>
+      </c>
+      <c r="N88" t="s">
+        <v>353</v>
+      </c>
+      <c r="O88" t="s">
+        <v>396</v>
+      </c>
+      <c r="P88" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>340</v>
+      </c>
+      <c r="R88" t="s">
+        <v>146</v>
+      </c>
+      <c r="S88" t="s">
+        <v>146</v>
+      </c>
+      <c r="T88" t="s">
+        <v>146</v>
+      </c>
+      <c r="U88" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>267</v>
+      </c>
+      <c r="B89" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="C89">
+        <v>30</v>
+      </c>
+      <c r="H89" t="s">
+        <v>267</v>
+      </c>
+      <c r="I89" t="s">
+        <v>395</v>
+      </c>
+      <c r="L89">
+        <v>30</v>
+      </c>
+      <c r="M89">
+        <v>1.83</v>
+      </c>
+      <c r="N89" t="s">
+        <v>353</v>
+      </c>
+      <c r="O89" t="s">
+        <v>396</v>
+      </c>
+      <c r="P89" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>146</v>
+      </c>
+      <c r="R89" t="s">
+        <v>146</v>
+      </c>
+      <c r="S89" t="s">
+        <v>146</v>
+      </c>
+      <c r="T89" t="s">
+        <v>146</v>
+      </c>
+      <c r="U89" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>268</v>
+      </c>
+      <c r="B90">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="C90">
+        <v>50</v>
+      </c>
+      <c r="D90" t="s">
+        <v>273</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="H90" t="s">
+        <v>268</v>
+      </c>
+      <c r="I90" t="s">
+        <v>505</v>
+      </c>
+      <c r="J90" t="s">
+        <v>273</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>50</v>
+      </c>
+      <c r="M90">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="N90" t="s">
+        <v>506</v>
+      </c>
+      <c r="O90" t="s">
+        <v>507</v>
+      </c>
+      <c r="P90" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>340</v>
+      </c>
+      <c r="R90" t="s">
+        <v>146</v>
+      </c>
+      <c r="S90" t="s">
+        <v>146</v>
+      </c>
+      <c r="T90" t="s">
+        <v>146</v>
+      </c>
+      <c r="U90" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>164</v>
-      </c>
-      <c r="B87" s="8">
-        <v>117.61</v>
-      </c>
-      <c r="C87">
-        <v>100</v>
-      </c>
-      <c r="D87" t="s">
-        <v>194</v>
-      </c>
-      <c r="H87" t="s">
-        <v>164</v>
-      </c>
-      <c r="I87" t="s">
-        <v>163</v>
-      </c>
-      <c r="J87">
-        <v>100</v>
-      </c>
-      <c r="K87">
-        <v>117.61</v>
-      </c>
-      <c r="L87" t="s">
-        <v>631</v>
-      </c>
-      <c r="M87" t="s">
-        <v>146</v>
-      </c>
-      <c r="N87" t="s">
-        <v>355</v>
-      </c>
-      <c r="O87" t="s">
-        <v>438</v>
-      </c>
-      <c r="P87">
-        <v>102</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>356</v>
-      </c>
-      <c r="R87">
-        <v>251</v>
-      </c>
-      <c r="S87" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>41</v>
+      </c>
+      <c r="I91" t="s">
+        <v>364</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>353</v>
+      </c>
+      <c r="O91" t="s">
+        <v>365</v>
+      </c>
+      <c r="P91" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>340</v>
+      </c>
+      <c r="R91" t="s">
+        <v>146</v>
+      </c>
+      <c r="S91" t="s">
+        <v>146</v>
+      </c>
+      <c r="T91" t="s">
+        <v>146</v>
+      </c>
+      <c r="U91" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>269</v>
+      </c>
+      <c r="B92" s="10">
+        <v>7.42</v>
+      </c>
+      <c r="C92">
+        <v>30</v>
+      </c>
+      <c r="H92" t="s">
+        <v>269</v>
+      </c>
+      <c r="I92" t="s">
+        <v>455</v>
+      </c>
+      <c r="L92">
+        <v>30</v>
+      </c>
+      <c r="M92">
+        <v>7.42</v>
+      </c>
+      <c r="N92" t="s">
+        <v>353</v>
+      </c>
+      <c r="O92" t="s">
+        <v>456</v>
+      </c>
+      <c r="P92" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>340</v>
+      </c>
+      <c r="R92" t="s">
+        <v>146</v>
+      </c>
+      <c r="S92" t="s">
+        <v>146</v>
+      </c>
+      <c r="T92" t="s">
+        <v>146</v>
+      </c>
+      <c r="U92" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93">
+        <v>17.5</v>
+      </c>
+      <c r="C93">
+        <v>90</v>
+      </c>
+      <c r="D93" t="s">
+        <v>273</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="H93" t="s">
+        <v>270</v>
+      </c>
+      <c r="I93" t="s">
+        <v>494</v>
+      </c>
+      <c r="J93" t="s">
+        <v>273</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>90</v>
+      </c>
+      <c r="M93">
+        <v>17.5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>353</v>
+      </c>
+      <c r="O93" t="s">
+        <v>495</v>
+      </c>
+      <c r="P93" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>340</v>
+      </c>
+      <c r="R93" t="s">
+        <v>146</v>
+      </c>
+      <c r="S93" t="s">
+        <v>146</v>
+      </c>
+      <c r="T93" t="s">
+        <v>146</v>
+      </c>
+      <c r="U93" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B94" s="8">
         <v>120.71</v>
-      </c>
-      <c r="C88">
-        <v>100</v>
-      </c>
-      <c r="D88" t="s">
-        <v>194</v>
-      </c>
-      <c r="H88" t="s">
-        <v>174</v>
-      </c>
-      <c r="I88" t="s">
-        <v>173</v>
-      </c>
-      <c r="J88">
-        <v>100</v>
-      </c>
-      <c r="K88">
-        <v>120.71</v>
-      </c>
-      <c r="L88" t="s">
-        <v>634</v>
-      </c>
-      <c r="M88" t="s">
-        <v>635</v>
-      </c>
-      <c r="N88" t="s">
-        <v>146</v>
-      </c>
-      <c r="O88" t="s">
-        <v>438</v>
-      </c>
-      <c r="P88" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>146</v>
-      </c>
-      <c r="R88" t="s">
-        <v>146</v>
-      </c>
-      <c r="S88" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>148</v>
-      </c>
-      <c r="B89" s="8">
-        <v>120.98</v>
-      </c>
-      <c r="C89">
-        <v>100</v>
-      </c>
-      <c r="D89" t="s">
-        <v>194</v>
-      </c>
-      <c r="H89" t="s">
-        <v>148</v>
-      </c>
-      <c r="I89" t="s">
-        <v>147</v>
-      </c>
-      <c r="J89">
-        <v>100</v>
-      </c>
-      <c r="K89">
-        <v>120.98</v>
-      </c>
-      <c r="L89" t="s">
-        <v>447</v>
-      </c>
-      <c r="M89" t="s">
-        <v>146</v>
-      </c>
-      <c r="N89" t="s">
-        <v>448</v>
-      </c>
-      <c r="O89" t="s">
-        <v>438</v>
-      </c>
-      <c r="P89">
-        <v>109.7</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>453</v>
-      </c>
-      <c r="R89">
-        <v>268</v>
-      </c>
-      <c r="S89" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>156</v>
-      </c>
-      <c r="B90" s="8">
-        <v>126.29</v>
-      </c>
-      <c r="C90">
-        <v>100</v>
-      </c>
-      <c r="D90" t="s">
-        <v>194</v>
-      </c>
-      <c r="H90" t="s">
-        <v>156</v>
-      </c>
-      <c r="I90" t="s">
-        <v>155</v>
-      </c>
-      <c r="J90">
-        <v>100</v>
-      </c>
-      <c r="K90">
-        <v>126.29</v>
-      </c>
-      <c r="L90" t="s">
-        <v>639</v>
-      </c>
-      <c r="M90" t="s">
-        <v>146</v>
-      </c>
-      <c r="N90" t="s">
-        <v>448</v>
-      </c>
-      <c r="O90" t="s">
-        <v>438</v>
-      </c>
-      <c r="P90">
-        <v>99.5</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>146</v>
-      </c>
-      <c r="R90">
-        <v>235</v>
-      </c>
-      <c r="S90" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>176</v>
-      </c>
-      <c r="B91" s="8">
-        <v>129.85</v>
-      </c>
-      <c r="C91">
-        <v>100</v>
-      </c>
-      <c r="D91" t="s">
-        <v>194</v>
-      </c>
-      <c r="H91" t="s">
-        <v>176</v>
-      </c>
-      <c r="I91" t="s">
-        <v>175</v>
-      </c>
-      <c r="J91">
-        <v>100</v>
-      </c>
-      <c r="K91">
-        <v>129.85</v>
-      </c>
-      <c r="L91" t="s">
-        <v>642</v>
-      </c>
-      <c r="M91" t="s">
-        <v>146</v>
-      </c>
-      <c r="N91" t="s">
-        <v>368</v>
-      </c>
-      <c r="O91" t="s">
-        <v>438</v>
-      </c>
-      <c r="P91">
-        <v>104.5</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>643</v>
-      </c>
-      <c r="R91">
-        <v>237</v>
-      </c>
-      <c r="S91" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>152</v>
-      </c>
-      <c r="B92" s="8">
-        <v>132.53</v>
-      </c>
-      <c r="C92">
-        <v>100</v>
-      </c>
-      <c r="D92" t="s">
-        <v>194</v>
-      </c>
-      <c r="H92" t="s">
-        <v>152</v>
-      </c>
-      <c r="I92" t="s">
-        <v>151</v>
-      </c>
-      <c r="J92">
-        <v>100</v>
-      </c>
-      <c r="K92">
-        <v>132.53</v>
-      </c>
-      <c r="L92" t="s">
-        <v>565</v>
-      </c>
-      <c r="M92" t="s">
-        <v>561</v>
-      </c>
-      <c r="N92" t="s">
-        <v>448</v>
-      </c>
-      <c r="O92" t="s">
-        <v>438</v>
-      </c>
-      <c r="P92">
-        <v>106.6</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>146</v>
-      </c>
-      <c r="R92">
-        <v>342</v>
-      </c>
-      <c r="S92" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>166</v>
-      </c>
-      <c r="B93" s="8">
-        <v>138.80000000000001</v>
-      </c>
-      <c r="C93">
-        <v>100</v>
-      </c>
-      <c r="D93" t="s">
-        <v>194</v>
-      </c>
-      <c r="H93" t="s">
-        <v>166</v>
-      </c>
-      <c r="I93" t="s">
-        <v>165</v>
-      </c>
-      <c r="J93">
-        <v>100</v>
-      </c>
-      <c r="K93">
-        <v>138.80000000000001</v>
-      </c>
-      <c r="L93" t="s">
-        <v>647</v>
-      </c>
-      <c r="M93" t="s">
-        <v>146</v>
-      </c>
-      <c r="N93" t="s">
-        <v>348</v>
-      </c>
-      <c r="O93" t="s">
-        <v>438</v>
-      </c>
-      <c r="P93">
-        <v>99.5</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>356</v>
-      </c>
-      <c r="R93">
-        <v>180</v>
-      </c>
-      <c r="S93" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>158</v>
-      </c>
-      <c r="B94" s="8">
-        <v>139.22999999999999</v>
       </c>
       <c r="C94">
         <v>100</v>
@@ -11676,148 +12459,160 @@
         <v>194</v>
       </c>
       <c r="H94" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="I94" t="s">
-        <v>157</v>
-      </c>
-      <c r="J94">
+        <v>173</v>
+      </c>
+      <c r="J94" t="s">
+        <v>194</v>
+      </c>
+      <c r="L94">
         <v>100</v>
       </c>
-      <c r="K94">
-        <v>139.22999999999999</v>
-      </c>
-      <c r="L94" t="s">
-        <v>650</v>
-      </c>
-      <c r="M94" t="s">
-        <v>146</v>
+      <c r="M94">
+        <v>120.71</v>
       </c>
       <c r="N94" t="s">
-        <v>466</v>
+        <v>634</v>
       </c>
       <c r="O94" t="s">
+        <v>635</v>
+      </c>
+      <c r="P94" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q94" t="s">
         <v>438</v>
       </c>
-      <c r="P94">
-        <v>99.5</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>146</v>
-      </c>
-      <c r="R94">
-        <v>230</v>
+      <c r="R94" t="s">
+        <v>146</v>
       </c>
       <c r="S94" t="s">
+        <v>146</v>
+      </c>
+      <c r="T94" t="s">
+        <v>146</v>
+      </c>
+      <c r="U94" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>150</v>
-      </c>
-      <c r="B95" s="8">
-        <v>144.16999999999999</v>
+        <v>271</v>
+      </c>
+      <c r="B95" s="9">
+        <v>47.45</v>
       </c>
       <c r="C95">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D95" t="s">
-        <v>194</v>
+        <v>321</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>324</v>
       </c>
       <c r="H95" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="I95" t="s">
-        <v>149</v>
-      </c>
-      <c r="J95">
-        <v>100</v>
+        <v>575</v>
+      </c>
+      <c r="J95" t="s">
+        <v>321</v>
       </c>
       <c r="K95">
-        <v>144.16999999999999</v>
-      </c>
-      <c r="L95" t="s">
-        <v>653</v>
-      </c>
-      <c r="M95" t="s">
-        <v>146</v>
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>90</v>
+      </c>
+      <c r="M95">
+        <v>47.45</v>
       </c>
       <c r="N95" t="s">
-        <v>146</v>
+        <v>576</v>
       </c>
       <c r="O95" t="s">
+        <v>146</v>
+      </c>
+      <c r="P95" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>418</v>
+      </c>
+      <c r="R95">
+        <v>102.8</v>
+      </c>
+      <c r="S95" t="s">
+        <v>449</v>
+      </c>
+      <c r="T95">
+        <v>325</v>
+      </c>
+      <c r="U95" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>272</v>
+      </c>
+      <c r="B96" s="10">
+        <v>2.08</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="H96" t="s">
+        <v>272</v>
+      </c>
+      <c r="I96" t="s">
+        <v>398</v>
+      </c>
+      <c r="L96">
+        <v>20</v>
+      </c>
+      <c r="M96">
+        <v>2.08</v>
+      </c>
+      <c r="N96" t="s">
+        <v>399</v>
+      </c>
+      <c r="O96" t="s">
+        <v>400</v>
+      </c>
+      <c r="P96" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q96" t="s">
         <v>340</v>
       </c>
-      <c r="P95" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>146</v>
-      </c>
-      <c r="R95" t="s">
-        <v>146</v>
-      </c>
-      <c r="S95" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>162</v>
-      </c>
-      <c r="B96" s="8">
-        <v>158.56</v>
-      </c>
-      <c r="C96">
-        <v>100</v>
-      </c>
-      <c r="D96" t="s">
-        <v>194</v>
-      </c>
-      <c r="H96" t="s">
-        <v>162</v>
-      </c>
-      <c r="I96" t="s">
-        <v>161</v>
-      </c>
-      <c r="J96">
-        <v>100</v>
-      </c>
-      <c r="K96">
-        <v>158.56</v>
-      </c>
-      <c r="L96" t="s">
-        <v>624</v>
-      </c>
-      <c r="M96" t="s">
-        <v>146</v>
-      </c>
-      <c r="N96" t="s">
-        <v>146</v>
-      </c>
-      <c r="O96" t="s">
-        <v>438</v>
-      </c>
-      <c r="P96" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>146</v>
-      </c>
-      <c r="R96" t="s">
-        <v>146</v>
+      <c r="R96">
+        <v>110.9</v>
       </c>
       <c r="S96" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="T96">
+        <v>308</v>
+      </c>
+      <c r="U96" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B97" s="8">
-        <v>186.69</v>
+        <v>129.85</v>
       </c>
       <c r="C97">
         <v>100</v>
@@ -11826,51 +12621,54 @@
         <v>194</v>
       </c>
       <c r="H97" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="I97" t="s">
-        <v>167</v>
-      </c>
-      <c r="J97">
+        <v>175</v>
+      </c>
+      <c r="J97" t="s">
+        <v>194</v>
+      </c>
+      <c r="L97">
         <v>100</v>
       </c>
-      <c r="K97">
-        <v>186.69</v>
-      </c>
-      <c r="L97" t="s">
-        <v>647</v>
-      </c>
-      <c r="M97" t="s">
-        <v>146</v>
+      <c r="M97">
+        <v>129.85</v>
       </c>
       <c r="N97" t="s">
-        <v>437</v>
+        <v>642</v>
       </c>
       <c r="O97" t="s">
+        <v>146</v>
+      </c>
+      <c r="P97" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q97" t="s">
         <v>438</v>
       </c>
-      <c r="P97">
-        <v>99.5</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>356</v>
-      </c>
       <c r="R97">
-        <v>264</v>
+        <v>104.5</v>
       </c>
       <c r="S97" t="s">
-        <v>404</v>
+        <v>643</v>
+      </c>
+      <c r="T97">
+        <v>237</v>
+      </c>
+      <c r="U97" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH97">
-    <sortCondition ref="B2:B97"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U97">
+    <sortCondition ref="I2:I97"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD20571F-805B-4FA3-9A8D-56C694F5FDCD}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
@@ -17044,7 +17842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05ED35B1-ED4A-4F8F-AC71-2DF5A060C2ED}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
@@ -17298,7 +18096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D02B578-6E2B-4B98-BD2E-1A6AD125260B}">
   <dimension ref="A1:D33"/>
   <sheetViews>

--- a/data/planning.xlsx
+++ b/data/planning.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8FE922-0D33-46D8-BCB6-4FDAE0A61DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02F7A79-5974-464E-914C-8BC8A9C224D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="1530" windowWidth="24975" windowHeight="18300" activeTab="3" xr2:uid="{BEFE39CF-4712-4775-9411-5C503787578E}"/>
+    <workbookView xWindow="375" yWindow="240" windowWidth="31410" windowHeight="19080" xr2:uid="{BEFE39CF-4712-4775-9411-5C503787578E}"/>
   </bookViews>
   <sheets>
     <sheet name="selections" sheetId="1" r:id="rId1"/>
     <sheet name="wof_plots" sheetId="6" r:id="rId2"/>
     <sheet name="map 2" sheetId="9" r:id="rId3"/>
-    <sheet name="guardrows" sheetId="11" r:id="rId4"/>
-    <sheet name="headrows" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
-    <sheet name="pea_planting" sheetId="4" r:id="rId7"/>
-    <sheet name="bulk_pea_labels" sheetId="5" r:id="rId8"/>
+    <sheet name="stake_spacing" sheetId="12" r:id="rId4"/>
+    <sheet name="guardrows" sheetId="11" r:id="rId5"/>
+    <sheet name="headrows" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
+    <sheet name="pea_planting" sheetId="4" r:id="rId8"/>
+    <sheet name="bulk_pea_labels" sheetId="5" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'map 2'!$AG$2:$BG$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="666">
   <si>
     <t>observationUnitName</t>
   </si>
@@ -2026,13 +2030,28 @@
   </si>
   <si>
     <t>guard</t>
+  </si>
+  <si>
+    <t>plot spacing</t>
+  </si>
+  <si>
+    <t>meters</t>
+  </si>
+  <si>
+    <t>stake</t>
+  </si>
+  <si>
+    <t>headrow spacing</t>
+  </si>
+  <si>
+    <t>pea_seed_lot_plots</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2098,6 +2117,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2158,7 +2184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2181,6 +2207,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2189,7 +2243,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2208,9 +2262,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
@@ -2240,6 +2291,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2580,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E147DB-166A-44B5-BCC5-098A0311CA8B}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,7 +2665,7 @@
     <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="70.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2648,6 +2721,10 @@
       <c r="H2">
         <v>60.46</v>
       </c>
+      <c r="I2" t="str">
+        <f>_xlfn.CONCAT(D2,"-",C2)</f>
+        <v>NF13-4126-4_3-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_338</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2674,6 +2751,10 @@
       <c r="H3">
         <v>51.485999999999997</v>
       </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I66" si="0">_xlfn.CONCAT(D3,"-",C3)</f>
+        <v>Gerard 227-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_249</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2700,6 +2781,10 @@
       <c r="H4">
         <v>47.731000000000002</v>
       </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>NC20-4526-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_31</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2726,6 +2811,10 @@
       <c r="H5">
         <v>42.878999999999998</v>
       </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>NC20-4452-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_97</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2752,6 +2841,10 @@
       <c r="H6">
         <v>42.302</v>
       </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>NC21-6429-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_16</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2778,6 +2871,10 @@
       <c r="H7">
         <v>39.97</v>
       </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>NF99414-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_174</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2804,6 +2901,10 @@
       <c r="H8">
         <v>39.433999999999997</v>
       </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>AURORA-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_24</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2830,6 +2931,10 @@
       <c r="H9">
         <v>35.881999999999998</v>
       </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>LA17089SBS-45-1-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_223</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2856,6 +2961,10 @@
       <c r="H10">
         <v>33.539000000000001</v>
       </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>HARRISON-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_56</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2882,6 +2991,10 @@
       <c r="H11">
         <v>30.841000000000001</v>
       </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>PA7617-3460-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_212</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2908,6 +3021,10 @@
       <c r="H12">
         <v>30.344999999999999</v>
       </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>NC21-6492-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_128</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2934,6 +3051,10 @@
       <c r="H13">
         <v>28.869</v>
       </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>LA17153SBSS-46-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_180</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2960,6 +3081,10 @@
       <c r="H14">
         <v>28.773</v>
       </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>TX18OCS9125-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_10</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2986,6 +3111,10 @@
       <c r="H15">
         <v>25.28</v>
       </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>Horizon 578-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_282</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3012,8 +3141,12 @@
       <c r="H16">
         <v>24.268000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>NC20-4551-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3038,8 +3171,12 @@
       <c r="H17">
         <v>21.849</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>NC21-6511-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3064,8 +3201,12 @@
       <c r="H18">
         <v>21.361999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>NF01404A-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3090,8 +3231,12 @@
       <c r="H19">
         <v>21.19</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>NC21-6610-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3116,8 +3261,12 @@
       <c r="H20">
         <v>19.507999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>FLLA17088-77-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3142,8 +3291,12 @@
       <c r="H21">
         <v>18.876999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>NC20-4700-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3168,8 +3321,12 @@
       <c r="H22">
         <v>17.155999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>LA99016-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3194,8 +3351,12 @@
       <c r="H23">
         <v>16.707000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>OKAY-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3220,8 +3381,12 @@
       <c r="H24">
         <v>15.76</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>NF97405B2-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3246,8 +3411,12 @@
       <c r="H25">
         <v>15.05</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>NF12AS-107-4_4-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3272,8 +3441,12 @@
       <c r="H26">
         <v>12.372999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>NF12AS-108-4_4-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3298,8 +3471,12 @@
       <c r="H27">
         <v>10.617000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>FLLA17069-54-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3324,8 +3501,12 @@
       <c r="H28">
         <v>10.278</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>NF12AS-108-4_1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3350,8 +3531,12 @@
       <c r="H29">
         <v>9.1620000000000008</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>NC20-4702-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3376,8 +3561,12 @@
       <c r="H30">
         <v>8.7929999999999993</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>LA17069SBSS-2-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3402,8 +3591,12 @@
       <c r="H31">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>SCLA17080SBS-4-2-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3428,8 +3621,12 @@
       <c r="H32">
         <v>7.9690000000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>NF97405-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3454,8 +3651,12 @@
       <c r="H33">
         <v>6.6909999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>NF13-4173-4_5-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3480,8 +3681,12 @@
       <c r="H34">
         <v>6.43</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>NF12AS-73-4_3-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3506,8 +3711,12 @@
       <c r="H35">
         <v>6.1840000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>NF12AS-91-4_1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3532,8 +3741,12 @@
       <c r="H36">
         <v>6.0309999999999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>NF01401B-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3558,8 +3771,12 @@
       <c r="H37">
         <v>5.9630000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>SCLA17031SBSS-4-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3584,8 +3801,12 @@
       <c r="H38">
         <v>5.8780000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>NF12AS-122-4_4-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3610,8 +3831,12 @@
       <c r="H39">
         <v>5.7240000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>NC21-6609-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3636,8 +3861,12 @@
       <c r="H40">
         <v>5.6829999999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>NF502_5-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3662,8 +3891,12 @@
       <c r="H41">
         <v>5.0890000000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>NC19-3542-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3688,8 +3921,12 @@
       <c r="H42">
         <v>4.5620000000000003</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>NF99401_1-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3714,8 +3951,12 @@
       <c r="H43">
         <v>4.2069999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>NC21-6497-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3740,8 +3981,12 @@
       <c r="H44">
         <v>3.2120000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>NC17-6440-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3766,8 +4011,12 @@
       <c r="H45">
         <v>3.0630000000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>NORA-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3792,8 +4041,12 @@
       <c r="H46">
         <v>2.6960000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>NF13-4214-4_5-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3818,8 +4071,12 @@
       <c r="H47">
         <v>2.476</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>FLLA17088-61-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3844,8 +4101,12 @@
       <c r="H48">
         <v>1.3480000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>NF99414-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_378</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3870,8 +4131,12 @@
       <c r="H49">
         <v>0.40500000000000003</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>OZARK|POGI-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3896,8 +4161,12 @@
       <c r="H50">
         <v>0.26900000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>NF18-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3922,8 +4191,12 @@
       <c r="H51">
         <v>-0.38100000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>NF00407-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3948,8 +4221,12 @@
       <c r="H52">
         <v>-0.53200000000000003</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>NC20-4402-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3974,8 +4251,12 @@
       <c r="H53">
         <v>-2.08</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>NF05424_2-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4000,8 +4281,12 @@
       <c r="H54">
         <v>-2.238</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>FLLA11019-8-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4026,8 +4311,12 @@
       <c r="H55">
         <v>-2.9660000000000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>NF13-4157-4_2-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4052,8 +4341,12 @@
       <c r="H56">
         <v>-4.8230000000000004</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>NF12AS-100-4_2-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4078,8 +4371,12 @@
       <c r="H57">
         <v>-5.3920000000000003</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>GERARD224-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4104,8 +4401,12 @@
       <c r="H58">
         <v>-5.702</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>NF12AS-107-4_2-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4130,8 +4431,12 @@
       <c r="H59">
         <v>-6.7320000000000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>NC21-6502-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4156,8 +4461,12 @@
       <c r="H60">
         <v>-7.3979999999999997</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>Juggernaut-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4182,8 +4491,12 @@
       <c r="H61">
         <v>-9.08</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>TX18OCS9104-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4208,8 +4521,12 @@
       <c r="H62">
         <v>-9.1129999999999995</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>LA17153SBSS-55-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4234,8 +4551,12 @@
       <c r="H63">
         <v>-9.9190000000000005</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>HORIZON201-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4259,6 +4580,10 @@
       </c>
       <c r="H64">
         <v>-10.347</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>PA7617-3658-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_201</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -4286,6 +4611,10 @@
       <c r="H65">
         <v>-11.117000000000001</v>
       </c>
+      <c r="I65" t="str">
+        <f t="shared" si="0"/>
+        <v>NF13-4214-4_1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_155</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -4312,6 +4641,10 @@
       <c r="H66">
         <v>-11.228</v>
       </c>
+      <c r="I66" t="str">
+        <f t="shared" si="0"/>
+        <v>NC20-4795-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_347</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -4338,6 +4671,10 @@
       <c r="H67">
         <v>-11.233000000000001</v>
       </c>
+      <c r="I67" t="str">
+        <f t="shared" ref="I67:I73" si="1">_xlfn.CONCAT(D67,"-",C67)</f>
+        <v>TX18OCS9100-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_72</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -4364,6 +4701,10 @@
       <c r="H68">
         <v>-12.036</v>
       </c>
+      <c r="I68" t="str">
+        <f t="shared" si="1"/>
+        <v>LA17129SBSS-8-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_313</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -4390,6 +4731,10 @@
       <c r="H69">
         <v>-12.747</v>
       </c>
+      <c r="I69" t="str">
+        <f t="shared" si="1"/>
+        <v>NF13-4083-4_6-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_346</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -4416,6 +4761,10 @@
       <c r="H70">
         <v>-13.243</v>
       </c>
+      <c r="I70" t="str">
+        <f t="shared" si="1"/>
+        <v>NF13-4124-4_3-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_349</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -4442,6 +4791,10 @@
       <c r="H71">
         <v>-14.093999999999999</v>
       </c>
+      <c r="I71" t="str">
+        <f t="shared" si="1"/>
+        <v>TX19CAS0058-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_93</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -4468,6 +4821,10 @@
       <c r="H72">
         <v>-14.295999999999999</v>
       </c>
+      <c r="I72" t="str">
+        <f t="shared" si="1"/>
+        <v>NC21-6576-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_85</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -4494,6 +4851,10 @@
       <c r="H73">
         <v>-14.571</v>
       </c>
+      <c r="I73" t="str">
+        <f t="shared" si="1"/>
+        <v>NF13-4173-4_4-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_370</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -4551,7 +4912,7 @@
         <v>146</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" ref="I75:I89" si="0">_xlfn.CONCAT(LEFT(C75,38),"-",D75,"-1")</f>
+        <f t="shared" ref="I75:I89" si="2">_xlfn.CONCAT(LEFT(C75,38),"-",D75,"-1")</f>
         <v>Cornell_WinterOatFounders_2024_Headrow-DOMACA_ZOB-1</v>
       </c>
     </row>
@@ -4581,7 +4942,7 @@
         <v>146</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Cornell_WinterOatFounders_2024_Headrow-AVE265_59-1</v>
       </c>
     </row>
@@ -4611,7 +4972,7 @@
         <v>146</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Cornell_WinterOatFounders_2024_Headrow-PI344827-1</v>
       </c>
     </row>
@@ -4641,7 +5002,7 @@
         <v>146</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Cornell_WinterOatFounders_2024_Headrow-PI365615-1</v>
       </c>
     </row>
@@ -4671,7 +5032,7 @@
         <v>146</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Cornell_WinterOatFounders_2024_Headrow-PI365616-1</v>
       </c>
     </row>
@@ -4701,7 +5062,7 @@
         <v>146</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Cornell_WinterOatFounders_2024_Headrow-PI365619-1</v>
       </c>
     </row>
@@ -4731,7 +5092,7 @@
         <v>146</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Cornell_WinterOatFounders_2024_Headrow-PI365621-1</v>
       </c>
     </row>
@@ -4761,7 +5122,7 @@
         <v>146</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Cornell_WinterOatFounders_2024_Headrow-PI365622-1</v>
       </c>
     </row>
@@ -4791,7 +5152,7 @@
         <v>146</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Cornell_WinterOatFounders_2024_Headrow-CAV2980-1</v>
       </c>
     </row>
@@ -4821,7 +5182,7 @@
         <v>146</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Cornell_WinterOatFounders_2024_Headrow-CAV3163-1</v>
       </c>
     </row>
@@ -4851,7 +5212,7 @@
         <v>146</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Cornell_WinterOatFounders_2024_Headrow-CAV3088-1</v>
       </c>
     </row>
@@ -4881,7 +5242,7 @@
         <v>146</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Cornell_WinterOatFounders_2024_Headrow-RADNORSHIRE_SPRIG|CIAV3219-1</v>
       </c>
     </row>
@@ -4911,7 +5272,7 @@
         <v>146</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Cornell_WinterOatFounders_2024_Headrow-KARCAGI-1</v>
       </c>
     </row>
@@ -4941,7 +5302,7 @@
         <v>146</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Cornell_WinterOatFounders_2024_Headrow-28C2-1</v>
       </c>
     </row>
@@ -4971,7 +5332,7 @@
         <v>146</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Cornell_WinterOatFounders_2024_Headrow-BLACK_MESDAG|PI93284-1</v>
       </c>
     </row>
@@ -5011,7 +5372,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5394,10 +5755,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269B16A1-9C4E-4BB3-9011-1E964FE6F144}">
-  <dimension ref="C2:AF24"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C2:CL24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C20"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AS33" sqref="AS33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5405,12 +5769,15 @@
     <col min="3" max="30" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:32" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:90" ht="25.5" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="4" spans="3:32" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="AG2" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="3:90" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C4" s="2"/>
       <c r="D4" s="3">
         <v>2</v>
@@ -5465,10 +5832,61 @@
       </c>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-    </row>
-    <row r="5" spans="3:32" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3">
+        <v>6</v>
+      </c>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3">
+        <v>8</v>
+      </c>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3">
+        <v>12</v>
+      </c>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="4">
+        <v>14</v>
+      </c>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4">
+        <v>16</v>
+      </c>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4">
+        <v>18</v>
+      </c>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4">
+        <v>20</v>
+      </c>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4">
+        <v>22</v>
+      </c>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4">
+        <v>24</v>
+      </c>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4">
+        <v>26</v>
+      </c>
+      <c r="BG4" s="4"/>
+    </row>
+    <row r="5" spans="3:90" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C5" s="2"/>
       <c r="D5" s="5" t="s">
         <v>178</v>
@@ -5523,1442 +5941,4031 @@
       </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="6"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="6"/>
-    </row>
-    <row r="7" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C7" s="14" t="s">
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BG5" s="4"/>
+    </row>
+    <row r="7" spans="3:90" ht="21" x14ac:dyDescent="0.35">
+      <c r="C7" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D7" s="15">
-        <f t="shared" ref="D7:AA7" si="0">D9+24</f>
+      <c r="D7" s="14">
         <v>168</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
+        <v>167</v>
+      </c>
+      <c r="F7" s="14">
+        <v>166</v>
+      </c>
+      <c r="G7" s="14">
+        <v>165</v>
+      </c>
+      <c r="H7" s="14">
+        <v>164</v>
+      </c>
+      <c r="I7" s="14">
+        <v>163</v>
+      </c>
+      <c r="J7" s="14">
+        <v>162</v>
+      </c>
+      <c r="K7" s="14">
+        <v>161</v>
+      </c>
+      <c r="L7" s="14">
+        <v>160</v>
+      </c>
+      <c r="M7" s="14">
+        <v>159</v>
+      </c>
+      <c r="N7" s="14">
+        <v>158</v>
+      </c>
+      <c r="O7" s="14">
+        <v>157</v>
+      </c>
+      <c r="P7" s="15">
+        <v>336</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>335</v>
+      </c>
+      <c r="R7" s="15">
+        <v>334</v>
+      </c>
+      <c r="S7" s="15">
+        <v>333</v>
+      </c>
+      <c r="T7" s="15">
+        <v>332</v>
+      </c>
+      <c r="U7" s="15">
+        <v>331</v>
+      </c>
+      <c r="V7" s="15">
+        <v>330</v>
+      </c>
+      <c r="W7" s="15">
+        <v>329</v>
+      </c>
+      <c r="X7" s="15">
+        <v>328</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>327</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>326</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>325</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>14</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG7" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH7" s="21">
+        <f t="shared" ref="AH7:BE7" si="0">AH9+24</f>
+        <v>168</v>
+      </c>
+      <c r="AI7" s="21">
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
-      <c r="F7" s="15">
+      <c r="AJ7" s="21">
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
-      <c r="G7" s="15">
+      <c r="AK7" s="21">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="H7" s="15">
+      <c r="AL7" s="21">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="I7" s="15">
+      <c r="AM7" s="21">
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-      <c r="J7" s="15">
+      <c r="AN7" s="21">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="K7" s="15">
+      <c r="AO7" s="21">
         <f t="shared" si="0"/>
         <v>161</v>
       </c>
-      <c r="L7" s="15">
+      <c r="AP7" s="21">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="M7" s="15">
+      <c r="AQ7" s="21">
         <f t="shared" si="0"/>
         <v>159</v>
       </c>
-      <c r="N7" s="15">
+      <c r="AR7" s="21">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="O7" s="15">
+      <c r="AS7" s="22">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="P7" s="16">
+      <c r="AT7" s="23">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="AU7" s="21">
         <f t="shared" si="0"/>
         <v>335</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="AV7" s="21">
         <f t="shared" si="0"/>
         <v>334</v>
       </c>
-      <c r="R7" s="16">
+      <c r="AW7" s="21">
         <f t="shared" si="0"/>
         <v>333</v>
       </c>
-      <c r="S7" s="16">
+      <c r="AX7" s="21">
         <f t="shared" si="0"/>
         <v>332</v>
       </c>
-      <c r="T7" s="16">
+      <c r="AY7" s="21">
         <f t="shared" si="0"/>
         <v>331</v>
       </c>
-      <c r="U7" s="16">
+      <c r="AZ7" s="21">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="V7" s="16">
+      <c r="BA7" s="21">
         <f t="shared" si="0"/>
         <v>329</v>
       </c>
-      <c r="W7" s="16">
+      <c r="BB7" s="21">
         <f t="shared" si="0"/>
         <v>328</v>
       </c>
-      <c r="X7" s="16">
+      <c r="BC7" s="21">
         <f t="shared" si="0"/>
         <v>327</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="BD7" s="21">
         <f t="shared" si="0"/>
         <v>326</v>
       </c>
-      <c r="Z7" s="16">
+      <c r="BE7" s="21">
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
-      <c r="AA7" s="16">
-        <f t="shared" si="0"/>
+      <c r="BF7" s="20">
+        <v>14</v>
+      </c>
+      <c r="BG7" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="BL7" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="BM7" s="21">
+        <f t="shared" ref="BM7:CJ7" si="1">BM9+24</f>
+        <v>168</v>
+      </c>
+      <c r="BN7" s="21">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="BO7" s="21">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="BP7" s="21">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="BQ7" s="21">
+        <f t="shared" si="1"/>
+        <v>164</v>
+      </c>
+      <c r="BR7" s="21">
+        <f t="shared" si="1"/>
+        <v>163</v>
+      </c>
+      <c r="BS7" s="21">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="BT7" s="21">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+      <c r="BU7" s="21">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="BV7" s="21">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="BW7" s="21">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="BX7" s="22">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
+      <c r="BY7" s="23">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="BZ7" s="21">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
+      <c r="CA7" s="21">
+        <f t="shared" si="1"/>
+        <v>334</v>
+      </c>
+      <c r="CB7" s="21">
+        <f t="shared" si="1"/>
+        <v>333</v>
+      </c>
+      <c r="CC7" s="21">
+        <f t="shared" si="1"/>
+        <v>332</v>
+      </c>
+      <c r="CD7" s="21">
+        <f t="shared" si="1"/>
+        <v>331</v>
+      </c>
+      <c r="CE7" s="21">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="CF7" s="21">
+        <f t="shared" si="1"/>
+        <v>329</v>
+      </c>
+      <c r="CG7" s="21">
+        <f t="shared" si="1"/>
+        <v>328</v>
+      </c>
+      <c r="CH7" s="21">
+        <f t="shared" si="1"/>
+        <v>327</v>
+      </c>
+      <c r="CI7" s="21">
+        <f t="shared" si="1"/>
+        <v>326</v>
+      </c>
+      <c r="CJ7" s="21">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="CK7" s="20">
+        <v>14</v>
+      </c>
+      <c r="CL7" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="3:90" ht="21" x14ac:dyDescent="0.35">
+      <c r="C8" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="14">
+        <v>145</v>
+      </c>
+      <c r="E8" s="14">
+        <v>146</v>
+      </c>
+      <c r="F8" s="14">
+        <v>147</v>
+      </c>
+      <c r="G8" s="14">
+        <v>148</v>
+      </c>
+      <c r="H8" s="14">
+        <v>149</v>
+      </c>
+      <c r="I8" s="14">
+        <v>150</v>
+      </c>
+      <c r="J8" s="14">
+        <v>151</v>
+      </c>
+      <c r="K8" s="14">
+        <v>152</v>
+      </c>
+      <c r="L8" s="14">
+        <v>153</v>
+      </c>
+      <c r="M8" s="14">
+        <v>154</v>
+      </c>
+      <c r="N8" s="14">
+        <v>155</v>
+      </c>
+      <c r="O8" s="14">
+        <v>156</v>
+      </c>
+      <c r="P8" s="15">
+        <v>313</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>314</v>
+      </c>
+      <c r="R8" s="15">
+        <v>315</v>
+      </c>
+      <c r="S8" s="15">
+        <v>316</v>
+      </c>
+      <c r="T8" s="15">
+        <v>317</v>
+      </c>
+      <c r="U8" s="15">
+        <v>318</v>
+      </c>
+      <c r="V8" s="15">
+        <v>319</v>
+      </c>
+      <c r="W8" s="15">
+        <v>320</v>
+      </c>
+      <c r="X8" s="15">
+        <v>321</v>
+      </c>
+      <c r="Y8" s="15">
+        <v>322</v>
+      </c>
+      <c r="Z8" s="15">
+        <v>323</v>
+      </c>
+      <c r="AA8" s="15">
         <v>324</v>
       </c>
-      <c r="AB7" s="17">
+      <c r="AB8" s="16">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG8" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH8" s="21">
+        <f t="shared" ref="AH8:BE8" si="2">AH10+24</f>
+        <v>145</v>
+      </c>
+      <c r="AI8" s="21">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="AJ8" s="21">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="AK8" s="21">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="AL8" s="21">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="AM8" s="21">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="AN8" s="21">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="AO8" s="21">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="AP8" s="21">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="AQ8" s="21">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="AR8" s="21">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="AS8" s="22">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="AT8" s="23">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="AU8" s="21">
+        <f t="shared" si="2"/>
+        <v>314</v>
+      </c>
+      <c r="AV8" s="21">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="AW8" s="21">
+        <f t="shared" si="2"/>
+        <v>316</v>
+      </c>
+      <c r="AX8" s="21">
+        <f t="shared" si="2"/>
+        <v>317</v>
+      </c>
+      <c r="AY8" s="21">
+        <f t="shared" si="2"/>
+        <v>318</v>
+      </c>
+      <c r="AZ8" s="21">
+        <f t="shared" si="2"/>
+        <v>319</v>
+      </c>
+      <c r="BA8" s="21">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="BB8" s="21">
+        <f t="shared" si="2"/>
+        <v>321</v>
+      </c>
+      <c r="BC8" s="21">
+        <f t="shared" si="2"/>
+        <v>322</v>
+      </c>
+      <c r="BD8" s="21">
+        <f t="shared" si="2"/>
+        <v>323</v>
+      </c>
+      <c r="BE8" s="21">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="BF8" s="20">
+        <v>13</v>
+      </c>
+      <c r="BG8" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="BL8" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="BM8" s="21">
+        <f t="shared" ref="BM8:CJ8" si="3">BM10+24</f>
+        <v>145</v>
+      </c>
+      <c r="BN8" s="21">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+      <c r="BO8" s="21">
+        <f t="shared" si="3"/>
+        <v>147</v>
+      </c>
+      <c r="BP8" s="21">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+      <c r="BQ8" s="21">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="BR8" s="21">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="BS8" s="21">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="BT8" s="21">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="BU8" s="21">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+      <c r="BV8" s="21">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="BW8" s="21">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="BX8" s="22">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+      <c r="BY8" s="23">
+        <f t="shared" si="3"/>
+        <v>313</v>
+      </c>
+      <c r="BZ8" s="21">
+        <f t="shared" si="3"/>
+        <v>314</v>
+      </c>
+      <c r="CA8" s="21">
+        <f t="shared" si="3"/>
+        <v>315</v>
+      </c>
+      <c r="CB8" s="21">
+        <f t="shared" si="3"/>
+        <v>316</v>
+      </c>
+      <c r="CC8" s="21">
+        <f t="shared" si="3"/>
+        <v>317</v>
+      </c>
+      <c r="CD8" s="21">
+        <f t="shared" si="3"/>
+        <v>318</v>
+      </c>
+      <c r="CE8" s="21">
+        <f t="shared" si="3"/>
+        <v>319</v>
+      </c>
+      <c r="CF8" s="21">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="CG8" s="21">
+        <f t="shared" si="3"/>
+        <v>321</v>
+      </c>
+      <c r="CH8" s="21">
+        <f t="shared" si="3"/>
+        <v>322</v>
+      </c>
+      <c r="CI8" s="21">
+        <f t="shared" si="3"/>
+        <v>323</v>
+      </c>
+      <c r="CJ8" s="21">
+        <f t="shared" si="3"/>
+        <v>324</v>
+      </c>
+      <c r="CK8" s="20">
+        <v>13</v>
+      </c>
+      <c r="CL8" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="3:90" ht="21" x14ac:dyDescent="0.35">
+      <c r="C9" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="14">
+        <v>144</v>
+      </c>
+      <c r="E9" s="14">
+        <v>143</v>
+      </c>
+      <c r="F9" s="14">
+        <v>142</v>
+      </c>
+      <c r="G9" s="14">
+        <v>141</v>
+      </c>
+      <c r="H9" s="14">
+        <v>140</v>
+      </c>
+      <c r="I9" s="14">
+        <v>139</v>
+      </c>
+      <c r="J9" s="14">
+        <v>138</v>
+      </c>
+      <c r="K9" s="14">
+        <v>137</v>
+      </c>
+      <c r="L9" s="14">
+        <v>136</v>
+      </c>
+      <c r="M9" s="14">
+        <v>135</v>
+      </c>
+      <c r="N9" s="14">
+        <v>134</v>
+      </c>
+      <c r="O9" s="14">
+        <v>133</v>
+      </c>
+      <c r="P9" s="15">
+        <v>312</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>311</v>
+      </c>
+      <c r="R9" s="15">
+        <v>310</v>
+      </c>
+      <c r="S9" s="15">
+        <v>309</v>
+      </c>
+      <c r="T9" s="15">
+        <v>308</v>
+      </c>
+      <c r="U9" s="15">
+        <v>307</v>
+      </c>
+      <c r="V9" s="15">
+        <v>306</v>
+      </c>
+      <c r="W9" s="15">
+        <v>305</v>
+      </c>
+      <c r="X9" s="15">
+        <v>304</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>303</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>302</v>
+      </c>
+      <c r="AA9" s="15">
+        <v>301</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>12</v>
+      </c>
+      <c r="AC9" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG9" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH9" s="21">
+        <f t="shared" ref="AH9:BE9" si="4">AH11+24</f>
+        <v>144</v>
+      </c>
+      <c r="AI9" s="21">
+        <f t="shared" si="4"/>
+        <v>143</v>
+      </c>
+      <c r="AJ9" s="21">
+        <f t="shared" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="AK9" s="21">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="AL9" s="21">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="AM9" s="21">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="AN9" s="21">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="AO9" s="21">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="AP9" s="21">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="AQ9" s="21">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="AR9" s="21">
+        <f t="shared" si="4"/>
+        <v>134</v>
+      </c>
+      <c r="AS9" s="22">
+        <f t="shared" si="4"/>
+        <v>133</v>
+      </c>
+      <c r="AT9" s="23">
+        <f t="shared" si="4"/>
+        <v>312</v>
+      </c>
+      <c r="AU9" s="21">
+        <f t="shared" si="4"/>
+        <v>311</v>
+      </c>
+      <c r="AV9" s="21">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="AW9" s="21">
+        <f t="shared" si="4"/>
+        <v>309</v>
+      </c>
+      <c r="AX9" s="21">
+        <f t="shared" si="4"/>
+        <v>308</v>
+      </c>
+      <c r="AY9" s="21">
+        <f t="shared" si="4"/>
+        <v>307</v>
+      </c>
+      <c r="AZ9" s="21">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="BA9" s="21">
+        <f t="shared" si="4"/>
+        <v>305</v>
+      </c>
+      <c r="BB9" s="21">
+        <f t="shared" si="4"/>
+        <v>304</v>
+      </c>
+      <c r="BC9" s="21">
+        <f t="shared" si="4"/>
+        <v>303</v>
+      </c>
+      <c r="BD9" s="21">
+        <f t="shared" si="4"/>
+        <v>302</v>
+      </c>
+      <c r="BE9" s="21">
+        <f t="shared" si="4"/>
+        <v>301</v>
+      </c>
+      <c r="BF9" s="20">
+        <v>12</v>
+      </c>
+      <c r="BG9" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL9" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="BM9" s="21">
+        <f t="shared" ref="BM9:CJ9" si="5">BM11+24</f>
+        <v>144</v>
+      </c>
+      <c r="BN9" s="21">
+        <f t="shared" si="5"/>
+        <v>143</v>
+      </c>
+      <c r="BO9" s="21">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="BP9" s="21">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="BQ9" s="21">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="BR9" s="21">
+        <f t="shared" si="5"/>
+        <v>139</v>
+      </c>
+      <c r="BS9" s="21">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+      <c r="BT9" s="21">
+        <f t="shared" si="5"/>
+        <v>137</v>
+      </c>
+      <c r="BU9" s="21">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+      <c r="BV9" s="21">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="BW9" s="21">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+      <c r="BX9" s="22">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+      <c r="BY9" s="23">
+        <f t="shared" si="5"/>
+        <v>312</v>
+      </c>
+      <c r="BZ9" s="21">
+        <f t="shared" si="5"/>
+        <v>311</v>
+      </c>
+      <c r="CA9" s="21">
+        <f t="shared" si="5"/>
+        <v>310</v>
+      </c>
+      <c r="CB9" s="21">
+        <f t="shared" si="5"/>
+        <v>309</v>
+      </c>
+      <c r="CC9" s="21">
+        <f t="shared" si="5"/>
+        <v>308</v>
+      </c>
+      <c r="CD9" s="21">
+        <f t="shared" si="5"/>
+        <v>307</v>
+      </c>
+      <c r="CE9" s="21">
+        <f t="shared" si="5"/>
+        <v>306</v>
+      </c>
+      <c r="CF9" s="21">
+        <f t="shared" si="5"/>
+        <v>305</v>
+      </c>
+      <c r="CG9" s="21">
+        <f t="shared" si="5"/>
+        <v>304</v>
+      </c>
+      <c r="CH9" s="21">
+        <f t="shared" si="5"/>
+        <v>303</v>
+      </c>
+      <c r="CI9" s="21">
+        <f t="shared" si="5"/>
+        <v>302</v>
+      </c>
+      <c r="CJ9" s="21">
+        <f t="shared" si="5"/>
+        <v>301</v>
+      </c>
+      <c r="CK9" s="20">
+        <v>12</v>
+      </c>
+      <c r="CL9" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="3:90" ht="21" x14ac:dyDescent="0.35">
+      <c r="C10" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="17">
+        <v>121</v>
+      </c>
+      <c r="E10" s="17">
+        <v>122</v>
+      </c>
+      <c r="F10" s="17">
+        <v>123</v>
+      </c>
+      <c r="G10" s="17">
+        <v>124</v>
+      </c>
+      <c r="H10" s="17">
+        <v>125</v>
+      </c>
+      <c r="I10" s="17">
+        <v>126</v>
+      </c>
+      <c r="J10" s="14">
+        <v>127</v>
+      </c>
+      <c r="K10" s="14">
+        <v>128</v>
+      </c>
+      <c r="L10" s="14">
+        <v>129</v>
+      </c>
+      <c r="M10" s="14">
+        <v>130</v>
+      </c>
+      <c r="N10" s="14">
+        <v>131</v>
+      </c>
+      <c r="O10" s="14">
+        <v>132</v>
+      </c>
+      <c r="P10" s="18">
+        <v>289</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>290</v>
+      </c>
+      <c r="R10" s="18">
+        <v>291</v>
+      </c>
+      <c r="S10" s="18">
+        <v>292</v>
+      </c>
+      <c r="T10" s="18">
+        <v>293</v>
+      </c>
+      <c r="U10" s="18">
+        <v>294</v>
+      </c>
+      <c r="V10" s="15">
+        <v>295</v>
+      </c>
+      <c r="W10" s="15">
+        <v>296</v>
+      </c>
+      <c r="X10" s="15">
+        <v>297</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>298</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>299</v>
+      </c>
+      <c r="AA10" s="15">
+        <v>300</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>11</v>
+      </c>
+      <c r="AC10" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG10" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH10" s="21">
+        <f t="shared" ref="AH10:BE10" si="6">AH12+24</f>
+        <v>121</v>
+      </c>
+      <c r="AI10" s="21">
+        <f t="shared" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="AJ10" s="21">
+        <f t="shared" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="AK10" s="21">
+        <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="AL10" s="21">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="AM10" s="21">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="AN10" s="21">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="AO10" s="21">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="AP10" s="21">
+        <f t="shared" si="6"/>
+        <v>129</v>
+      </c>
+      <c r="AQ10" s="21">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="AR10" s="21">
+        <f t="shared" si="6"/>
+        <v>131</v>
+      </c>
+      <c r="AS10" s="22">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="AT10" s="23">
+        <f t="shared" si="6"/>
+        <v>289</v>
+      </c>
+      <c r="AU10" s="21">
+        <f t="shared" si="6"/>
+        <v>290</v>
+      </c>
+      <c r="AV10" s="21">
+        <f t="shared" si="6"/>
+        <v>291</v>
+      </c>
+      <c r="AW10" s="21">
+        <f t="shared" si="6"/>
+        <v>292</v>
+      </c>
+      <c r="AX10" s="21">
+        <f t="shared" si="6"/>
+        <v>293</v>
+      </c>
+      <c r="AY10" s="21">
+        <f t="shared" si="6"/>
+        <v>294</v>
+      </c>
+      <c r="AZ10" s="21">
+        <f t="shared" si="6"/>
+        <v>295</v>
+      </c>
+      <c r="BA10" s="21">
+        <f t="shared" si="6"/>
+        <v>296</v>
+      </c>
+      <c r="BB10" s="21">
+        <f t="shared" si="6"/>
+        <v>297</v>
+      </c>
+      <c r="BC10" s="21">
+        <f t="shared" si="6"/>
+        <v>298</v>
+      </c>
+      <c r="BD10" s="21">
+        <f t="shared" si="6"/>
+        <v>299</v>
+      </c>
+      <c r="BE10" s="21">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="BF10" s="20">
+        <v>11</v>
+      </c>
+      <c r="BG10" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="BL10" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="BM10" s="21">
+        <f t="shared" ref="BM10:CJ10" si="7">BM12+24</f>
+        <v>121</v>
+      </c>
+      <c r="BN10" s="21">
+        <f t="shared" si="7"/>
+        <v>122</v>
+      </c>
+      <c r="BO10" s="21">
+        <f t="shared" si="7"/>
+        <v>123</v>
+      </c>
+      <c r="BP10" s="21">
+        <f t="shared" si="7"/>
+        <v>124</v>
+      </c>
+      <c r="BQ10" s="21">
+        <f t="shared" si="7"/>
+        <v>125</v>
+      </c>
+      <c r="BR10" s="21">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="BS10" s="21">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="BT10" s="21">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="BU10" s="21">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+      <c r="BV10" s="21">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="BW10" s="21">
+        <f t="shared" si="7"/>
+        <v>131</v>
+      </c>
+      <c r="BX10" s="22">
+        <f t="shared" si="7"/>
+        <v>132</v>
+      </c>
+      <c r="BY10" s="23">
+        <f t="shared" si="7"/>
+        <v>289</v>
+      </c>
+      <c r="BZ10" s="21">
+        <f t="shared" si="7"/>
+        <v>290</v>
+      </c>
+      <c r="CA10" s="21">
+        <f t="shared" si="7"/>
+        <v>291</v>
+      </c>
+      <c r="CB10" s="21">
+        <f t="shared" si="7"/>
+        <v>292</v>
+      </c>
+      <c r="CC10" s="21">
+        <f t="shared" si="7"/>
+        <v>293</v>
+      </c>
+      <c r="CD10" s="21">
+        <f t="shared" si="7"/>
+        <v>294</v>
+      </c>
+      <c r="CE10" s="21">
+        <f t="shared" si="7"/>
+        <v>295</v>
+      </c>
+      <c r="CF10" s="21">
+        <f t="shared" si="7"/>
+        <v>296</v>
+      </c>
+      <c r="CG10" s="21">
+        <f t="shared" si="7"/>
+        <v>297</v>
+      </c>
+      <c r="CH10" s="21">
+        <f t="shared" si="7"/>
+        <v>298</v>
+      </c>
+      <c r="CI10" s="21">
+        <f t="shared" si="7"/>
+        <v>299</v>
+      </c>
+      <c r="CJ10" s="21">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="CK10" s="20">
+        <v>11</v>
+      </c>
+      <c r="CL10" s="19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="3:90" ht="21" x14ac:dyDescent="0.35">
+      <c r="C11" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="17">
+        <v>120</v>
+      </c>
+      <c r="E11" s="17">
+        <v>119</v>
+      </c>
+      <c r="F11" s="17">
+        <v>118</v>
+      </c>
+      <c r="G11" s="17">
+        <v>117</v>
+      </c>
+      <c r="H11" s="17">
+        <v>116</v>
+      </c>
+      <c r="I11" s="17">
+        <v>115</v>
+      </c>
+      <c r="J11" s="17">
+        <v>114</v>
+      </c>
+      <c r="K11" s="17">
+        <v>113</v>
+      </c>
+      <c r="L11" s="17">
+        <v>112</v>
+      </c>
+      <c r="M11" s="17">
+        <v>111</v>
+      </c>
+      <c r="N11" s="17">
+        <v>110</v>
+      </c>
+      <c r="O11" s="17">
+        <v>109</v>
+      </c>
+      <c r="P11" s="18">
+        <v>288</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>287</v>
+      </c>
+      <c r="R11" s="18">
+        <v>286</v>
+      </c>
+      <c r="S11" s="18">
+        <v>285</v>
+      </c>
+      <c r="T11" s="18">
+        <v>284</v>
+      </c>
+      <c r="U11" s="18">
+        <v>283</v>
+      </c>
+      <c r="V11" s="18">
+        <v>282</v>
+      </c>
+      <c r="W11" s="18">
+        <v>281</v>
+      </c>
+      <c r="X11" s="18">
+        <v>280</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>279</v>
+      </c>
+      <c r="Z11" s="18">
+        <v>278</v>
+      </c>
+      <c r="AA11" s="18">
+        <v>277</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="AG11" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH11" s="21">
+        <f t="shared" ref="AH11:BE11" si="8">AH13+24</f>
+        <v>120</v>
+      </c>
+      <c r="AI11" s="21">
+        <f t="shared" si="8"/>
+        <v>119</v>
+      </c>
+      <c r="AJ11" s="21">
+        <f t="shared" si="8"/>
+        <v>118</v>
+      </c>
+      <c r="AK11" s="21">
+        <f t="shared" si="8"/>
+        <v>117</v>
+      </c>
+      <c r="AL11" s="21">
+        <f t="shared" si="8"/>
+        <v>116</v>
+      </c>
+      <c r="AM11" s="21">
+        <f t="shared" si="8"/>
+        <v>115</v>
+      </c>
+      <c r="AN11" s="21">
+        <f t="shared" si="8"/>
+        <v>114</v>
+      </c>
+      <c r="AO11" s="21">
+        <f t="shared" si="8"/>
+        <v>113</v>
+      </c>
+      <c r="AP11" s="21">
+        <f t="shared" si="8"/>
+        <v>112</v>
+      </c>
+      <c r="AQ11" s="21">
+        <f t="shared" si="8"/>
+        <v>111</v>
+      </c>
+      <c r="AR11" s="21">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
+      <c r="AS11" s="22">
+        <f t="shared" si="8"/>
+        <v>109</v>
+      </c>
+      <c r="AT11" s="23">
+        <f t="shared" si="8"/>
+        <v>288</v>
+      </c>
+      <c r="AU11" s="21">
+        <f t="shared" si="8"/>
+        <v>287</v>
+      </c>
+      <c r="AV11" s="21">
+        <f t="shared" si="8"/>
+        <v>286</v>
+      </c>
+      <c r="AW11" s="21">
+        <f t="shared" si="8"/>
+        <v>285</v>
+      </c>
+      <c r="AX11" s="21">
+        <f t="shared" si="8"/>
+        <v>284</v>
+      </c>
+      <c r="AY11" s="21">
+        <f t="shared" si="8"/>
+        <v>283</v>
+      </c>
+      <c r="AZ11" s="21">
+        <f t="shared" si="8"/>
+        <v>282</v>
+      </c>
+      <c r="BA11" s="21">
+        <f t="shared" si="8"/>
+        <v>281</v>
+      </c>
+      <c r="BB11" s="21">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="BC11" s="21">
+        <f t="shared" si="8"/>
+        <v>279</v>
+      </c>
+      <c r="BD11" s="21">
+        <f t="shared" si="8"/>
+        <v>278</v>
+      </c>
+      <c r="BE11" s="21">
+        <f t="shared" si="8"/>
+        <v>277</v>
+      </c>
+      <c r="BF11" s="20">
+        <v>10</v>
+      </c>
+      <c r="BG11" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="BL11" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="BM11" s="21">
+        <f t="shared" ref="BM11:CJ11" si="9">BM13+24</f>
+        <v>120</v>
+      </c>
+      <c r="BN11" s="21">
+        <f t="shared" si="9"/>
+        <v>119</v>
+      </c>
+      <c r="BO11" s="21">
+        <f t="shared" si="9"/>
+        <v>118</v>
+      </c>
+      <c r="BP11" s="21">
+        <f t="shared" si="9"/>
+        <v>117</v>
+      </c>
+      <c r="BQ11" s="21">
+        <f t="shared" si="9"/>
+        <v>116</v>
+      </c>
+      <c r="BR11" s="21">
+        <f t="shared" si="9"/>
+        <v>115</v>
+      </c>
+      <c r="BS11" s="21">
+        <f t="shared" si="9"/>
+        <v>114</v>
+      </c>
+      <c r="BT11" s="21">
+        <f t="shared" si="9"/>
+        <v>113</v>
+      </c>
+      <c r="BU11" s="21">
+        <f t="shared" si="9"/>
+        <v>112</v>
+      </c>
+      <c r="BV11" s="21">
+        <f t="shared" si="9"/>
+        <v>111</v>
+      </c>
+      <c r="BW11" s="21">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="BX11" s="22">
+        <f t="shared" si="9"/>
+        <v>109</v>
+      </c>
+      <c r="BY11" s="23">
+        <f t="shared" si="9"/>
+        <v>288</v>
+      </c>
+      <c r="BZ11" s="21">
+        <f t="shared" si="9"/>
+        <v>287</v>
+      </c>
+      <c r="CA11" s="21">
+        <f t="shared" si="9"/>
+        <v>286</v>
+      </c>
+      <c r="CB11" s="21">
+        <f t="shared" si="9"/>
+        <v>285</v>
+      </c>
+      <c r="CC11" s="21">
+        <f t="shared" si="9"/>
+        <v>284</v>
+      </c>
+      <c r="CD11" s="21">
+        <f t="shared" si="9"/>
+        <v>283</v>
+      </c>
+      <c r="CE11" s="21">
+        <f t="shared" si="9"/>
+        <v>282</v>
+      </c>
+      <c r="CF11" s="21">
+        <f t="shared" si="9"/>
+        <v>281</v>
+      </c>
+      <c r="CG11" s="21">
+        <f t="shared" si="9"/>
+        <v>280</v>
+      </c>
+      <c r="CH11" s="21">
+        <f t="shared" si="9"/>
+        <v>279</v>
+      </c>
+      <c r="CI11" s="21">
+        <f t="shared" si="9"/>
+        <v>278</v>
+      </c>
+      <c r="CJ11" s="21">
+        <f t="shared" si="9"/>
+        <v>277</v>
+      </c>
+      <c r="CK11" s="20">
+        <v>10</v>
+      </c>
+      <c r="CL11" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="3:90" ht="21" x14ac:dyDescent="0.35">
+      <c r="C12" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="17">
+        <v>97</v>
+      </c>
+      <c r="E12" s="17">
+        <v>98</v>
+      </c>
+      <c r="F12" s="17">
+        <v>99</v>
+      </c>
+      <c r="G12" s="17">
+        <v>100</v>
+      </c>
+      <c r="H12" s="17">
+        <v>101</v>
+      </c>
+      <c r="I12" s="17">
+        <v>102</v>
+      </c>
+      <c r="J12" s="17">
+        <v>103</v>
+      </c>
+      <c r="K12" s="17">
+        <v>104</v>
+      </c>
+      <c r="L12" s="17">
+        <v>105</v>
+      </c>
+      <c r="M12" s="17">
+        <v>106</v>
+      </c>
+      <c r="N12" s="17">
+        <v>107</v>
+      </c>
+      <c r="O12" s="17">
+        <v>108</v>
+      </c>
+      <c r="P12" s="18">
+        <v>265</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>266</v>
+      </c>
+      <c r="R12" s="18">
+        <v>267</v>
+      </c>
+      <c r="S12" s="18">
+        <v>268</v>
+      </c>
+      <c r="T12" s="18">
+        <v>269</v>
+      </c>
+      <c r="U12" s="18">
+        <v>270</v>
+      </c>
+      <c r="V12" s="18">
+        <v>271</v>
+      </c>
+      <c r="W12" s="18">
+        <v>272</v>
+      </c>
+      <c r="X12" s="18">
+        <v>273</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>274</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>275</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>276</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="AG12" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH12" s="21">
+        <f t="shared" ref="AH12:BE12" si="10">AH14+24</f>
+        <v>97</v>
+      </c>
+      <c r="AI12" s="21">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="AJ12" s="21">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="AK12" s="21">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="AL12" s="21">
+        <f t="shared" si="10"/>
+        <v>101</v>
+      </c>
+      <c r="AM12" s="21">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+      <c r="AN12" s="21">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="AO12" s="21">
+        <f t="shared" si="10"/>
+        <v>104</v>
+      </c>
+      <c r="AP12" s="21">
+        <f t="shared" si="10"/>
+        <v>105</v>
+      </c>
+      <c r="AQ12" s="21">
+        <f t="shared" si="10"/>
+        <v>106</v>
+      </c>
+      <c r="AR12" s="21">
+        <f t="shared" si="10"/>
+        <v>107</v>
+      </c>
+      <c r="AS12" s="22">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+      <c r="AT12" s="23">
+        <f t="shared" si="10"/>
+        <v>265</v>
+      </c>
+      <c r="AU12" s="21">
+        <f t="shared" si="10"/>
+        <v>266</v>
+      </c>
+      <c r="AV12" s="21">
+        <f t="shared" si="10"/>
+        <v>267</v>
+      </c>
+      <c r="AW12" s="21">
+        <f t="shared" si="10"/>
+        <v>268</v>
+      </c>
+      <c r="AX12" s="21">
+        <f t="shared" si="10"/>
+        <v>269</v>
+      </c>
+      <c r="AY12" s="21">
+        <f t="shared" si="10"/>
+        <v>270</v>
+      </c>
+      <c r="AZ12" s="21">
+        <f t="shared" si="10"/>
+        <v>271</v>
+      </c>
+      <c r="BA12" s="21">
+        <f t="shared" si="10"/>
+        <v>272</v>
+      </c>
+      <c r="BB12" s="21">
+        <f t="shared" si="10"/>
+        <v>273</v>
+      </c>
+      <c r="BC12" s="21">
+        <f t="shared" si="10"/>
+        <v>274</v>
+      </c>
+      <c r="BD12" s="21">
+        <f t="shared" si="10"/>
+        <v>275</v>
+      </c>
+      <c r="BE12" s="21">
+        <f t="shared" si="10"/>
+        <v>276</v>
+      </c>
+      <c r="BF12" s="20">
+        <v>9</v>
+      </c>
+      <c r="BG12" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="BL12" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM12" s="21">
+        <f t="shared" ref="BM12:CJ12" si="11">BM14+24</f>
+        <v>97</v>
+      </c>
+      <c r="BN12" s="21">
+        <f t="shared" si="11"/>
+        <v>98</v>
+      </c>
+      <c r="BO12" s="21">
+        <f t="shared" si="11"/>
+        <v>99</v>
+      </c>
+      <c r="BP12" s="21">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="BQ12" s="21">
+        <f t="shared" si="11"/>
+        <v>101</v>
+      </c>
+      <c r="BR12" s="21">
+        <f t="shared" si="11"/>
+        <v>102</v>
+      </c>
+      <c r="BS12" s="21">
+        <f t="shared" si="11"/>
+        <v>103</v>
+      </c>
+      <c r="BT12" s="21">
+        <f t="shared" si="11"/>
+        <v>104</v>
+      </c>
+      <c r="BU12" s="21">
+        <f t="shared" si="11"/>
+        <v>105</v>
+      </c>
+      <c r="BV12" s="21">
+        <f t="shared" si="11"/>
+        <v>106</v>
+      </c>
+      <c r="BW12" s="21">
+        <f t="shared" si="11"/>
+        <v>107</v>
+      </c>
+      <c r="BX12" s="22">
+        <f t="shared" si="11"/>
+        <v>108</v>
+      </c>
+      <c r="BY12" s="23">
+        <f t="shared" si="11"/>
+        <v>265</v>
+      </c>
+      <c r="BZ12" s="21">
+        <f t="shared" si="11"/>
+        <v>266</v>
+      </c>
+      <c r="CA12" s="21">
+        <f t="shared" si="11"/>
+        <v>267</v>
+      </c>
+      <c r="CB12" s="21">
+        <f t="shared" si="11"/>
+        <v>268</v>
+      </c>
+      <c r="CC12" s="21">
+        <f t="shared" si="11"/>
+        <v>269</v>
+      </c>
+      <c r="CD12" s="21">
+        <f t="shared" si="11"/>
+        <v>270</v>
+      </c>
+      <c r="CE12" s="21">
+        <f t="shared" si="11"/>
+        <v>271</v>
+      </c>
+      <c r="CF12" s="21">
+        <f t="shared" si="11"/>
+        <v>272</v>
+      </c>
+      <c r="CG12" s="21">
+        <f t="shared" si="11"/>
+        <v>273</v>
+      </c>
+      <c r="CH12" s="21">
+        <f t="shared" si="11"/>
+        <v>274</v>
+      </c>
+      <c r="CI12" s="21">
+        <f t="shared" si="11"/>
+        <v>275</v>
+      </c>
+      <c r="CJ12" s="21">
+        <f t="shared" si="11"/>
+        <v>276</v>
+      </c>
+      <c r="CK12" s="20">
+        <v>9</v>
+      </c>
+      <c r="CL12" s="19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="3:90" ht="21" x14ac:dyDescent="0.35">
+      <c r="C13" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="17">
+        <v>96</v>
+      </c>
+      <c r="E13" s="17">
+        <v>95</v>
+      </c>
+      <c r="F13" s="17">
+        <v>94</v>
+      </c>
+      <c r="G13" s="17">
+        <v>93</v>
+      </c>
+      <c r="H13" s="17">
+        <v>92</v>
+      </c>
+      <c r="I13" s="17">
+        <v>91</v>
+      </c>
+      <c r="J13" s="17">
+        <v>90</v>
+      </c>
+      <c r="K13" s="17">
+        <v>89</v>
+      </c>
+      <c r="L13" s="17">
+        <v>88</v>
+      </c>
+      <c r="M13" s="17">
+        <v>87</v>
+      </c>
+      <c r="N13" s="17">
+        <v>86</v>
+      </c>
+      <c r="O13" s="17">
+        <v>85</v>
+      </c>
+      <c r="P13" s="18">
+        <v>264</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>263</v>
+      </c>
+      <c r="R13" s="18">
+        <v>262</v>
+      </c>
+      <c r="S13" s="18">
+        <v>261</v>
+      </c>
+      <c r="T13" s="18">
+        <v>260</v>
+      </c>
+      <c r="U13" s="18">
+        <v>259</v>
+      </c>
+      <c r="V13" s="18">
+        <v>258</v>
+      </c>
+      <c r="W13" s="18">
+        <v>257</v>
+      </c>
+      <c r="X13" s="18">
+        <v>256</v>
+      </c>
+      <c r="Y13" s="18">
+        <v>255</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>254</v>
+      </c>
+      <c r="AA13" s="18">
+        <v>253</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>8</v>
+      </c>
+      <c r="AC13" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG13" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH13" s="21">
+        <f>AH15+24</f>
+        <v>96</v>
+      </c>
+      <c r="AI13" s="21">
+        <f t="shared" ref="AI13:BE13" si="12">AI15+24</f>
+        <v>95</v>
+      </c>
+      <c r="AJ13" s="21">
+        <f t="shared" si="12"/>
+        <v>94</v>
+      </c>
+      <c r="AK13" s="21">
+        <f t="shared" si="12"/>
+        <v>93</v>
+      </c>
+      <c r="AL13" s="21">
+        <f t="shared" si="12"/>
+        <v>92</v>
+      </c>
+      <c r="AM13" s="21">
+        <f t="shared" si="12"/>
+        <v>91</v>
+      </c>
+      <c r="AN13" s="21">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="AO13" s="21">
+        <f t="shared" si="12"/>
+        <v>89</v>
+      </c>
+      <c r="AP13" s="21">
+        <f t="shared" si="12"/>
+        <v>88</v>
+      </c>
+      <c r="AQ13" s="21">
+        <f t="shared" si="12"/>
+        <v>87</v>
+      </c>
+      <c r="AR13" s="21">
+        <f t="shared" si="12"/>
+        <v>86</v>
+      </c>
+      <c r="AS13" s="22">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="AT13" s="23">
+        <f t="shared" si="12"/>
+        <v>264</v>
+      </c>
+      <c r="AU13" s="21">
+        <f t="shared" si="12"/>
+        <v>263</v>
+      </c>
+      <c r="AV13" s="21">
+        <f t="shared" si="12"/>
+        <v>262</v>
+      </c>
+      <c r="AW13" s="21">
+        <f t="shared" si="12"/>
+        <v>261</v>
+      </c>
+      <c r="AX13" s="21">
+        <f t="shared" si="12"/>
+        <v>260</v>
+      </c>
+      <c r="AY13" s="21">
+        <f t="shared" si="12"/>
+        <v>259</v>
+      </c>
+      <c r="AZ13" s="21">
+        <f t="shared" si="12"/>
+        <v>258</v>
+      </c>
+      <c r="BA13" s="21">
+        <f t="shared" si="12"/>
+        <v>257</v>
+      </c>
+      <c r="BB13" s="21">
+        <f t="shared" si="12"/>
+        <v>256</v>
+      </c>
+      <c r="BC13" s="21">
+        <f t="shared" si="12"/>
+        <v>255</v>
+      </c>
+      <c r="BD13" s="21">
+        <f t="shared" si="12"/>
+        <v>254</v>
+      </c>
+      <c r="BE13" s="21">
+        <f t="shared" si="12"/>
+        <v>253</v>
+      </c>
+      <c r="BF13" s="20">
+        <v>8</v>
+      </c>
+      <c r="BG13" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="BL13" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="BM13" s="21">
+        <f>BM15+24</f>
+        <v>96</v>
+      </c>
+      <c r="BN13" s="21">
+        <f t="shared" ref="BN13:CJ13" si="13">BN15+24</f>
+        <v>95</v>
+      </c>
+      <c r="BO13" s="21">
+        <f t="shared" si="13"/>
+        <v>94</v>
+      </c>
+      <c r="BP13" s="21">
+        <f t="shared" si="13"/>
+        <v>93</v>
+      </c>
+      <c r="BQ13" s="21">
+        <f t="shared" si="13"/>
+        <v>92</v>
+      </c>
+      <c r="BR13" s="21">
+        <f t="shared" si="13"/>
+        <v>91</v>
+      </c>
+      <c r="BS13" s="21">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="BT13" s="21">
+        <f t="shared" si="13"/>
+        <v>89</v>
+      </c>
+      <c r="BU13" s="21">
+        <f t="shared" si="13"/>
+        <v>88</v>
+      </c>
+      <c r="BV13" s="21">
+        <f t="shared" si="13"/>
+        <v>87</v>
+      </c>
+      <c r="BW13" s="21">
+        <f t="shared" si="13"/>
+        <v>86</v>
+      </c>
+      <c r="BX13" s="22">
+        <f t="shared" si="13"/>
+        <v>85</v>
+      </c>
+      <c r="BY13" s="23">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+      <c r="BZ13" s="21">
+        <f t="shared" si="13"/>
+        <v>263</v>
+      </c>
+      <c r="CA13" s="21">
+        <f t="shared" si="13"/>
+        <v>262</v>
+      </c>
+      <c r="CB13" s="21">
+        <f t="shared" si="13"/>
+        <v>261</v>
+      </c>
+      <c r="CC13" s="21">
+        <f t="shared" si="13"/>
+        <v>260</v>
+      </c>
+      <c r="CD13" s="21">
+        <f t="shared" si="13"/>
+        <v>259</v>
+      </c>
+      <c r="CE13" s="21">
+        <f t="shared" si="13"/>
+        <v>258</v>
+      </c>
+      <c r="CF13" s="21">
+        <f t="shared" si="13"/>
+        <v>257</v>
+      </c>
+      <c r="CG13" s="21">
+        <f t="shared" si="13"/>
+        <v>256</v>
+      </c>
+      <c r="CH13" s="21">
+        <f t="shared" si="13"/>
+        <v>255</v>
+      </c>
+      <c r="CI13" s="21">
+        <f t="shared" si="13"/>
+        <v>254</v>
+      </c>
+      <c r="CJ13" s="21">
+        <f t="shared" si="13"/>
+        <v>253</v>
+      </c>
+      <c r="CK13" s="20">
+        <v>8</v>
+      </c>
+      <c r="CL13" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="3:90" ht="21" x14ac:dyDescent="0.35">
+      <c r="C14" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="14">
+        <v>73</v>
+      </c>
+      <c r="E14" s="14">
+        <v>74</v>
+      </c>
+      <c r="F14" s="14">
+        <v>75</v>
+      </c>
+      <c r="G14" s="14">
+        <v>76</v>
+      </c>
+      <c r="H14" s="14">
+        <v>77</v>
+      </c>
+      <c r="I14" s="14">
+        <v>78</v>
+      </c>
+      <c r="J14" s="14">
+        <v>79</v>
+      </c>
+      <c r="K14" s="14">
+        <v>80</v>
+      </c>
+      <c r="L14" s="14">
+        <v>81</v>
+      </c>
+      <c r="M14" s="14">
+        <v>82</v>
+      </c>
+      <c r="N14" s="14">
+        <v>83</v>
+      </c>
+      <c r="O14" s="14">
+        <v>84</v>
+      </c>
+      <c r="P14" s="15">
+        <v>241</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>242</v>
+      </c>
+      <c r="R14" s="15">
+        <v>243</v>
+      </c>
+      <c r="S14" s="15">
+        <v>244</v>
+      </c>
+      <c r="T14" s="15">
+        <v>245</v>
+      </c>
+      <c r="U14" s="15">
+        <v>246</v>
+      </c>
+      <c r="V14" s="15">
+        <v>247</v>
+      </c>
+      <c r="W14" s="15">
+        <v>248</v>
+      </c>
+      <c r="X14" s="15">
+        <v>249</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>250</v>
+      </c>
+      <c r="Z14" s="15">
+        <v>251</v>
+      </c>
+      <c r="AA14" s="15">
+        <v>252</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>7</v>
+      </c>
+      <c r="AC14" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG14" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH14" s="21">
+        <f t="shared" ref="AH14:BE14" si="14">AH16+24</f>
+        <v>73</v>
+      </c>
+      <c r="AI14" s="21">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="AJ14" s="21">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="AK14" s="21">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="AL14" s="21">
+        <f t="shared" si="14"/>
+        <v>77</v>
+      </c>
+      <c r="AM14" s="21">
+        <f t="shared" si="14"/>
+        <v>78</v>
+      </c>
+      <c r="AN14" s="21">
+        <f t="shared" si="14"/>
+        <v>79</v>
+      </c>
+      <c r="AO14" s="21">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="AP14" s="21">
+        <f t="shared" si="14"/>
+        <v>81</v>
+      </c>
+      <c r="AQ14" s="21">
+        <f t="shared" si="14"/>
+        <v>82</v>
+      </c>
+      <c r="AR14" s="21">
+        <f t="shared" si="14"/>
+        <v>83</v>
+      </c>
+      <c r="AS14" s="22">
+        <f t="shared" si="14"/>
+        <v>84</v>
+      </c>
+      <c r="AT14" s="23">
+        <f t="shared" si="14"/>
+        <v>241</v>
+      </c>
+      <c r="AU14" s="21">
+        <f t="shared" si="14"/>
+        <v>242</v>
+      </c>
+      <c r="AV14" s="21">
+        <f t="shared" si="14"/>
+        <v>243</v>
+      </c>
+      <c r="AW14" s="21">
+        <f t="shared" si="14"/>
+        <v>244</v>
+      </c>
+      <c r="AX14" s="21">
+        <f t="shared" si="14"/>
+        <v>245</v>
+      </c>
+      <c r="AY14" s="21">
+        <f t="shared" si="14"/>
+        <v>246</v>
+      </c>
+      <c r="AZ14" s="21">
+        <f t="shared" si="14"/>
+        <v>247</v>
+      </c>
+      <c r="BA14" s="21">
+        <f t="shared" si="14"/>
+        <v>248</v>
+      </c>
+      <c r="BB14" s="21">
+        <f t="shared" si="14"/>
+        <v>249</v>
+      </c>
+      <c r="BC14" s="21">
+        <f t="shared" si="14"/>
+        <v>250</v>
+      </c>
+      <c r="BD14" s="21">
+        <f t="shared" si="14"/>
+        <v>251</v>
+      </c>
+      <c r="BE14" s="21">
+        <f t="shared" si="14"/>
+        <v>252</v>
+      </c>
+      <c r="BF14" s="20">
+        <v>7</v>
+      </c>
+      <c r="BG14" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="BL14" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM14" s="21">
+        <f t="shared" ref="BM14:CJ14" si="15">BM16+24</f>
+        <v>73</v>
+      </c>
+      <c r="BN14" s="21">
+        <f t="shared" si="15"/>
+        <v>74</v>
+      </c>
+      <c r="BO14" s="21">
+        <f t="shared" si="15"/>
+        <v>75</v>
+      </c>
+      <c r="BP14" s="21">
+        <f t="shared" si="15"/>
+        <v>76</v>
+      </c>
+      <c r="BQ14" s="21">
+        <f t="shared" si="15"/>
+        <v>77</v>
+      </c>
+      <c r="BR14" s="21">
+        <f t="shared" si="15"/>
+        <v>78</v>
+      </c>
+      <c r="BS14" s="21">
+        <f t="shared" si="15"/>
+        <v>79</v>
+      </c>
+      <c r="BT14" s="21">
+        <f t="shared" si="15"/>
+        <v>80</v>
+      </c>
+      <c r="BU14" s="21">
+        <f t="shared" si="15"/>
+        <v>81</v>
+      </c>
+      <c r="BV14" s="21">
+        <f t="shared" si="15"/>
+        <v>82</v>
+      </c>
+      <c r="BW14" s="21">
+        <f t="shared" si="15"/>
+        <v>83</v>
+      </c>
+      <c r="BX14" s="22">
+        <f t="shared" si="15"/>
+        <v>84</v>
+      </c>
+      <c r="BY14" s="23">
+        <f t="shared" si="15"/>
+        <v>241</v>
+      </c>
+      <c r="BZ14" s="21">
+        <f t="shared" si="15"/>
+        <v>242</v>
+      </c>
+      <c r="CA14" s="21">
+        <f t="shared" si="15"/>
+        <v>243</v>
+      </c>
+      <c r="CB14" s="21">
+        <f t="shared" si="15"/>
+        <v>244</v>
+      </c>
+      <c r="CC14" s="21">
+        <f t="shared" si="15"/>
+        <v>245</v>
+      </c>
+      <c r="CD14" s="21">
+        <f t="shared" si="15"/>
+        <v>246</v>
+      </c>
+      <c r="CE14" s="21">
+        <f t="shared" si="15"/>
+        <v>247</v>
+      </c>
+      <c r="CF14" s="21">
+        <f t="shared" si="15"/>
+        <v>248</v>
+      </c>
+      <c r="CG14" s="21">
+        <f t="shared" si="15"/>
+        <v>249</v>
+      </c>
+      <c r="CH14" s="21">
+        <f t="shared" si="15"/>
+        <v>250</v>
+      </c>
+      <c r="CI14" s="21">
+        <f t="shared" si="15"/>
+        <v>251</v>
+      </c>
+      <c r="CJ14" s="21">
+        <f t="shared" si="15"/>
+        <v>252</v>
+      </c>
+      <c r="CK14" s="20">
+        <v>7</v>
+      </c>
+      <c r="CL14" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="3:90" ht="21" x14ac:dyDescent="0.35">
+      <c r="C15" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="14">
+        <v>72</v>
+      </c>
+      <c r="E15" s="14">
+        <v>71</v>
+      </c>
+      <c r="F15" s="14">
+        <v>70</v>
+      </c>
+      <c r="G15" s="14">
+        <v>69</v>
+      </c>
+      <c r="H15" s="14">
+        <v>68</v>
+      </c>
+      <c r="I15" s="14">
+        <v>67</v>
+      </c>
+      <c r="J15" s="14">
+        <v>66</v>
+      </c>
+      <c r="K15" s="14">
+        <v>65</v>
+      </c>
+      <c r="L15" s="14">
+        <v>64</v>
+      </c>
+      <c r="M15" s="14">
+        <v>63</v>
+      </c>
+      <c r="N15" s="14">
+        <v>62</v>
+      </c>
+      <c r="O15" s="14">
+        <v>61</v>
+      </c>
+      <c r="P15" s="15">
+        <v>240</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>239</v>
+      </c>
+      <c r="R15" s="15">
+        <v>238</v>
+      </c>
+      <c r="S15" s="15">
+        <v>237</v>
+      </c>
+      <c r="T15" s="15">
+        <v>236</v>
+      </c>
+      <c r="U15" s="15">
+        <v>235</v>
+      </c>
+      <c r="V15" s="15">
+        <v>234</v>
+      </c>
+      <c r="W15" s="15">
+        <v>233</v>
+      </c>
+      <c r="X15" s="15">
+        <v>232</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>231</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>230</v>
+      </c>
+      <c r="AA15" s="15">
+        <v>229</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AG15" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH15" s="21">
+        <f t="shared" ref="AH15:BE15" si="16">AH17+24</f>
+        <v>72</v>
+      </c>
+      <c r="AI15" s="21">
+        <f t="shared" si="16"/>
+        <v>71</v>
+      </c>
+      <c r="AJ15" s="21">
+        <f t="shared" si="16"/>
+        <v>70</v>
+      </c>
+      <c r="AK15" s="21">
+        <f t="shared" si="16"/>
+        <v>69</v>
+      </c>
+      <c r="AL15" s="21">
+        <f t="shared" si="16"/>
+        <v>68</v>
+      </c>
+      <c r="AM15" s="21">
+        <f t="shared" si="16"/>
+        <v>67</v>
+      </c>
+      <c r="AN15" s="21">
+        <f t="shared" si="16"/>
+        <v>66</v>
+      </c>
+      <c r="AO15" s="21">
+        <f t="shared" si="16"/>
+        <v>65</v>
+      </c>
+      <c r="AP15" s="21">
+        <f t="shared" si="16"/>
+        <v>64</v>
+      </c>
+      <c r="AQ15" s="21">
+        <f t="shared" si="16"/>
+        <v>63</v>
+      </c>
+      <c r="AR15" s="21">
+        <f t="shared" si="16"/>
+        <v>62</v>
+      </c>
+      <c r="AS15" s="22">
+        <f t="shared" si="16"/>
+        <v>61</v>
+      </c>
+      <c r="AT15" s="23">
+        <f t="shared" si="16"/>
+        <v>240</v>
+      </c>
+      <c r="AU15" s="21">
+        <f t="shared" si="16"/>
+        <v>239</v>
+      </c>
+      <c r="AV15" s="21">
+        <f t="shared" si="16"/>
+        <v>238</v>
+      </c>
+      <c r="AW15" s="21">
+        <f t="shared" si="16"/>
+        <v>237</v>
+      </c>
+      <c r="AX15" s="21">
+        <f t="shared" si="16"/>
+        <v>236</v>
+      </c>
+      <c r="AY15" s="21">
+        <f t="shared" si="16"/>
+        <v>235</v>
+      </c>
+      <c r="AZ15" s="21">
+        <f t="shared" si="16"/>
+        <v>234</v>
+      </c>
+      <c r="BA15" s="21">
+        <f t="shared" si="16"/>
+        <v>233</v>
+      </c>
+      <c r="BB15" s="21">
+        <f t="shared" si="16"/>
+        <v>232</v>
+      </c>
+      <c r="BC15" s="21">
+        <f t="shared" si="16"/>
+        <v>231</v>
+      </c>
+      <c r="BD15" s="21">
+        <f t="shared" si="16"/>
+        <v>230</v>
+      </c>
+      <c r="BE15" s="21">
+        <f t="shared" si="16"/>
+        <v>229</v>
+      </c>
+      <c r="BF15" s="20">
+        <v>6</v>
+      </c>
+      <c r="BG15" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="BL15" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="BM15" s="21">
+        <f t="shared" ref="BM15:CJ15" si="17">BM17+24</f>
+        <v>72</v>
+      </c>
+      <c r="BN15" s="21">
+        <f t="shared" si="17"/>
+        <v>71</v>
+      </c>
+      <c r="BO15" s="21">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="BP15" s="21">
+        <f t="shared" si="17"/>
+        <v>69</v>
+      </c>
+      <c r="BQ15" s="21">
+        <f t="shared" si="17"/>
+        <v>68</v>
+      </c>
+      <c r="BR15" s="21">
+        <f t="shared" si="17"/>
+        <v>67</v>
+      </c>
+      <c r="BS15" s="21">
+        <f t="shared" si="17"/>
+        <v>66</v>
+      </c>
+      <c r="BT15" s="21">
+        <f t="shared" si="17"/>
+        <v>65</v>
+      </c>
+      <c r="BU15" s="21">
+        <f t="shared" si="17"/>
+        <v>64</v>
+      </c>
+      <c r="BV15" s="21">
+        <f t="shared" si="17"/>
+        <v>63</v>
+      </c>
+      <c r="BW15" s="21">
+        <f t="shared" si="17"/>
+        <v>62</v>
+      </c>
+      <c r="BX15" s="22">
+        <f t="shared" si="17"/>
+        <v>61</v>
+      </c>
+      <c r="BY15" s="23">
+        <f t="shared" si="17"/>
+        <v>240</v>
+      </c>
+      <c r="BZ15" s="21">
+        <f t="shared" si="17"/>
+        <v>239</v>
+      </c>
+      <c r="CA15" s="21">
+        <f t="shared" si="17"/>
+        <v>238</v>
+      </c>
+      <c r="CB15" s="21">
+        <f t="shared" si="17"/>
+        <v>237</v>
+      </c>
+      <c r="CC15" s="21">
+        <f t="shared" si="17"/>
+        <v>236</v>
+      </c>
+      <c r="CD15" s="21">
+        <f t="shared" si="17"/>
+        <v>235</v>
+      </c>
+      <c r="CE15" s="21">
+        <f t="shared" si="17"/>
+        <v>234</v>
+      </c>
+      <c r="CF15" s="21">
+        <f t="shared" si="17"/>
+        <v>233</v>
+      </c>
+      <c r="CG15" s="21">
+        <f t="shared" si="17"/>
+        <v>232</v>
+      </c>
+      <c r="CH15" s="21">
+        <f t="shared" si="17"/>
+        <v>231</v>
+      </c>
+      <c r="CI15" s="21">
+        <f t="shared" si="17"/>
+        <v>230</v>
+      </c>
+      <c r="CJ15" s="21">
+        <f t="shared" si="17"/>
+        <v>229</v>
+      </c>
+      <c r="CK15" s="20">
+        <v>6</v>
+      </c>
+      <c r="CL15" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="3:90" ht="21" x14ac:dyDescent="0.35">
+      <c r="C16" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="14">
+        <v>49</v>
+      </c>
+      <c r="E16" s="14">
+        <v>50</v>
+      </c>
+      <c r="F16" s="14">
+        <v>51</v>
+      </c>
+      <c r="G16" s="14">
+        <v>52</v>
+      </c>
+      <c r="H16" s="14">
+        <v>53</v>
+      </c>
+      <c r="I16" s="14">
+        <v>54</v>
+      </c>
+      <c r="J16" s="14">
+        <v>55</v>
+      </c>
+      <c r="K16" s="14">
+        <v>56</v>
+      </c>
+      <c r="L16" s="14">
+        <v>57</v>
+      </c>
+      <c r="M16" s="14">
+        <v>58</v>
+      </c>
+      <c r="N16" s="14">
+        <v>59</v>
+      </c>
+      <c r="O16" s="14">
+        <v>60</v>
+      </c>
+      <c r="P16" s="15">
+        <v>217</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>218</v>
+      </c>
+      <c r="R16" s="15">
+        <v>219</v>
+      </c>
+      <c r="S16" s="15">
+        <v>220</v>
+      </c>
+      <c r="T16" s="15">
+        <v>221</v>
+      </c>
+      <c r="U16" s="15">
+        <v>222</v>
+      </c>
+      <c r="V16" s="15">
+        <v>223</v>
+      </c>
+      <c r="W16" s="15">
+        <v>224</v>
+      </c>
+      <c r="X16" s="15">
+        <v>225</v>
+      </c>
+      <c r="Y16" s="15">
+        <v>226</v>
+      </c>
+      <c r="Z16" s="15">
+        <v>227</v>
+      </c>
+      <c r="AA16" s="15">
+        <v>228</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>5</v>
+      </c>
+      <c r="AC16" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG16" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH16" s="21">
+        <f>AH18+24</f>
+        <v>49</v>
+      </c>
+      <c r="AI16" s="21">
+        <f t="shared" ref="AI16:BE16" si="18">AI18+24</f>
+        <v>50</v>
+      </c>
+      <c r="AJ16" s="21">
+        <f t="shared" si="18"/>
+        <v>51</v>
+      </c>
+      <c r="AK16" s="21">
+        <f t="shared" si="18"/>
+        <v>52</v>
+      </c>
+      <c r="AL16" s="21">
+        <f t="shared" si="18"/>
+        <v>53</v>
+      </c>
+      <c r="AM16" s="21">
+        <f t="shared" si="18"/>
+        <v>54</v>
+      </c>
+      <c r="AN16" s="21">
+        <f t="shared" si="18"/>
+        <v>55</v>
+      </c>
+      <c r="AO16" s="21">
+        <f t="shared" si="18"/>
+        <v>56</v>
+      </c>
+      <c r="AP16" s="21">
+        <f t="shared" si="18"/>
+        <v>57</v>
+      </c>
+      <c r="AQ16" s="21">
+        <f t="shared" si="18"/>
+        <v>58</v>
+      </c>
+      <c r="AR16" s="21">
+        <f t="shared" si="18"/>
+        <v>59</v>
+      </c>
+      <c r="AS16" s="22">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+      <c r="AT16" s="23">
+        <f t="shared" si="18"/>
+        <v>217</v>
+      </c>
+      <c r="AU16" s="21">
+        <f t="shared" si="18"/>
+        <v>218</v>
+      </c>
+      <c r="AV16" s="21">
+        <f t="shared" si="18"/>
+        <v>219</v>
+      </c>
+      <c r="AW16" s="21">
+        <f t="shared" si="18"/>
+        <v>220</v>
+      </c>
+      <c r="AX16" s="21">
+        <f t="shared" si="18"/>
+        <v>221</v>
+      </c>
+      <c r="AY16" s="21">
+        <f t="shared" si="18"/>
+        <v>222</v>
+      </c>
+      <c r="AZ16" s="21">
+        <f t="shared" si="18"/>
+        <v>223</v>
+      </c>
+      <c r="BA16" s="21">
+        <f t="shared" si="18"/>
+        <v>224</v>
+      </c>
+      <c r="BB16" s="21">
+        <f t="shared" si="18"/>
+        <v>225</v>
+      </c>
+      <c r="BC16" s="21">
+        <f t="shared" si="18"/>
+        <v>226</v>
+      </c>
+      <c r="BD16" s="21">
+        <f t="shared" si="18"/>
+        <v>227</v>
+      </c>
+      <c r="BE16" s="21">
+        <f t="shared" si="18"/>
+        <v>228</v>
+      </c>
+      <c r="BF16" s="20">
+        <v>5</v>
+      </c>
+      <c r="BG16" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="BL16" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM16" s="21">
+        <f>BM18+24</f>
+        <v>49</v>
+      </c>
+      <c r="BN16" s="21">
+        <f t="shared" ref="BN16:CJ16" si="19">BN18+24</f>
+        <v>50</v>
+      </c>
+      <c r="BO16" s="21">
+        <f t="shared" si="19"/>
+        <v>51</v>
+      </c>
+      <c r="BP16" s="21">
+        <f t="shared" si="19"/>
+        <v>52</v>
+      </c>
+      <c r="BQ16" s="21">
+        <f t="shared" si="19"/>
+        <v>53</v>
+      </c>
+      <c r="BR16" s="21">
+        <f t="shared" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="BS16" s="21">
+        <f t="shared" si="19"/>
+        <v>55</v>
+      </c>
+      <c r="BT16" s="21">
+        <f t="shared" si="19"/>
+        <v>56</v>
+      </c>
+      <c r="BU16" s="21">
+        <f t="shared" si="19"/>
+        <v>57</v>
+      </c>
+      <c r="BV16" s="21">
+        <f t="shared" si="19"/>
+        <v>58</v>
+      </c>
+      <c r="BW16" s="21">
+        <f t="shared" si="19"/>
+        <v>59</v>
+      </c>
+      <c r="BX16" s="22">
+        <f t="shared" si="19"/>
+        <v>60</v>
+      </c>
+      <c r="BY16" s="23">
+        <f t="shared" si="19"/>
+        <v>217</v>
+      </c>
+      <c r="BZ16" s="21">
+        <f t="shared" si="19"/>
+        <v>218</v>
+      </c>
+      <c r="CA16" s="21">
+        <f t="shared" si="19"/>
+        <v>219</v>
+      </c>
+      <c r="CB16" s="21">
+        <f t="shared" si="19"/>
+        <v>220</v>
+      </c>
+      <c r="CC16" s="21">
+        <f t="shared" si="19"/>
+        <v>221</v>
+      </c>
+      <c r="CD16" s="21">
+        <f t="shared" si="19"/>
+        <v>222</v>
+      </c>
+      <c r="CE16" s="21">
+        <f t="shared" si="19"/>
+        <v>223</v>
+      </c>
+      <c r="CF16" s="21">
+        <f t="shared" si="19"/>
+        <v>224</v>
+      </c>
+      <c r="CG16" s="21">
+        <f t="shared" si="19"/>
+        <v>225</v>
+      </c>
+      <c r="CH16" s="21">
+        <f t="shared" si="19"/>
+        <v>226</v>
+      </c>
+      <c r="CI16" s="21">
+        <f t="shared" si="19"/>
+        <v>227</v>
+      </c>
+      <c r="CJ16" s="21">
+        <f t="shared" si="19"/>
+        <v>228</v>
+      </c>
+      <c r="CK16" s="20">
+        <v>5</v>
+      </c>
+      <c r="CL16" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="3:90" ht="21" x14ac:dyDescent="0.35">
+      <c r="C17" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="14">
+        <v>48</v>
+      </c>
+      <c r="E17" s="14">
+        <v>47</v>
+      </c>
+      <c r="F17" s="14">
+        <v>46</v>
+      </c>
+      <c r="G17" s="14">
+        <v>45</v>
+      </c>
+      <c r="H17" s="14">
+        <v>44</v>
+      </c>
+      <c r="I17" s="14">
+        <v>43</v>
+      </c>
+      <c r="J17" s="17">
+        <v>42</v>
+      </c>
+      <c r="K17" s="17">
+        <v>41</v>
+      </c>
+      <c r="L17" s="17">
+        <v>40</v>
+      </c>
+      <c r="M17" s="17">
+        <v>39</v>
+      </c>
+      <c r="N17" s="17">
+        <v>38</v>
+      </c>
+      <c r="O17" s="17">
+        <v>37</v>
+      </c>
+      <c r="P17" s="15">
+        <v>216</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>215</v>
+      </c>
+      <c r="R17" s="15">
+        <v>214</v>
+      </c>
+      <c r="S17" s="15">
+        <v>213</v>
+      </c>
+      <c r="T17" s="15">
+        <v>212</v>
+      </c>
+      <c r="U17" s="15">
+        <v>211</v>
+      </c>
+      <c r="V17" s="18">
+        <v>210</v>
+      </c>
+      <c r="W17" s="18">
+        <v>209</v>
+      </c>
+      <c r="X17" s="18">
+        <v>208</v>
+      </c>
+      <c r="Y17" s="18">
+        <v>207</v>
+      </c>
+      <c r="Z17" s="18">
+        <v>206</v>
+      </c>
+      <c r="AA17" s="18">
+        <v>205</v>
+      </c>
+      <c r="AB17" s="16">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG17" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH17" s="21">
+        <f t="shared" ref="AH17:AL17" si="20">AH19+24</f>
+        <v>48</v>
+      </c>
+      <c r="AI17" s="21">
+        <f t="shared" si="20"/>
+        <v>47</v>
+      </c>
+      <c r="AJ17" s="21">
+        <f t="shared" si="20"/>
+        <v>46</v>
+      </c>
+      <c r="AK17" s="21">
+        <f t="shared" si="20"/>
+        <v>45</v>
+      </c>
+      <c r="AL17" s="21">
+        <f t="shared" si="20"/>
+        <v>44</v>
+      </c>
+      <c r="AM17" s="21">
+        <f>AM19+24</f>
+        <v>43</v>
+      </c>
+      <c r="AN17" s="21">
+        <v>42</v>
+      </c>
+      <c r="AO17" s="21">
+        <v>41</v>
+      </c>
+      <c r="AP17" s="21">
+        <v>40</v>
+      </c>
+      <c r="AQ17" s="21">
+        <v>39</v>
+      </c>
+      <c r="AR17" s="21">
+        <v>38</v>
+      </c>
+      <c r="AS17" s="22">
+        <v>37</v>
+      </c>
+      <c r="AT17" s="23">
+        <f t="shared" ref="AT17:BE17" si="21">AT19+24</f>
+        <v>216</v>
+      </c>
+      <c r="AU17" s="21">
+        <f t="shared" si="21"/>
+        <v>215</v>
+      </c>
+      <c r="AV17" s="21">
+        <f t="shared" si="21"/>
+        <v>214</v>
+      </c>
+      <c r="AW17" s="21">
+        <f t="shared" si="21"/>
+        <v>213</v>
+      </c>
+      <c r="AX17" s="21">
+        <f t="shared" si="21"/>
+        <v>212</v>
+      </c>
+      <c r="AY17" s="21">
+        <f t="shared" si="21"/>
+        <v>211</v>
+      </c>
+      <c r="AZ17" s="21">
+        <f t="shared" si="21"/>
+        <v>210</v>
+      </c>
+      <c r="BA17" s="21">
+        <f t="shared" si="21"/>
+        <v>209</v>
+      </c>
+      <c r="BB17" s="21">
+        <f t="shared" si="21"/>
+        <v>208</v>
+      </c>
+      <c r="BC17" s="21">
+        <f t="shared" si="21"/>
+        <v>207</v>
+      </c>
+      <c r="BD17" s="21">
+        <f t="shared" si="21"/>
+        <v>206</v>
+      </c>
+      <c r="BE17" s="21">
+        <f t="shared" si="21"/>
+        <v>205</v>
+      </c>
+      <c r="BF17" s="20">
+        <v>4</v>
+      </c>
+      <c r="BG17" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BL17" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM17" s="21">
+        <f t="shared" ref="BM17:BQ17" si="22">BM19+24</f>
+        <v>48</v>
+      </c>
+      <c r="BN17" s="21">
+        <f t="shared" si="22"/>
+        <v>47</v>
+      </c>
+      <c r="BO17" s="21">
+        <f t="shared" si="22"/>
+        <v>46</v>
+      </c>
+      <c r="BP17" s="21">
+        <f t="shared" si="22"/>
+        <v>45</v>
+      </c>
+      <c r="BQ17" s="21">
+        <f t="shared" si="22"/>
+        <v>44</v>
+      </c>
+      <c r="BR17" s="21">
+        <f>BR19+24</f>
+        <v>43</v>
+      </c>
+      <c r="BS17" s="21">
+        <v>42</v>
+      </c>
+      <c r="BT17" s="21">
+        <v>41</v>
+      </c>
+      <c r="BU17" s="21">
+        <v>40</v>
+      </c>
+      <c r="BV17" s="21">
+        <v>39</v>
+      </c>
+      <c r="BW17" s="21">
+        <v>38</v>
+      </c>
+      <c r="BX17" s="22">
+        <v>37</v>
+      </c>
+      <c r="BY17" s="23">
+        <f t="shared" ref="BY17:CJ17" si="23">BY19+24</f>
+        <v>216</v>
+      </c>
+      <c r="BZ17" s="21">
+        <f t="shared" si="23"/>
+        <v>215</v>
+      </c>
+      <c r="CA17" s="21">
+        <f t="shared" si="23"/>
+        <v>214</v>
+      </c>
+      <c r="CB17" s="21">
+        <f t="shared" si="23"/>
+        <v>213</v>
+      </c>
+      <c r="CC17" s="21">
+        <f t="shared" si="23"/>
+        <v>212</v>
+      </c>
+      <c r="CD17" s="21">
+        <f t="shared" si="23"/>
+        <v>211</v>
+      </c>
+      <c r="CE17" s="21">
+        <f t="shared" si="23"/>
+        <v>210</v>
+      </c>
+      <c r="CF17" s="21">
+        <f t="shared" si="23"/>
+        <v>209</v>
+      </c>
+      <c r="CG17" s="21">
+        <f t="shared" si="23"/>
+        <v>208</v>
+      </c>
+      <c r="CH17" s="21">
+        <f t="shared" si="23"/>
+        <v>207</v>
+      </c>
+      <c r="CI17" s="21">
+        <f t="shared" si="23"/>
+        <v>206</v>
+      </c>
+      <c r="CJ17" s="21">
+        <f t="shared" si="23"/>
+        <v>205</v>
+      </c>
+      <c r="CK17" s="20">
+        <v>4</v>
+      </c>
+      <c r="CL17" s="19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="3:90" ht="21" x14ac:dyDescent="0.35">
+      <c r="C18" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="17">
+        <v>25</v>
+      </c>
+      <c r="E18" s="17">
+        <v>26</v>
+      </c>
+      <c r="F18" s="17">
+        <v>27</v>
+      </c>
+      <c r="G18" s="17">
+        <v>28</v>
+      </c>
+      <c r="H18" s="17">
+        <v>29</v>
+      </c>
+      <c r="I18" s="17">
+        <v>30</v>
+      </c>
+      <c r="J18" s="17">
+        <v>31</v>
+      </c>
+      <c r="K18" s="17">
+        <v>32</v>
+      </c>
+      <c r="L18" s="17">
+        <v>33</v>
+      </c>
+      <c r="M18" s="17">
+        <v>34</v>
+      </c>
+      <c r="N18" s="17">
+        <v>35</v>
+      </c>
+      <c r="O18" s="17">
+        <v>36</v>
+      </c>
+      <c r="P18" s="18">
+        <v>193</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>194</v>
+      </c>
+      <c r="R18" s="18">
+        <v>195</v>
+      </c>
+      <c r="S18" s="18">
+        <v>196</v>
+      </c>
+      <c r="T18" s="18">
+        <v>197</v>
+      </c>
+      <c r="U18" s="18">
+        <v>198</v>
+      </c>
+      <c r="V18" s="18">
+        <v>199</v>
+      </c>
+      <c r="W18" s="18">
+        <v>200</v>
+      </c>
+      <c r="X18" s="18">
+        <v>201</v>
+      </c>
+      <c r="Y18" s="18">
+        <v>202</v>
+      </c>
+      <c r="Z18" s="18">
+        <v>203</v>
+      </c>
+      <c r="AA18" s="18">
+        <v>204</v>
+      </c>
+      <c r="AB18" s="16">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="AG18" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH18" s="21">
+        <v>25</v>
+      </c>
+      <c r="AI18" s="21">
+        <v>26</v>
+      </c>
+      <c r="AJ18" s="21">
+        <v>27</v>
+      </c>
+      <c r="AK18" s="21">
+        <v>28</v>
+      </c>
+      <c r="AL18" s="21">
+        <v>29</v>
+      </c>
+      <c r="AM18" s="21">
+        <v>30</v>
+      </c>
+      <c r="AN18" s="21">
+        <v>31</v>
+      </c>
+      <c r="AO18" s="21">
+        <v>32</v>
+      </c>
+      <c r="AP18" s="21">
+        <v>33</v>
+      </c>
+      <c r="AQ18" s="21">
+        <v>34</v>
+      </c>
+      <c r="AR18" s="21">
+        <v>35</v>
+      </c>
+      <c r="AS18" s="22">
+        <v>36</v>
+      </c>
+      <c r="AT18" s="23">
+        <f t="shared" ref="AT18:BE18" si="24">AT20+24</f>
+        <v>193</v>
+      </c>
+      <c r="AU18" s="21">
+        <f t="shared" si="24"/>
+        <v>194</v>
+      </c>
+      <c r="AV18" s="21">
+        <f t="shared" si="24"/>
+        <v>195</v>
+      </c>
+      <c r="AW18" s="21">
+        <f t="shared" si="24"/>
+        <v>196</v>
+      </c>
+      <c r="AX18" s="21">
+        <f t="shared" si="24"/>
+        <v>197</v>
+      </c>
+      <c r="AY18" s="21">
+        <f t="shared" si="24"/>
+        <v>198</v>
+      </c>
+      <c r="AZ18" s="21">
+        <f t="shared" si="24"/>
+        <v>199</v>
+      </c>
+      <c r="BA18" s="21">
+        <f t="shared" si="24"/>
+        <v>200</v>
+      </c>
+      <c r="BB18" s="21">
+        <f t="shared" si="24"/>
+        <v>201</v>
+      </c>
+      <c r="BC18" s="21">
+        <f t="shared" si="24"/>
+        <v>202</v>
+      </c>
+      <c r="BD18" s="21">
+        <f t="shared" si="24"/>
+        <v>203</v>
+      </c>
+      <c r="BE18" s="21">
+        <f t="shared" si="24"/>
+        <v>204</v>
+      </c>
+      <c r="BF18" s="20">
+        <v>3</v>
+      </c>
+      <c r="BG18" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="BL18" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="BM18" s="21">
+        <v>25</v>
+      </c>
+      <c r="BN18" s="21">
+        <v>26</v>
+      </c>
+      <c r="BO18" s="21">
+        <v>27</v>
+      </c>
+      <c r="BP18" s="21">
+        <v>28</v>
+      </c>
+      <c r="BQ18" s="21">
+        <v>29</v>
+      </c>
+      <c r="BR18" s="21">
+        <v>30</v>
+      </c>
+      <c r="BS18" s="21">
+        <v>31</v>
+      </c>
+      <c r="BT18" s="21">
+        <v>32</v>
+      </c>
+      <c r="BU18" s="21">
+        <v>33</v>
+      </c>
+      <c r="BV18" s="21">
+        <v>34</v>
+      </c>
+      <c r="BW18" s="21">
+        <v>35</v>
+      </c>
+      <c r="BX18" s="22">
+        <v>36</v>
+      </c>
+      <c r="BY18" s="23">
+        <f t="shared" ref="BY18:CJ18" si="25">BY20+24</f>
+        <v>193</v>
+      </c>
+      <c r="BZ18" s="21">
+        <f t="shared" si="25"/>
+        <v>194</v>
+      </c>
+      <c r="CA18" s="21">
+        <f t="shared" si="25"/>
+        <v>195</v>
+      </c>
+      <c r="CB18" s="21">
+        <f t="shared" si="25"/>
+        <v>196</v>
+      </c>
+      <c r="CC18" s="21">
+        <f t="shared" si="25"/>
+        <v>197</v>
+      </c>
+      <c r="CD18" s="21">
+        <f t="shared" si="25"/>
+        <v>198</v>
+      </c>
+      <c r="CE18" s="21">
+        <f t="shared" si="25"/>
+        <v>199</v>
+      </c>
+      <c r="CF18" s="21">
+        <f t="shared" si="25"/>
+        <v>200</v>
+      </c>
+      <c r="CG18" s="21">
+        <f t="shared" si="25"/>
+        <v>201</v>
+      </c>
+      <c r="CH18" s="21">
+        <f t="shared" si="25"/>
+        <v>202</v>
+      </c>
+      <c r="CI18" s="21">
+        <f t="shared" si="25"/>
+        <v>203</v>
+      </c>
+      <c r="CJ18" s="21">
+        <f t="shared" si="25"/>
+        <v>204</v>
+      </c>
+      <c r="CK18" s="20">
+        <v>3</v>
+      </c>
+      <c r="CL18" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="3:90" ht="21" x14ac:dyDescent="0.35">
+      <c r="C19" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="17">
+        <v>24</v>
+      </c>
+      <c r="E19" s="17">
+        <v>23</v>
+      </c>
+      <c r="F19" s="17">
+        <v>22</v>
+      </c>
+      <c r="G19" s="17">
+        <v>21</v>
+      </c>
+      <c r="H19" s="17">
+        <v>20</v>
+      </c>
+      <c r="I19" s="17">
+        <v>19</v>
+      </c>
+      <c r="J19" s="17">
+        <v>18</v>
+      </c>
+      <c r="K19" s="17">
+        <v>17</v>
+      </c>
+      <c r="L19" s="17">
+        <v>16</v>
+      </c>
+      <c r="M19" s="17">
+        <v>15</v>
+      </c>
+      <c r="N19" s="17">
         <v>14</v>
       </c>
-      <c r="AC7" s="14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C8" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="D8" s="15">
-        <f t="shared" ref="D8:AA8" si="1">D10+24</f>
-        <v>145</v>
-      </c>
-      <c r="E8" s="15">
-        <f t="shared" si="1"/>
-        <v>146</v>
-      </c>
-      <c r="F8" s="15">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="G8" s="15">
-        <f t="shared" si="1"/>
-        <v>148</v>
-      </c>
-      <c r="H8" s="15">
-        <f t="shared" si="1"/>
-        <v>149</v>
-      </c>
-      <c r="I8" s="15">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="J8" s="15">
-        <f t="shared" si="1"/>
-        <v>151</v>
-      </c>
-      <c r="K8" s="15">
-        <f t="shared" si="1"/>
-        <v>152</v>
-      </c>
-      <c r="L8" s="15">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="M8" s="15">
-        <f t="shared" si="1"/>
-        <v>154</v>
-      </c>
-      <c r="N8" s="15">
-        <f t="shared" si="1"/>
-        <v>155</v>
-      </c>
-      <c r="O8" s="15">
-        <f t="shared" si="1"/>
-        <v>156</v>
-      </c>
-      <c r="P8" s="16">
-        <f t="shared" si="1"/>
+      <c r="O19" s="17">
+        <v>13</v>
+      </c>
+      <c r="P19" s="18">
+        <v>192</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>191</v>
+      </c>
+      <c r="R19" s="18">
+        <v>190</v>
+      </c>
+      <c r="S19" s="18">
+        <v>189</v>
+      </c>
+      <c r="T19" s="18">
+        <v>188</v>
+      </c>
+      <c r="U19" s="18">
+        <v>187</v>
+      </c>
+      <c r="V19" s="18">
+        <v>186</v>
+      </c>
+      <c r="W19" s="18">
+        <v>185</v>
+      </c>
+      <c r="X19" s="18">
+        <v>184</v>
+      </c>
+      <c r="Y19" s="18">
+        <v>183</v>
+      </c>
+      <c r="Z19" s="18">
+        <v>182</v>
+      </c>
+      <c r="AA19" s="18">
+        <v>181</v>
+      </c>
+      <c r="AB19" s="16">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG19" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH19" s="21">
+        <v>24</v>
+      </c>
+      <c r="AI19" s="21">
+        <v>23</v>
+      </c>
+      <c r="AJ19" s="21">
+        <v>22</v>
+      </c>
+      <c r="AK19" s="21">
+        <v>21</v>
+      </c>
+      <c r="AL19" s="21">
+        <v>20</v>
+      </c>
+      <c r="AM19" s="21">
+        <v>19</v>
+      </c>
+      <c r="AN19" s="21">
+        <v>18</v>
+      </c>
+      <c r="AO19" s="21">
+        <v>17</v>
+      </c>
+      <c r="AP19" s="21">
+        <v>16</v>
+      </c>
+      <c r="AQ19" s="21">
+        <v>15</v>
+      </c>
+      <c r="AR19" s="21">
+        <v>14</v>
+      </c>
+      <c r="AS19" s="22">
+        <v>13</v>
+      </c>
+      <c r="AT19" s="23">
+        <v>192</v>
+      </c>
+      <c r="AU19" s="21">
+        <v>191</v>
+      </c>
+      <c r="AV19" s="21">
+        <v>190</v>
+      </c>
+      <c r="AW19" s="21">
+        <v>189</v>
+      </c>
+      <c r="AX19" s="21">
+        <v>188</v>
+      </c>
+      <c r="AY19" s="21">
+        <v>187</v>
+      </c>
+      <c r="AZ19" s="21">
+        <v>186</v>
+      </c>
+      <c r="BA19" s="21">
+        <v>185</v>
+      </c>
+      <c r="BB19" s="21">
+        <v>184</v>
+      </c>
+      <c r="BC19" s="21">
+        <v>183</v>
+      </c>
+      <c r="BD19" s="21">
+        <v>182</v>
+      </c>
+      <c r="BE19" s="21">
+        <v>181</v>
+      </c>
+      <c r="BF19" s="20">
+        <v>2</v>
+      </c>
+      <c r="BG19" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="BL19" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="BM19" s="21">
+        <v>24</v>
+      </c>
+      <c r="BN19" s="21">
+        <v>23</v>
+      </c>
+      <c r="BO19" s="21">
+        <v>22</v>
+      </c>
+      <c r="BP19" s="21">
+        <v>21</v>
+      </c>
+      <c r="BQ19" s="21">
+        <v>20</v>
+      </c>
+      <c r="BR19" s="21">
+        <v>19</v>
+      </c>
+      <c r="BS19" s="21">
+        <v>18</v>
+      </c>
+      <c r="BT19" s="21">
+        <v>17</v>
+      </c>
+      <c r="BU19" s="21">
+        <v>16</v>
+      </c>
+      <c r="BV19" s="21">
+        <v>15</v>
+      </c>
+      <c r="BW19" s="21">
+        <v>14</v>
+      </c>
+      <c r="BX19" s="22">
+        <v>13</v>
+      </c>
+      <c r="BY19" s="23">
+        <v>192</v>
+      </c>
+      <c r="BZ19" s="21">
+        <v>191</v>
+      </c>
+      <c r="CA19" s="21">
+        <v>190</v>
+      </c>
+      <c r="CB19" s="21">
+        <v>189</v>
+      </c>
+      <c r="CC19" s="21">
+        <v>188</v>
+      </c>
+      <c r="CD19" s="21">
+        <v>187</v>
+      </c>
+      <c r="CE19" s="21">
+        <v>186</v>
+      </c>
+      <c r="CF19" s="21">
+        <v>185</v>
+      </c>
+      <c r="CG19" s="21">
+        <v>184</v>
+      </c>
+      <c r="CH19" s="21">
+        <v>183</v>
+      </c>
+      <c r="CI19" s="21">
+        <v>182</v>
+      </c>
+      <c r="CJ19" s="21">
+        <v>181</v>
+      </c>
+      <c r="CK19" s="20">
+        <v>2</v>
+      </c>
+      <c r="CL19" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="3:90" ht="21" x14ac:dyDescent="0.35">
+      <c r="C20" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="17">
+        <v>1</v>
+      </c>
+      <c r="E20" s="17">
+        <v>2</v>
+      </c>
+      <c r="F20" s="17">
+        <v>3</v>
+      </c>
+      <c r="G20" s="17">
+        <v>4</v>
+      </c>
+      <c r="H20" s="17">
+        <v>5</v>
+      </c>
+      <c r="I20" s="17">
+        <v>6</v>
+      </c>
+      <c r="J20" s="17">
+        <v>7</v>
+      </c>
+      <c r="K20" s="17">
+        <v>8</v>
+      </c>
+      <c r="L20" s="17">
+        <v>9</v>
+      </c>
+      <c r="M20" s="17">
+        <v>10</v>
+      </c>
+      <c r="N20" s="17">
+        <v>11</v>
+      </c>
+      <c r="O20" s="17">
+        <v>12</v>
+      </c>
+      <c r="P20" s="18">
+        <v>169</v>
+      </c>
+      <c r="Q20" s="18">
+        <v>170</v>
+      </c>
+      <c r="R20" s="18">
+        <v>171</v>
+      </c>
+      <c r="S20" s="18">
+        <v>172</v>
+      </c>
+      <c r="T20" s="18">
+        <v>173</v>
+      </c>
+      <c r="U20" s="18">
+        <v>174</v>
+      </c>
+      <c r="V20" s="18">
+        <v>175</v>
+      </c>
+      <c r="W20" s="18">
+        <v>176</v>
+      </c>
+      <c r="X20" s="18">
+        <v>177</v>
+      </c>
+      <c r="Y20" s="18">
+        <v>178</v>
+      </c>
+      <c r="Z20" s="18">
+        <v>179</v>
+      </c>
+      <c r="AA20" s="18">
+        <v>180</v>
+      </c>
+      <c r="AB20" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="Q8" s="16">
-        <f t="shared" si="1"/>
-        <v>313</v>
-      </c>
-      <c r="R8" s="16">
-        <f t="shared" si="1"/>
-        <v>314</v>
-      </c>
-      <c r="S8" s="16">
-        <f t="shared" si="1"/>
-        <v>315</v>
-      </c>
-      <c r="T8" s="16">
-        <f t="shared" si="1"/>
-        <v>316</v>
-      </c>
-      <c r="U8" s="16">
-        <f t="shared" si="1"/>
-        <v>317</v>
-      </c>
-      <c r="V8" s="16">
-        <f t="shared" si="1"/>
-        <v>318</v>
-      </c>
-      <c r="W8" s="16">
-        <f t="shared" si="1"/>
-        <v>319</v>
-      </c>
-      <c r="X8" s="16">
-        <f t="shared" si="1"/>
-        <v>320</v>
-      </c>
-      <c r="Y8" s="16">
-        <f t="shared" si="1"/>
-        <v>321</v>
-      </c>
-      <c r="Z8" s="16">
-        <f t="shared" si="1"/>
-        <v>322</v>
-      </c>
-      <c r="AA8" s="16">
-        <f t="shared" si="1"/>
-        <v>323</v>
-      </c>
-      <c r="AB8" s="17">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C9" s="14" t="s">
+      <c r="AG20" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH20" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ20" s="21">
+        <v>3</v>
+      </c>
+      <c r="AK20" s="21">
+        <v>4</v>
+      </c>
+      <c r="AL20" s="21">
+        <v>5</v>
+      </c>
+      <c r="AM20" s="21">
+        <v>6</v>
+      </c>
+      <c r="AN20" s="21">
+        <v>7</v>
+      </c>
+      <c r="AO20" s="21">
+        <v>8</v>
+      </c>
+      <c r="AP20" s="21">
+        <v>9</v>
+      </c>
+      <c r="AQ20" s="21">
+        <v>10</v>
+      </c>
+      <c r="AR20" s="21">
+        <v>11</v>
+      </c>
+      <c r="AS20" s="22">
+        <v>12</v>
+      </c>
+      <c r="AT20" s="23">
+        <v>169</v>
+      </c>
+      <c r="AU20" s="21">
+        <v>170</v>
+      </c>
+      <c r="AV20" s="21">
+        <v>171</v>
+      </c>
+      <c r="AW20" s="21">
+        <v>172</v>
+      </c>
+      <c r="AX20" s="21">
+        <v>173</v>
+      </c>
+      <c r="AY20" s="21">
+        <v>174</v>
+      </c>
+      <c r="AZ20" s="21">
+        <v>175</v>
+      </c>
+      <c r="BA20" s="21">
+        <v>176</v>
+      </c>
+      <c r="BB20" s="21">
+        <v>177</v>
+      </c>
+      <c r="BC20" s="21">
+        <v>178</v>
+      </c>
+      <c r="BD20" s="21">
         <v>179</v>
       </c>
-      <c r="D9" s="15">
-        <f t="shared" ref="D9:AA9" si="2">D11+24</f>
-        <v>144</v>
-      </c>
-      <c r="E9" s="15">
-        <f t="shared" si="2"/>
-        <v>143</v>
-      </c>
-      <c r="F9" s="15">
-        <f t="shared" si="2"/>
-        <v>142</v>
-      </c>
-      <c r="G9" s="15">
-        <f t="shared" si="2"/>
-        <v>141</v>
-      </c>
-      <c r="H9" s="15">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="I9" s="15">
-        <f t="shared" si="2"/>
-        <v>139</v>
-      </c>
-      <c r="J9" s="15">
-        <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="K9" s="15">
-        <f t="shared" si="2"/>
-        <v>137</v>
-      </c>
-      <c r="L9" s="15">
-        <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
-      <c r="M9" s="15">
-        <f t="shared" si="2"/>
-        <v>135</v>
-      </c>
-      <c r="N9" s="15">
-        <f t="shared" si="2"/>
-        <v>134</v>
-      </c>
-      <c r="O9" s="15">
-        <f t="shared" si="2"/>
-        <v>133</v>
-      </c>
-      <c r="P9" s="16">
-        <f t="shared" si="2"/>
-        <v>311</v>
-      </c>
-      <c r="Q9" s="16">
-        <f t="shared" si="2"/>
-        <v>310</v>
-      </c>
-      <c r="R9" s="16">
-        <f t="shared" si="2"/>
-        <v>309</v>
-      </c>
-      <c r="S9" s="16">
-        <f t="shared" si="2"/>
-        <v>308</v>
-      </c>
-      <c r="T9" s="16">
-        <f t="shared" si="2"/>
-        <v>307</v>
-      </c>
-      <c r="U9" s="16">
-        <f t="shared" si="2"/>
-        <v>306</v>
-      </c>
-      <c r="V9" s="16">
-        <f t="shared" si="2"/>
-        <v>305</v>
-      </c>
-      <c r="W9" s="16">
-        <f t="shared" si="2"/>
-        <v>304</v>
-      </c>
-      <c r="X9" s="16">
-        <f t="shared" si="2"/>
-        <v>303</v>
-      </c>
-      <c r="Y9" s="16">
-        <f t="shared" si="2"/>
-        <v>302</v>
-      </c>
-      <c r="Z9" s="16">
-        <f t="shared" si="2"/>
-        <v>301</v>
-      </c>
-      <c r="AA9" s="16">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="AB9" s="17">
+      <c r="BE20" s="21">
+        <v>180</v>
+      </c>
+      <c r="BF20" s="20">
+        <v>1</v>
+      </c>
+      <c r="BG20" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="BL20" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM20" s="21">
+        <v>1</v>
+      </c>
+      <c r="BN20" s="21">
+        <v>2</v>
+      </c>
+      <c r="BO20" s="21">
+        <v>3</v>
+      </c>
+      <c r="BP20" s="21">
+        <v>4</v>
+      </c>
+      <c r="BQ20" s="21">
+        <v>5</v>
+      </c>
+      <c r="BR20" s="21">
+        <v>6</v>
+      </c>
+      <c r="BS20" s="21">
+        <v>7</v>
+      </c>
+      <c r="BT20" s="21">
+        <v>8</v>
+      </c>
+      <c r="BU20" s="21">
+        <v>9</v>
+      </c>
+      <c r="BV20" s="21">
+        <v>10</v>
+      </c>
+      <c r="BW20" s="21">
+        <v>11</v>
+      </c>
+      <c r="BX20" s="22">
         <v>12</v>
       </c>
-      <c r="AC9" s="14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C10" s="14" t="s">
+      <c r="BY20" s="23">
+        <v>169</v>
+      </c>
+      <c r="BZ20" s="21">
+        <v>170</v>
+      </c>
+      <c r="CA20" s="21">
+        <v>171</v>
+      </c>
+      <c r="CB20" s="21">
+        <v>172</v>
+      </c>
+      <c r="CC20" s="21">
+        <v>173</v>
+      </c>
+      <c r="CD20" s="21">
+        <v>174</v>
+      </c>
+      <c r="CE20" s="21">
+        <v>175</v>
+      </c>
+      <c r="CF20" s="21">
+        <v>176</v>
+      </c>
+      <c r="CG20" s="21">
+        <v>177</v>
+      </c>
+      <c r="CH20" s="21">
+        <v>178</v>
+      </c>
+      <c r="CI20" s="21">
+        <v>179</v>
+      </c>
+      <c r="CJ20" s="21">
         <v>180</v>
       </c>
-      <c r="D10" s="18">
-        <f t="shared" ref="D10:AA10" si="3">D12+24</f>
-        <v>121</v>
-      </c>
-      <c r="E10" s="18">
-        <f t="shared" si="3"/>
-        <v>122</v>
-      </c>
-      <c r="F10" s="18">
-        <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="G10" s="18">
-        <f t="shared" si="3"/>
-        <v>124</v>
-      </c>
-      <c r="H10" s="18">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="I10" s="18">
-        <f t="shared" si="3"/>
-        <v>126</v>
-      </c>
-      <c r="J10" s="15">
-        <f t="shared" si="3"/>
-        <v>127</v>
-      </c>
-      <c r="K10" s="15">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="L10" s="15">
-        <f t="shared" si="3"/>
-        <v>129</v>
-      </c>
-      <c r="M10" s="15">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="N10" s="15">
-        <f t="shared" si="3"/>
-        <v>131</v>
-      </c>
-      <c r="O10" s="15">
-        <f t="shared" si="3"/>
-        <v>132</v>
-      </c>
-      <c r="P10" s="19">
-        <f t="shared" si="3"/>
-        <v>288</v>
-      </c>
-      <c r="Q10" s="19">
-        <f t="shared" si="3"/>
-        <v>289</v>
-      </c>
-      <c r="R10" s="19">
-        <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="S10" s="19">
-        <f t="shared" si="3"/>
-        <v>291</v>
-      </c>
-      <c r="T10" s="19">
-        <f t="shared" si="3"/>
-        <v>292</v>
-      </c>
-      <c r="U10" s="19">
-        <f t="shared" si="3"/>
-        <v>293</v>
-      </c>
-      <c r="V10" s="16">
-        <f t="shared" si="3"/>
-        <v>294</v>
-      </c>
-      <c r="W10" s="16">
-        <f t="shared" si="3"/>
-        <v>295</v>
-      </c>
-      <c r="X10" s="16">
-        <f t="shared" si="3"/>
-        <v>296</v>
-      </c>
-      <c r="Y10" s="16">
-        <f t="shared" si="3"/>
-        <v>297</v>
-      </c>
-      <c r="Z10" s="16">
-        <f t="shared" si="3"/>
-        <v>298</v>
-      </c>
-      <c r="AA10" s="16">
-        <f t="shared" si="3"/>
-        <v>299</v>
-      </c>
-      <c r="AB10" s="17">
-        <v>11</v>
-      </c>
-      <c r="AC10" s="14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C11" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="18">
-        <f t="shared" ref="D11:AA11" si="4">D13+24</f>
-        <v>120</v>
-      </c>
-      <c r="E11" s="18">
-        <f t="shared" si="4"/>
-        <v>119</v>
-      </c>
-      <c r="F11" s="18">
-        <f t="shared" si="4"/>
-        <v>118</v>
-      </c>
-      <c r="G11" s="18">
-        <f t="shared" si="4"/>
-        <v>117</v>
-      </c>
-      <c r="H11" s="18">
-        <f t="shared" si="4"/>
-        <v>116</v>
-      </c>
-      <c r="I11" s="18">
-        <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="J11" s="18">
-        <f t="shared" si="4"/>
-        <v>114</v>
-      </c>
-      <c r="K11" s="18">
-        <f t="shared" si="4"/>
-        <v>113</v>
-      </c>
-      <c r="L11" s="18">
-        <f t="shared" si="4"/>
-        <v>112</v>
-      </c>
-      <c r="M11" s="18">
-        <f t="shared" si="4"/>
-        <v>111</v>
-      </c>
-      <c r="N11" s="18">
-        <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="O11" s="18">
-        <f t="shared" si="4"/>
-        <v>109</v>
-      </c>
-      <c r="P11" s="19">
-        <f t="shared" si="4"/>
-        <v>287</v>
-      </c>
-      <c r="Q11" s="19">
-        <f t="shared" si="4"/>
-        <v>286</v>
-      </c>
-      <c r="R11" s="19">
-        <f t="shared" si="4"/>
-        <v>285</v>
-      </c>
-      <c r="S11" s="19">
-        <f t="shared" si="4"/>
-        <v>284</v>
-      </c>
-      <c r="T11" s="19">
-        <f t="shared" si="4"/>
-        <v>283</v>
-      </c>
-      <c r="U11" s="19">
-        <f t="shared" si="4"/>
-        <v>282</v>
-      </c>
-      <c r="V11" s="19">
-        <f t="shared" si="4"/>
-        <v>281</v>
-      </c>
-      <c r="W11" s="19">
-        <f t="shared" si="4"/>
-        <v>280</v>
-      </c>
-      <c r="X11" s="19">
-        <f t="shared" si="4"/>
-        <v>279</v>
-      </c>
-      <c r="Y11" s="19">
-        <f t="shared" si="4"/>
-        <v>278</v>
-      </c>
-      <c r="Z11" s="19">
-        <f t="shared" si="4"/>
-        <v>277</v>
-      </c>
-      <c r="AA11" s="19">
-        <f t="shared" si="4"/>
-        <v>276</v>
-      </c>
-      <c r="AB11" s="17">
-        <v>10</v>
-      </c>
-      <c r="AC11" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="12" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" s="18">
-        <f t="shared" ref="D12:AA12" si="5">D14+24</f>
-        <v>97</v>
-      </c>
-      <c r="E12" s="18">
-        <f t="shared" si="5"/>
-        <v>98</v>
-      </c>
-      <c r="F12" s="18">
-        <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-      <c r="G12" s="18">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="H12" s="18">
-        <f t="shared" si="5"/>
-        <v>101</v>
-      </c>
-      <c r="I12" s="18">
-        <f t="shared" si="5"/>
-        <v>102</v>
-      </c>
-      <c r="J12" s="18">
-        <f t="shared" si="5"/>
-        <v>103</v>
-      </c>
-      <c r="K12" s="18">
-        <f t="shared" si="5"/>
-        <v>104</v>
-      </c>
-      <c r="L12" s="18">
-        <f t="shared" si="5"/>
-        <v>105</v>
-      </c>
-      <c r="M12" s="18">
-        <f t="shared" si="5"/>
-        <v>106</v>
-      </c>
-      <c r="N12" s="18">
-        <f t="shared" si="5"/>
-        <v>107</v>
-      </c>
-      <c r="O12" s="18">
-        <f t="shared" si="5"/>
-        <v>108</v>
-      </c>
-      <c r="P12" s="19">
-        <f>P14+24</f>
-        <v>264</v>
-      </c>
-      <c r="Q12" s="19">
-        <f t="shared" si="5"/>
-        <v>265</v>
-      </c>
-      <c r="R12" s="19">
-        <f t="shared" si="5"/>
-        <v>266</v>
-      </c>
-      <c r="S12" s="19">
-        <f t="shared" si="5"/>
-        <v>267</v>
-      </c>
-      <c r="T12" s="19">
-        <f t="shared" si="5"/>
-        <v>268</v>
-      </c>
-      <c r="U12" s="19">
-        <f t="shared" si="5"/>
-        <v>269</v>
-      </c>
-      <c r="V12" s="19">
-        <f t="shared" si="5"/>
-        <v>270</v>
-      </c>
-      <c r="W12" s="19">
-        <f t="shared" si="5"/>
-        <v>271</v>
-      </c>
-      <c r="X12" s="19">
-        <f t="shared" si="5"/>
-        <v>272</v>
-      </c>
-      <c r="Y12" s="19">
-        <f t="shared" si="5"/>
-        <v>273</v>
-      </c>
-      <c r="Z12" s="19">
-        <f t="shared" si="5"/>
-        <v>274</v>
-      </c>
-      <c r="AA12" s="19">
-        <f t="shared" si="5"/>
-        <v>275</v>
-      </c>
-      <c r="AB12" s="17">
-        <v>9</v>
-      </c>
-      <c r="AC12" s="14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C13" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="18">
-        <f>D15+24</f>
-        <v>96</v>
-      </c>
-      <c r="E13" s="18">
-        <f t="shared" ref="E13:AA13" si="6">E15+24</f>
-        <v>95</v>
-      </c>
-      <c r="F13" s="18">
-        <f t="shared" si="6"/>
-        <v>94</v>
-      </c>
-      <c r="G13" s="18">
-        <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
-      <c r="H13" s="18">
-        <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="I13" s="18">
-        <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-      <c r="J13" s="18">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="K13" s="18">
-        <f t="shared" si="6"/>
-        <v>89</v>
-      </c>
-      <c r="L13" s="18">
-        <f t="shared" si="6"/>
-        <v>88</v>
-      </c>
-      <c r="M13" s="18">
-        <f t="shared" si="6"/>
-        <v>87</v>
-      </c>
-      <c r="N13" s="18">
-        <f t="shared" si="6"/>
-        <v>86</v>
-      </c>
-      <c r="O13" s="18">
-        <f t="shared" si="6"/>
-        <v>85</v>
-      </c>
-      <c r="P13" s="19">
-        <f t="shared" si="6"/>
-        <v>263</v>
-      </c>
-      <c r="Q13" s="19">
-        <f t="shared" si="6"/>
-        <v>262</v>
-      </c>
-      <c r="R13" s="19">
-        <f t="shared" si="6"/>
-        <v>261</v>
-      </c>
-      <c r="S13" s="19">
-        <f t="shared" si="6"/>
-        <v>260</v>
-      </c>
-      <c r="T13" s="19">
-        <f t="shared" si="6"/>
-        <v>259</v>
-      </c>
-      <c r="U13" s="19">
-        <f t="shared" si="6"/>
-        <v>258</v>
-      </c>
-      <c r="V13" s="19">
-        <f t="shared" si="6"/>
-        <v>257</v>
-      </c>
-      <c r="W13" s="19">
-        <f t="shared" si="6"/>
-        <v>256</v>
-      </c>
-      <c r="X13" s="19">
-        <f t="shared" si="6"/>
-        <v>255</v>
-      </c>
-      <c r="Y13" s="19">
-        <f t="shared" si="6"/>
-        <v>254</v>
-      </c>
-      <c r="Z13" s="19">
-        <f t="shared" si="6"/>
-        <v>253</v>
-      </c>
-      <c r="AA13" s="19">
-        <f t="shared" si="6"/>
-        <v>252</v>
-      </c>
-      <c r="AB13" s="17">
-        <v>8</v>
-      </c>
-      <c r="AC13" s="14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C14" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="15">
-        <f t="shared" ref="D14:AA14" si="7">D16+24</f>
-        <v>73</v>
-      </c>
-      <c r="E14" s="15">
-        <f t="shared" si="7"/>
-        <v>74</v>
-      </c>
-      <c r="F14" s="15">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="G14" s="15">
-        <f t="shared" si="7"/>
-        <v>76</v>
-      </c>
-      <c r="H14" s="15">
-        <f t="shared" si="7"/>
-        <v>77</v>
-      </c>
-      <c r="I14" s="15">
-        <f t="shared" si="7"/>
-        <v>78</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" si="7"/>
-        <v>79</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="L14" s="15">
-        <f t="shared" si="7"/>
-        <v>81</v>
-      </c>
-      <c r="M14" s="15">
-        <f t="shared" si="7"/>
-        <v>82</v>
-      </c>
-      <c r="N14" s="15">
-        <f t="shared" si="7"/>
-        <v>83</v>
-      </c>
-      <c r="O14" s="15">
-        <f t="shared" si="7"/>
-        <v>84</v>
-      </c>
-      <c r="P14" s="16">
-        <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="Q14" s="16">
-        <f t="shared" si="7"/>
-        <v>241</v>
-      </c>
-      <c r="R14" s="16">
-        <f t="shared" si="7"/>
-        <v>242</v>
-      </c>
-      <c r="S14" s="16">
-        <f t="shared" si="7"/>
-        <v>243</v>
-      </c>
-      <c r="T14" s="16">
-        <f t="shared" si="7"/>
-        <v>244</v>
-      </c>
-      <c r="U14" s="16">
-        <f t="shared" si="7"/>
-        <v>245</v>
-      </c>
-      <c r="V14" s="16">
-        <f t="shared" si="7"/>
-        <v>246</v>
-      </c>
-      <c r="W14" s="16">
-        <f t="shared" si="7"/>
-        <v>247</v>
-      </c>
-      <c r="X14" s="16">
-        <f t="shared" si="7"/>
-        <v>248</v>
-      </c>
-      <c r="Y14" s="16">
-        <f t="shared" si="7"/>
-        <v>249</v>
-      </c>
-      <c r="Z14" s="16">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="AA14" s="16">
-        <f t="shared" si="7"/>
-        <v>251</v>
-      </c>
-      <c r="AB14" s="17">
-        <v>7</v>
-      </c>
-      <c r="AC14" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C15" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="15">
-        <f t="shared" ref="D15:AA15" si="8">D17+24</f>
-        <v>72</v>
-      </c>
-      <c r="E15" s="15">
-        <f t="shared" si="8"/>
-        <v>71</v>
-      </c>
-      <c r="F15" s="15">
-        <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="G15" s="15">
-        <f t="shared" si="8"/>
-        <v>69</v>
-      </c>
-      <c r="H15" s="15">
-        <f t="shared" si="8"/>
-        <v>68</v>
-      </c>
-      <c r="I15" s="15">
-        <f t="shared" si="8"/>
-        <v>67</v>
-      </c>
-      <c r="J15" s="15">
-        <f t="shared" si="8"/>
-        <v>66</v>
-      </c>
-      <c r="K15" s="15">
-        <f t="shared" si="8"/>
-        <v>65</v>
-      </c>
-      <c r="L15" s="15">
-        <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="M15" s="15">
-        <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-      <c r="N15" s="15">
-        <f t="shared" si="8"/>
-        <v>62</v>
-      </c>
-      <c r="O15" s="15">
-        <f t="shared" si="8"/>
-        <v>61</v>
-      </c>
-      <c r="P15" s="16">
-        <f t="shared" si="8"/>
-        <v>239</v>
-      </c>
-      <c r="Q15" s="16">
-        <f t="shared" si="8"/>
-        <v>238</v>
-      </c>
-      <c r="R15" s="16">
-        <f t="shared" si="8"/>
-        <v>237</v>
-      </c>
-      <c r="S15" s="16">
-        <f t="shared" si="8"/>
-        <v>236</v>
-      </c>
-      <c r="T15" s="16">
-        <f t="shared" si="8"/>
-        <v>235</v>
-      </c>
-      <c r="U15" s="16">
-        <f t="shared" si="8"/>
-        <v>234</v>
-      </c>
-      <c r="V15" s="16">
-        <f t="shared" si="8"/>
-        <v>233</v>
-      </c>
-      <c r="W15" s="16">
-        <f t="shared" si="8"/>
-        <v>232</v>
-      </c>
-      <c r="X15" s="16">
-        <f t="shared" si="8"/>
-        <v>231</v>
-      </c>
-      <c r="Y15" s="16">
-        <f t="shared" si="8"/>
-        <v>230</v>
-      </c>
-      <c r="Z15" s="16">
-        <f t="shared" si="8"/>
-        <v>229</v>
-      </c>
-      <c r="AA15" s="16">
-        <f t="shared" si="8"/>
-        <v>228</v>
-      </c>
-      <c r="AB15" s="17">
-        <v>6</v>
-      </c>
-      <c r="AC15" s="14" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C16" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="15">
-        <f>D18+24</f>
-        <v>49</v>
-      </c>
-      <c r="E16" s="15">
-        <f t="shared" ref="E16:AA16" si="9">E18+24</f>
-        <v>50</v>
-      </c>
-      <c r="F16" s="15">
-        <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="G16" s="15">
-        <f t="shared" si="9"/>
-        <v>52</v>
-      </c>
-      <c r="H16" s="15">
-        <f t="shared" si="9"/>
-        <v>53</v>
-      </c>
-      <c r="I16" s="15">
-        <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="J16" s="15">
-        <f t="shared" si="9"/>
-        <v>55</v>
-      </c>
-      <c r="K16" s="15">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="L16" s="15">
-        <f t="shared" si="9"/>
-        <v>57</v>
-      </c>
-      <c r="M16" s="15">
-        <f t="shared" si="9"/>
-        <v>58</v>
-      </c>
-      <c r="N16" s="15">
-        <f t="shared" si="9"/>
-        <v>59</v>
-      </c>
-      <c r="O16" s="15">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="P16" s="16">
-        <f t="shared" si="9"/>
-        <v>216</v>
-      </c>
-      <c r="Q16" s="16">
-        <f t="shared" si="9"/>
-        <v>217</v>
-      </c>
-      <c r="R16" s="16">
-        <f t="shared" si="9"/>
-        <v>218</v>
-      </c>
-      <c r="S16" s="16">
-        <f t="shared" si="9"/>
-        <v>219</v>
-      </c>
-      <c r="T16" s="16">
-        <f t="shared" si="9"/>
-        <v>220</v>
-      </c>
-      <c r="U16" s="16">
-        <f t="shared" si="9"/>
-        <v>221</v>
-      </c>
-      <c r="V16" s="16">
-        <f t="shared" si="9"/>
-        <v>222</v>
-      </c>
-      <c r="W16" s="16">
-        <f t="shared" si="9"/>
-        <v>223</v>
-      </c>
-      <c r="X16" s="16">
-        <f t="shared" si="9"/>
-        <v>224</v>
-      </c>
-      <c r="Y16" s="16">
-        <f t="shared" si="9"/>
-        <v>225</v>
-      </c>
-      <c r="Z16" s="16">
-        <f t="shared" si="9"/>
-        <v>226</v>
-      </c>
-      <c r="AA16" s="16">
-        <f t="shared" si="9"/>
-        <v>227</v>
-      </c>
-      <c r="AB16" s="17">
-        <v>5</v>
-      </c>
-      <c r="AC16" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C17" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" s="15">
-        <f t="shared" ref="D17:H17" si="10">D19+24</f>
-        <v>48</v>
-      </c>
-      <c r="E17" s="15">
-        <f t="shared" si="10"/>
-        <v>47</v>
-      </c>
-      <c r="F17" s="15">
-        <f t="shared" si="10"/>
-        <v>46</v>
-      </c>
-      <c r="G17" s="15">
-        <f t="shared" si="10"/>
-        <v>45</v>
-      </c>
-      <c r="H17" s="15">
-        <f t="shared" si="10"/>
-        <v>44</v>
-      </c>
-      <c r="I17" s="15">
-        <f>I19+24</f>
-        <v>43</v>
-      </c>
-      <c r="J17" s="18">
-        <v>42</v>
-      </c>
-      <c r="K17" s="18">
-        <v>41</v>
-      </c>
-      <c r="L17" s="18">
-        <v>40</v>
-      </c>
-      <c r="M17" s="18">
-        <v>39</v>
-      </c>
-      <c r="N17" s="18">
-        <v>38</v>
-      </c>
-      <c r="O17" s="18">
-        <v>37</v>
-      </c>
-      <c r="P17" s="16">
-        <f>P19+24</f>
-        <v>215</v>
-      </c>
-      <c r="Q17" s="16">
-        <f t="shared" ref="Q17:U17" si="11">Q19+24</f>
-        <v>214</v>
-      </c>
-      <c r="R17" s="16">
-        <f t="shared" si="11"/>
-        <v>213</v>
-      </c>
-      <c r="S17" s="16">
-        <f t="shared" si="11"/>
-        <v>212</v>
-      </c>
-      <c r="T17" s="16">
-        <f t="shared" si="11"/>
-        <v>211</v>
-      </c>
-      <c r="U17" s="16">
-        <f t="shared" si="11"/>
-        <v>210</v>
-      </c>
-      <c r="V17" s="19">
-        <f t="shared" ref="V17:AA17" si="12">V19+24</f>
-        <v>209</v>
-      </c>
-      <c r="W17" s="19">
-        <f t="shared" si="12"/>
-        <v>208</v>
-      </c>
-      <c r="X17" s="19">
-        <f t="shared" si="12"/>
-        <v>207</v>
-      </c>
-      <c r="Y17" s="19">
-        <f t="shared" si="12"/>
-        <v>206</v>
-      </c>
-      <c r="Z17" s="19">
-        <f t="shared" si="12"/>
-        <v>205</v>
-      </c>
-      <c r="AA17" s="19">
-        <f t="shared" si="12"/>
-        <v>204</v>
-      </c>
-      <c r="AB17" s="17">
-        <v>4</v>
-      </c>
-      <c r="AC17" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C18" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="18">
-        <v>25</v>
-      </c>
-      <c r="E18" s="18">
-        <v>26</v>
-      </c>
-      <c r="F18" s="18">
-        <v>2</v>
-      </c>
-      <c r="G18" s="18">
-        <v>28</v>
-      </c>
-      <c r="H18" s="18">
-        <v>29</v>
-      </c>
-      <c r="I18" s="18">
-        <v>30</v>
-      </c>
-      <c r="J18" s="18">
-        <v>31</v>
-      </c>
-      <c r="K18" s="18">
-        <v>32</v>
-      </c>
-      <c r="L18" s="18">
-        <v>33</v>
-      </c>
-      <c r="M18" s="18">
-        <v>34</v>
-      </c>
-      <c r="N18" s="18">
-        <v>35</v>
-      </c>
-      <c r="O18" s="18">
-        <v>36</v>
-      </c>
-      <c r="P18" s="19">
-        <f>P20+24</f>
-        <v>192</v>
-      </c>
-      <c r="Q18" s="19">
-        <f t="shared" ref="Q18:AA18" si="13">Q20+24</f>
-        <v>193</v>
-      </c>
-      <c r="R18" s="19">
-        <f t="shared" si="13"/>
-        <v>194</v>
-      </c>
-      <c r="S18" s="19">
-        <f t="shared" si="13"/>
-        <v>195</v>
-      </c>
-      <c r="T18" s="19">
-        <f t="shared" si="13"/>
-        <v>196</v>
-      </c>
-      <c r="U18" s="19">
-        <f t="shared" si="13"/>
-        <v>197</v>
-      </c>
-      <c r="V18" s="19">
-        <f t="shared" si="13"/>
-        <v>198</v>
-      </c>
-      <c r="W18" s="19">
-        <f t="shared" si="13"/>
-        <v>199</v>
-      </c>
-      <c r="X18" s="19">
-        <f t="shared" si="13"/>
-        <v>200</v>
-      </c>
-      <c r="Y18" s="19">
-        <f t="shared" si="13"/>
-        <v>201</v>
-      </c>
-      <c r="Z18" s="19">
-        <f t="shared" si="13"/>
-        <v>202</v>
-      </c>
-      <c r="AA18" s="19">
-        <f t="shared" si="13"/>
-        <v>203</v>
-      </c>
-      <c r="AB18" s="17">
-        <v>3</v>
-      </c>
-      <c r="AC18" s="14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C19" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="18">
-        <v>24</v>
-      </c>
-      <c r="E19" s="18">
-        <v>23</v>
-      </c>
-      <c r="F19" s="18">
-        <v>22</v>
-      </c>
-      <c r="G19" s="18">
-        <v>21</v>
-      </c>
-      <c r="H19" s="18">
-        <v>20</v>
-      </c>
-      <c r="I19" s="18">
-        <v>19</v>
-      </c>
-      <c r="J19" s="18">
-        <v>18</v>
-      </c>
-      <c r="K19" s="18">
-        <v>17</v>
-      </c>
-      <c r="L19" s="18">
-        <v>16</v>
-      </c>
-      <c r="M19" s="18">
-        <v>15</v>
-      </c>
-      <c r="N19" s="18">
-        <v>14</v>
-      </c>
-      <c r="O19" s="18">
-        <v>13</v>
-      </c>
-      <c r="P19" s="19">
-        <v>191</v>
-      </c>
-      <c r="Q19" s="19">
-        <v>190</v>
-      </c>
-      <c r="R19" s="19">
-        <v>189</v>
-      </c>
-      <c r="S19" s="19">
-        <v>188</v>
-      </c>
-      <c r="T19" s="19">
-        <v>187</v>
-      </c>
-      <c r="U19" s="19">
-        <v>186</v>
-      </c>
-      <c r="V19" s="19">
-        <v>185</v>
-      </c>
-      <c r="W19" s="19">
-        <v>184</v>
-      </c>
-      <c r="X19" s="19">
-        <v>183</v>
-      </c>
-      <c r="Y19" s="19">
-        <v>182</v>
-      </c>
-      <c r="Z19" s="19">
-        <v>181</v>
-      </c>
-      <c r="AA19" s="19">
-        <v>180</v>
-      </c>
-      <c r="AB19" s="17">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C20" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" s="18">
+      <c r="CK20" s="20">
         <v>1</v>
       </c>
-      <c r="E20" s="18">
-        <v>2</v>
-      </c>
-      <c r="F20" s="18">
-        <v>3</v>
-      </c>
-      <c r="G20" s="18">
-        <v>4</v>
-      </c>
-      <c r="H20" s="18">
-        <v>5</v>
-      </c>
-      <c r="I20" s="18">
-        <v>6</v>
-      </c>
-      <c r="J20" s="18">
-        <v>7</v>
-      </c>
-      <c r="K20" s="18">
-        <v>8</v>
-      </c>
-      <c r="L20" s="18">
-        <v>9</v>
-      </c>
-      <c r="M20" s="18">
-        <v>10</v>
-      </c>
-      <c r="N20" s="18">
-        <v>11</v>
-      </c>
-      <c r="O20" s="18">
-        <v>12</v>
-      </c>
-      <c r="P20" s="19">
-        <v>168</v>
-      </c>
-      <c r="Q20" s="19">
-        <v>169</v>
-      </c>
-      <c r="R20" s="19">
-        <v>170</v>
-      </c>
-      <c r="S20" s="19">
-        <v>171</v>
-      </c>
-      <c r="T20" s="19">
-        <v>172</v>
-      </c>
-      <c r="U20" s="19">
-        <v>173</v>
-      </c>
-      <c r="V20" s="19">
-        <v>174</v>
-      </c>
-      <c r="W20" s="19">
-        <v>175</v>
-      </c>
-      <c r="X20" s="19">
-        <v>176</v>
-      </c>
-      <c r="Y20" s="19">
-        <v>177</v>
-      </c>
-      <c r="Z20" s="19">
-        <v>178</v>
-      </c>
-      <c r="AA20" s="19">
-        <v>179</v>
-      </c>
-      <c r="AB20" s="17">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="14" t="s">
+      <c r="CL20" s="19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="3:32" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:90" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C23" s="5" t="s">
         <v>191</v>
       </c>
@@ -7015,10 +10022,63 @@
         <v>191</v>
       </c>
       <c r="AD23" s="4"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="7"/>
-    </row>
-    <row r="24" spans="3:32" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="AG23" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="3:90" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C24" s="3">
         <v>1</v>
       </c>
@@ -7075,20 +10135,578 @@
         <v>27</v>
       </c>
       <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="7"/>
+      <c r="AG24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3">
+        <v>3</v>
+      </c>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3">
+        <v>5</v>
+      </c>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3">
+        <v>9</v>
+      </c>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3">
+        <v>11</v>
+      </c>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3">
+        <v>13</v>
+      </c>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4">
+        <v>15</v>
+      </c>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4">
+        <v>17</v>
+      </c>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4">
+        <v>19</v>
+      </c>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4">
+        <v>21</v>
+      </c>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4">
+        <v>23</v>
+      </c>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4">
+        <v>25</v>
+      </c>
+      <c r="BF24" s="4"/>
+      <c r="BG24" s="4">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="BM7:BX20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM7:CJ20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="49" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8A838F-B64A-46C6-8918-951D4317ADB3}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>663</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>662</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>663</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B2" s="26">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26">
+        <f>A2*B2</f>
+        <v>5.5</v>
+      </c>
+      <c r="E2" s="26">
+        <v>3</v>
+      </c>
+      <c r="F2" s="26">
+        <v>1</v>
+      </c>
+      <c r="G2" s="26">
+        <f>E2*F2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B3" s="26">
+        <v>2</v>
+      </c>
+      <c r="C3" s="26">
+        <f t="shared" ref="C3:C21" si="0">A3*B3</f>
+        <v>11</v>
+      </c>
+      <c r="E3" s="26">
+        <v>3</v>
+      </c>
+      <c r="F3" s="26">
+        <v>2</v>
+      </c>
+      <c r="G3" s="26">
+        <f t="shared" ref="G3:G21" si="1">E3*F3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B4" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="E4" s="26">
+        <v>3</v>
+      </c>
+      <c r="F4" s="26">
+        <v>3</v>
+      </c>
+      <c r="G4" s="26">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B5" s="26">
+        <v>4</v>
+      </c>
+      <c r="C5" s="26">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E5" s="26">
+        <v>3</v>
+      </c>
+      <c r="F5" s="26">
+        <v>4</v>
+      </c>
+      <c r="G5" s="26">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B6" s="26">
+        <v>5</v>
+      </c>
+      <c r="C6" s="26">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="E6" s="26">
+        <v>3</v>
+      </c>
+      <c r="F6" s="26">
+        <v>5</v>
+      </c>
+      <c r="G6" s="26">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B7" s="26">
+        <v>6</v>
+      </c>
+      <c r="C7" s="26">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E7" s="26">
+        <v>3</v>
+      </c>
+      <c r="F7" s="26">
+        <v>6</v>
+      </c>
+      <c r="G7" s="26">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B8" s="26">
+        <v>7</v>
+      </c>
+      <c r="C8" s="26">
+        <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
+      <c r="E8" s="26">
+        <v>3</v>
+      </c>
+      <c r="F8" s="26">
+        <v>7</v>
+      </c>
+      <c r="G8" s="26">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B9" s="26">
+        <v>8</v>
+      </c>
+      <c r="C9" s="26">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E9" s="26">
+        <v>3</v>
+      </c>
+      <c r="F9" s="26">
+        <v>8</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B10" s="26">
+        <v>9</v>
+      </c>
+      <c r="C10" s="26">
+        <f t="shared" si="0"/>
+        <v>49.5</v>
+      </c>
+      <c r="E10" s="26">
+        <v>3</v>
+      </c>
+      <c r="F10" s="26">
+        <v>9</v>
+      </c>
+      <c r="G10" s="26">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B11" s="26">
+        <v>10</v>
+      </c>
+      <c r="C11" s="26">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E11" s="26">
+        <v>3</v>
+      </c>
+      <c r="F11" s="26">
+        <v>10</v>
+      </c>
+      <c r="G11" s="26">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B12" s="26">
+        <v>11</v>
+      </c>
+      <c r="C12" s="26">
+        <f t="shared" si="0"/>
+        <v>60.5</v>
+      </c>
+      <c r="E12" s="26">
+        <v>3</v>
+      </c>
+      <c r="F12" s="26">
+        <v>11</v>
+      </c>
+      <c r="G12" s="26">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B13" s="26">
+        <v>12</v>
+      </c>
+      <c r="C13" s="26">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E13" s="26">
+        <v>3</v>
+      </c>
+      <c r="F13" s="26">
+        <v>12</v>
+      </c>
+      <c r="G13" s="26">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B14" s="26">
+        <v>13</v>
+      </c>
+      <c r="C14" s="26">
+        <f t="shared" si="0"/>
+        <v>71.5</v>
+      </c>
+      <c r="E14" s="26">
+        <v>3</v>
+      </c>
+      <c r="F14" s="26">
+        <v>13</v>
+      </c>
+      <c r="G14" s="26">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B15" s="26">
+        <v>14</v>
+      </c>
+      <c r="C15" s="26">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E15" s="26">
+        <v>3</v>
+      </c>
+      <c r="F15" s="26">
+        <v>14</v>
+      </c>
+      <c r="G15" s="26">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B16" s="26">
+        <v>15</v>
+      </c>
+      <c r="C16" s="26">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+      <c r="E16" s="26">
+        <v>3</v>
+      </c>
+      <c r="F16" s="26">
+        <v>15</v>
+      </c>
+      <c r="G16" s="26">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B17" s="26">
+        <v>16</v>
+      </c>
+      <c r="C17" s="26">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="E17" s="26">
+        <v>3</v>
+      </c>
+      <c r="F17" s="26">
+        <v>16</v>
+      </c>
+      <c r="G17" s="26">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B18" s="26">
+        <v>17</v>
+      </c>
+      <c r="C18" s="26">
+        <f t="shared" si="0"/>
+        <v>93.5</v>
+      </c>
+      <c r="E18" s="26">
+        <v>3</v>
+      </c>
+      <c r="F18" s="26">
+        <v>17</v>
+      </c>
+      <c r="G18" s="26">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B19" s="26">
+        <v>18</v>
+      </c>
+      <c r="C19" s="26">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="E19" s="26">
+        <v>3</v>
+      </c>
+      <c r="F19" s="26">
+        <v>18</v>
+      </c>
+      <c r="G19" s="26">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B20" s="26">
+        <v>19</v>
+      </c>
+      <c r="C20" s="26">
+        <f t="shared" si="0"/>
+        <v>104.5</v>
+      </c>
+      <c r="E20" s="26">
+        <v>3</v>
+      </c>
+      <c r="F20" s="26">
+        <v>19</v>
+      </c>
+      <c r="G20" s="26">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="B21" s="26">
+        <v>20</v>
+      </c>
+      <c r="C21" s="26">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="E21" s="26">
+        <v>3</v>
+      </c>
+      <c r="F21" s="26">
+        <v>20</v>
+      </c>
+      <c r="G21" s="26">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87E3149-F9DD-4EEA-98FE-2BE3A4575C08}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7602,12 +11220,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8182AD-1F8B-4032-B388-AB87E57B275B}">
   <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1048576"/>
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7884,7 +11502,7 @@
       <c r="A6" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>83.68</v>
       </c>
       <c r="C6">
@@ -7996,7 +11614,7 @@
       <c r="A8" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>3.5</v>
       </c>
       <c r="C8">
@@ -8090,7 +11708,7 @@
       <c r="A10" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>3.83</v>
       </c>
       <c r="C10">
@@ -8137,7 +11755,7 @@
       <c r="A11" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>58.49</v>
       </c>
       <c r="C11">
@@ -8196,7 +11814,7 @@
       <c r="A12" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>1.01</v>
       </c>
       <c r="C12">
@@ -8290,7 +11908,7 @@
       <c r="A14" t="s">
         <v>206</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>68.900000000000006</v>
       </c>
       <c r="C14">
@@ -8349,7 +11967,7 @@
       <c r="A15" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>7.88</v>
       </c>
       <c r="C15">
@@ -8396,7 +12014,7 @@
       <c r="A16" t="s">
         <v>208</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>61.54</v>
       </c>
       <c r="C16">
@@ -8455,7 +12073,7 @@
       <c r="A17" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>0.21</v>
       </c>
       <c r="C17">
@@ -8502,7 +12120,7 @@
       <c r="A18" t="s">
         <v>210</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>4.95</v>
       </c>
       <c r="C18">
@@ -8549,7 +12167,7 @@
       <c r="A19" t="s">
         <v>211</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>5.58</v>
       </c>
       <c r="C19">
@@ -8643,7 +12261,7 @@
       <c r="A21" t="s">
         <v>213</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>26.51</v>
       </c>
       <c r="C21">
@@ -8702,7 +12320,7 @@
       <c r="A22" t="s">
         <v>214</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>53.38</v>
       </c>
       <c r="C22">
@@ -8808,7 +12426,7 @@
       <c r="A24" t="s">
         <v>216</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>5.22</v>
       </c>
       <c r="C24">
@@ -8855,7 +12473,7 @@
       <c r="A25" t="s">
         <v>217</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>31.36</v>
       </c>
       <c r="C25">
@@ -8961,7 +12579,7 @@
       <c r="A27" t="s">
         <v>219</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>72.319999999999993</v>
       </c>
       <c r="C27">
@@ -9020,7 +12638,7 @@
       <c r="A28" t="s">
         <v>220</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>35.31</v>
       </c>
       <c r="C28">
@@ -9079,7 +12697,7 @@
       <c r="A29" t="s">
         <v>221</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>4.96</v>
       </c>
       <c r="C29">
@@ -9126,7 +12744,7 @@
       <c r="A30" t="s">
         <v>222</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>0.64</v>
       </c>
       <c r="C30">
@@ -9173,7 +12791,7 @@
       <c r="A31" t="s">
         <v>223</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>5.33</v>
       </c>
       <c r="C31">
@@ -9220,7 +12838,7 @@
       <c r="A32" t="s">
         <v>224</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>10.6</v>
       </c>
       <c r="C32">
@@ -9273,7 +12891,7 @@
       <c r="A33" t="s">
         <v>145</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>99.23</v>
       </c>
       <c r="C33">
@@ -9326,7 +12944,7 @@
       <c r="A34" t="s">
         <v>225</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>29.07</v>
       </c>
       <c r="C34">
@@ -9385,7 +13003,7 @@
       <c r="A35" t="s">
         <v>226</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>33.020000000000003</v>
       </c>
       <c r="C35">
@@ -9438,7 +13056,7 @@
       <c r="A36" t="s">
         <v>227</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>7.17</v>
       </c>
       <c r="C36">
@@ -9485,7 +13103,7 @@
       <c r="A37" t="s">
         <v>228</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <v>29.74</v>
       </c>
       <c r="C37">
@@ -9544,7 +13162,7 @@
       <c r="A38" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>120.98</v>
       </c>
       <c r="C38">
@@ -9597,7 +13215,7 @@
       <c r="A39" t="s">
         <v>229</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>7.2</v>
       </c>
       <c r="C39">
@@ -9785,7 +13403,7 @@
       <c r="A43" t="s">
         <v>233</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>40.58</v>
       </c>
       <c r="C43">
@@ -9832,7 +13450,7 @@
       <c r="A44" t="s">
         <v>234</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>5.97</v>
       </c>
       <c r="C44">
@@ -9879,7 +13497,7 @@
       <c r="A45" t="s">
         <v>235</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>9.09</v>
       </c>
       <c r="C45">
@@ -9973,7 +13591,7 @@
       <c r="A47" t="s">
         <v>237</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>5.52</v>
       </c>
       <c r="C47">
@@ -10020,7 +13638,7 @@
       <c r="A48" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <v>7.49</v>
       </c>
       <c r="C48">
@@ -10067,7 +13685,7 @@
       <c r="A49" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>144.16999999999999</v>
       </c>
       <c r="C49">
@@ -10167,7 +13785,7 @@
       <c r="A51" t="s">
         <v>240</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>18.73</v>
       </c>
       <c r="C51">
@@ -10226,7 +13844,7 @@
       <c r="A52" t="s">
         <v>241</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="8">
         <v>57.13</v>
       </c>
       <c r="C52">
@@ -10285,7 +13903,7 @@
       <c r="A53" t="s">
         <v>242</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="8">
         <v>67.430000000000007</v>
       </c>
       <c r="C53">
@@ -10344,7 +13962,7 @@
       <c r="A54" t="s">
         <v>243</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="9">
         <v>4.12</v>
       </c>
       <c r="C54">
@@ -10438,7 +14056,7 @@
       <c r="A56" t="s">
         <v>245</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>17.149999999999999</v>
       </c>
       <c r="C56">
@@ -10497,7 +14115,7 @@
       <c r="A57" t="s">
         <v>246</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="8">
         <v>27.47</v>
       </c>
       <c r="C57">
@@ -10553,10 +14171,10 @@
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="8">
         <v>18.32</v>
       </c>
       <c r="C58">
@@ -10615,7 +14233,7 @@
       <c r="A59" t="s">
         <v>248</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="8">
         <v>53.46</v>
       </c>
       <c r="C59">
@@ -10674,7 +14292,7 @@
       <c r="A60" t="s">
         <v>249</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="9">
         <v>0.81</v>
       </c>
       <c r="C60">
@@ -10768,7 +14386,7 @@
       <c r="A62" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="8">
         <v>37.33</v>
       </c>
       <c r="C62">
@@ -10827,7 +14445,7 @@
       <c r="A63" t="s">
         <v>252</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="8">
         <v>42.4</v>
       </c>
       <c r="C63">
@@ -10886,7 +14504,7 @@
       <c r="A64" t="s">
         <v>152</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>132.53</v>
       </c>
       <c r="C64">
@@ -10939,7 +14557,7 @@
       <c r="A65" t="s">
         <v>253</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="8">
         <v>42.79</v>
       </c>
       <c r="C65">
@@ -10998,7 +14616,7 @@
       <c r="A66" t="s">
         <v>154</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>92.8</v>
       </c>
       <c r="C66">
@@ -11051,7 +14669,7 @@
       <c r="A67" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>126.29</v>
       </c>
       <c r="C67">
@@ -11104,7 +14722,7 @@
       <c r="A68" t="s">
         <v>254</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="8">
         <v>81.66</v>
       </c>
       <c r="C68">
@@ -11163,7 +14781,7 @@
       <c r="A69" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>139.22999999999999</v>
       </c>
       <c r="C69">
@@ -11216,7 +14834,7 @@
       <c r="A70" t="s">
         <v>160</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>98.59</v>
       </c>
       <c r="C70">
@@ -11269,7 +14887,7 @@
       <c r="A71" t="s">
         <v>162</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>158.56</v>
       </c>
       <c r="C71">
@@ -11322,7 +14940,7 @@
       <c r="A72" t="s">
         <v>255</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="9">
         <v>4.01</v>
       </c>
       <c r="C72">
@@ -11369,7 +14987,7 @@
       <c r="A73" t="s">
         <v>164</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>117.61</v>
       </c>
       <c r="C73">
@@ -11422,7 +15040,7 @@
       <c r="A74" t="s">
         <v>166</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>138.80000000000001</v>
       </c>
       <c r="C74">
@@ -11475,7 +15093,7 @@
       <c r="A75" t="s">
         <v>168</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>186.69</v>
       </c>
       <c r="C75">
@@ -11528,7 +15146,7 @@
       <c r="A76" t="s">
         <v>256</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="8">
         <v>53.77</v>
       </c>
       <c r="C76">
@@ -11587,7 +15205,7 @@
       <c r="A77" t="s">
         <v>257</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="9">
         <v>2.1</v>
       </c>
       <c r="C77">
@@ -11634,7 +15252,7 @@
       <c r="A78" t="s">
         <v>258</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="8">
         <v>48.04</v>
       </c>
       <c r="C78">
@@ -11693,7 +15311,7 @@
       <c r="A79" t="s">
         <v>170</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>91.7</v>
       </c>
       <c r="C79">
@@ -11743,7 +15361,7 @@
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="7" t="s">
         <v>259</v>
       </c>
       <c r="B80">
@@ -11808,7 +15426,7 @@
       <c r="A81" t="s">
         <v>260</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="8">
         <v>10</v>
       </c>
       <c r="C81">
@@ -11855,7 +15473,7 @@
       <c r="A82" t="s">
         <v>261</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="9">
         <v>0.7</v>
       </c>
       <c r="C82">
@@ -11902,7 +15520,7 @@
       <c r="A83" t="s">
         <v>172</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="7">
         <v>112.2</v>
       </c>
       <c r="C83">
@@ -12002,7 +15620,7 @@
       <c r="A85" t="s">
         <v>263</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="9">
         <v>1.66</v>
       </c>
       <c r="C85">
@@ -12049,7 +15667,7 @@
       <c r="A86" t="s">
         <v>264</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="9">
         <v>1.56</v>
       </c>
       <c r="C86">
@@ -12096,7 +15714,7 @@
       <c r="A87" t="s">
         <v>265</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="9">
         <v>0.44</v>
       </c>
       <c r="C87">
@@ -12143,7 +15761,7 @@
       <c r="A88" t="s">
         <v>266</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="9">
         <v>3.37</v>
       </c>
       <c r="C88">
@@ -12190,7 +15808,7 @@
       <c r="A89" t="s">
         <v>267</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="9">
         <v>1.83</v>
       </c>
       <c r="C89">
@@ -12343,7 +15961,7 @@
       <c r="A92" t="s">
         <v>269</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="9">
         <v>7.42</v>
       </c>
       <c r="C92">
@@ -12449,7 +16067,7 @@
       <c r="A94" t="s">
         <v>174</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="7">
         <v>120.71</v>
       </c>
       <c r="C94">
@@ -12502,7 +16120,7 @@
       <c r="A95" t="s">
         <v>271</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" s="8">
         <v>47.45</v>
       </c>
       <c r="C95">
@@ -12564,7 +16182,7 @@
       <c r="A96" t="s">
         <v>272</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="9">
         <v>2.08</v>
       </c>
       <c r="C96">
@@ -12611,7 +16229,7 @@
       <c r="A97" t="s">
         <v>176</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="7">
         <v>129.85</v>
       </c>
       <c r="C97">
@@ -12668,7 +16286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD20571F-805B-4FA3-9A8D-56C694F5FDCD}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
@@ -17842,12 +21460,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05ED35B1-ED4A-4F8F-AC71-2DF5A060C2ED}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17868,9 +21486,10 @@
     <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>278</v>
       </c>
@@ -17922,12 +21541,15 @@
       <c r="Q1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>177</v>
       </c>
       <c r="C2">
@@ -17952,7 +21574,7 @@
       <c r="I2" t="s">
         <v>288</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <v>60</v>
       </c>
       <c r="K2">
@@ -17970,7 +21592,7 @@
       <c r="N2">
         <v>6</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="11">
         <f>M2*N2</f>
         <v>466.98749999999995</v>
       </c>
@@ -17981,8 +21603,31 @@
         <f>P2/N2</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24</v>
       </c>
@@ -17994,38 +21639,89 @@
         <f>B7/150</f>
         <v>0.96</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V16">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V19">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -18033,8 +21729,11 @@
         <f>72*2</f>
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>295</v>
       </c>
@@ -18042,8 +21741,11 @@
         <f>16*2</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>292</v>
       </c>
@@ -18051,8 +21753,11 @@
         <f>8*2</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>296</v>
       </c>
@@ -18060,8 +21765,11 @@
         <f>SUM(B20:B22)</f>
         <v>192</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V23">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>20.49</v>
       </c>
@@ -18070,22 +21778,22 @@
         <v>20.754999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>21.37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>20.77</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>20.39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32">
         <f>SUM(B28:B31)</f>
         <v>83.02</v>
@@ -18096,12 +21804,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D02B578-6E2B-4B98-BD2E-1A6AD125260B}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/planning.xlsx
+++ b/data/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02F7A79-5974-464E-914C-8BC8A9C224D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2E4710-A13B-4FBE-9CEE-479665416E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="375" yWindow="240" windowWidth="31410" windowHeight="19080" xr2:uid="{BEFE39CF-4712-4775-9411-5C503787578E}"/>
   </bookViews>
@@ -2653,7 +2653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E147DB-166A-44B5-BCC5-098A0311CA8B}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>

--- a/data/planning.xlsx
+++ b/data/planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2E4710-A13B-4FBE-9CEE-479665416E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C31350-EA5C-4289-B536-AF983C713903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="240" windowWidth="31410" windowHeight="19080" xr2:uid="{BEFE39CF-4712-4775-9411-5C503787578E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BEFE39CF-4712-4775-9411-5C503787578E}"/>
   </bookViews>
   <sheets>
     <sheet name="selections" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="667">
   <si>
     <t>observationUnitName</t>
   </si>
@@ -2045,6 +2045,9 @@
   </si>
   <si>
     <t>pea_seed_lot_plots</t>
+  </si>
+  <si>
+    <t>sourcePlot</t>
   </si>
 </sst>
 </file>
@@ -2651,10 +2654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E147DB-166A-44B5-BCC5-098A0311CA8B}">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,7 +2673,7 @@
     <col min="9" max="9" width="70.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>303</v>
       </c>
@@ -2695,8 +2698,11 @@
       <c r="I1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2725,8 +2731,11 @@
         <f>_xlfn.CONCAT(D2,"-",C2)</f>
         <v>NF13-4126-4_3-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_338</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2755,8 +2764,11 @@
         <f t="shared" ref="I3:I66" si="0">_xlfn.CONCAT(D3,"-",C3)</f>
         <v>Gerard 227-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_249</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2785,8 +2797,11 @@
         <f t="shared" si="0"/>
         <v>NC20-4526-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_31</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2815,8 +2830,11 @@
         <f t="shared" si="0"/>
         <v>NC20-4452-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_97</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2845,8 +2863,11 @@
         <f t="shared" si="0"/>
         <v>NC21-6429-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_16</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2875,8 +2896,11 @@
         <f t="shared" si="0"/>
         <v>NF99414-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_174</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2905,8 +2929,11 @@
         <f t="shared" si="0"/>
         <v>AURORA-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_24</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2935,8 +2962,11 @@
         <f t="shared" si="0"/>
         <v>LA17089SBS-45-1-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_223</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2965,8 +2995,11 @@
         <f t="shared" si="0"/>
         <v>HARRISON-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_56</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2995,8 +3028,11 @@
         <f t="shared" si="0"/>
         <v>PA7617-3460-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_212</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3025,8 +3061,11 @@
         <f t="shared" si="0"/>
         <v>NC21-6492-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_128</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3055,8 +3094,11 @@
         <f t="shared" si="0"/>
         <v>LA17153SBSS-46-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_180</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3085,8 +3127,11 @@
         <f t="shared" si="0"/>
         <v>TX18OCS9125-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_10</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3115,8 +3160,11 @@
         <f t="shared" si="0"/>
         <v>Horizon 578-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_282</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3145,8 +3193,11 @@
         <f t="shared" si="0"/>
         <v>NC20-4551-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_49</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3175,8 +3226,11 @@
         <f t="shared" si="0"/>
         <v>NC21-6511-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_367</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3205,8 +3259,11 @@
         <f t="shared" si="0"/>
         <v>NF01404A-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_159</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3235,8 +3292,11 @@
         <f t="shared" si="0"/>
         <v>NC21-6610-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_100</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3265,8 +3325,11 @@
         <f t="shared" si="0"/>
         <v>FLLA17088-77-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_48</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3295,8 +3358,11 @@
         <f t="shared" si="0"/>
         <v>NC20-4700-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_247</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3325,8 +3391,11 @@
         <f t="shared" si="0"/>
         <v>LA99016-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_237</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3355,8 +3424,11 @@
         <f t="shared" si="0"/>
         <v>OKAY-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_233</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3385,8 +3457,11 @@
         <f t="shared" si="0"/>
         <v>NF97405B2-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_264</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3415,8 +3490,11 @@
         <f t="shared" si="0"/>
         <v>NF12AS-107-4_4-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_186</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3445,8 +3523,11 @@
         <f t="shared" si="0"/>
         <v>NF12AS-108-4_4-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_251</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3475,8 +3556,11 @@
         <f t="shared" si="0"/>
         <v>FLLA17069-54-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_102</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3505,8 +3589,11 @@
         <f t="shared" si="0"/>
         <v>NF12AS-108-4_1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_161</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3535,8 +3622,11 @@
         <f t="shared" si="0"/>
         <v>NC20-4702-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_192</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3565,8 +3655,11 @@
         <f t="shared" si="0"/>
         <v>LA17069SBSS-2-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_244</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3595,8 +3688,11 @@
         <f t="shared" si="0"/>
         <v>SCLA17080SBS-4-2-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_316</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3625,8 +3721,11 @@
         <f t="shared" si="0"/>
         <v>NF97405-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_284</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3655,8 +3754,11 @@
         <f t="shared" si="0"/>
         <v>NF13-4173-4_5-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_341</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3685,8 +3787,11 @@
         <f t="shared" si="0"/>
         <v>NF12AS-73-4_3-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_241</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3715,8 +3820,11 @@
         <f t="shared" si="0"/>
         <v>NF12AS-91-4_1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_253</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3745,8 +3853,11 @@
         <f t="shared" si="0"/>
         <v>NF01401B-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3775,8 +3886,11 @@
         <f t="shared" si="0"/>
         <v>SCLA17031SBSS-4-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_36</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3805,8 +3919,11 @@
         <f t="shared" si="0"/>
         <v>NF12AS-122-4_4-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_153</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3835,8 +3952,11 @@
         <f t="shared" si="0"/>
         <v>NC21-6609-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_330</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3865,8 +3985,11 @@
         <f t="shared" si="0"/>
         <v>NF502_5-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_3</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3895,8 +4018,11 @@
         <f t="shared" si="0"/>
         <v>NC19-3542-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_261</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3925,8 +4051,11 @@
         <f t="shared" si="0"/>
         <v>NF99401_1-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_95</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3955,8 +4084,11 @@
         <f t="shared" si="0"/>
         <v>NC21-6497-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_65</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3985,8 +4117,11 @@
         <f t="shared" si="0"/>
         <v>NC17-6440-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_305</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4015,8 +4150,11 @@
         <f t="shared" si="0"/>
         <v>NORA-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_134</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4045,8 +4183,11 @@
         <f t="shared" si="0"/>
         <v>NF13-4214-4_5-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_28</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4075,8 +4216,11 @@
         <f t="shared" si="0"/>
         <v>FLLA17088-61-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_194</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4105,8 +4249,11 @@
         <f t="shared" si="0"/>
         <v>NF99414-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_378</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4135,8 +4282,11 @@
         <f t="shared" si="0"/>
         <v>OZARK|POGI-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_203</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4165,8 +4315,11 @@
         <f t="shared" si="0"/>
         <v>NF18-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_276</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4195,8 +4348,11 @@
         <f t="shared" si="0"/>
         <v>NF00407-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_216</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4225,8 +4381,11 @@
         <f t="shared" si="0"/>
         <v>NC20-4402-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_182</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4255,8 +4414,11 @@
         <f t="shared" si="0"/>
         <v>NF05424_2-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_26</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4285,8 +4447,11 @@
         <f t="shared" si="0"/>
         <v>FLLA11019-8-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_297</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4315,8 +4480,11 @@
         <f t="shared" si="0"/>
         <v>NF13-4157-4_2-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_334</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4345,8 +4513,11 @@
         <f t="shared" si="0"/>
         <v>NF12AS-100-4_2-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_227</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4375,8 +4546,11 @@
         <f t="shared" si="0"/>
         <v>GERARD224-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_217</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4405,8 +4579,11 @@
         <f t="shared" si="0"/>
         <v>NF12AS-107-4_2-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_258</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4435,8 +4612,11 @@
         <f t="shared" si="0"/>
         <v>NC21-6502-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_323</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4465,8 +4645,11 @@
         <f t="shared" si="0"/>
         <v>Juggernaut-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_327</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4495,8 +4678,11 @@
         <f t="shared" si="0"/>
         <v>TX18OCS9104-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_37</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4525,8 +4711,11 @@
         <f t="shared" si="0"/>
         <v>LA17153SBSS-55-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_183</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4555,8 +4744,11 @@
         <f t="shared" si="0"/>
         <v>HORIZON201-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_199</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4585,8 +4777,11 @@
         <f t="shared" si="0"/>
         <v>PA7617-3658-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_201</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4615,8 +4810,11 @@
         <f t="shared" si="0"/>
         <v>NF13-4214-4_1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_155</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4645,8 +4843,11 @@
         <f t="shared" si="0"/>
         <v>NC20-4795-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_347</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4675,8 +4876,11 @@
         <f t="shared" ref="I67:I73" si="1">_xlfn.CONCAT(D67,"-",C67)</f>
         <v>TX18OCS9100-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_72</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4705,8 +4909,11 @@
         <f t="shared" si="1"/>
         <v>LA17129SBSS-8-1-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_313</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4735,8 +4942,11 @@
         <f t="shared" si="1"/>
         <v>NF13-4083-4_6-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_346</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4765,8 +4975,11 @@
         <f t="shared" si="1"/>
         <v>NF13-4124-4_3-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_349</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4795,8 +5008,11 @@
         <f t="shared" si="1"/>
         <v>TX19CAS0058-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_93</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4825,8 +5041,11 @@
         <f t="shared" si="1"/>
         <v>NC21-6576-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_85</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4855,8 +5074,11 @@
         <f t="shared" si="1"/>
         <v>NF13-4173-4_4-Cornell_WinterOatPeaIntercrop_2024_Ithaca-PLOT_370</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4882,11 +5104,14 @@
         <v>146</v>
       </c>
       <c r="I74" t="str">
-        <f>_xlfn.CONCAT(LEFT(C74,38),"-",D74,"-1")</f>
-        <v>Cornell_WinterOatFounders_2024_Headrow-SA21-1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <f>_xlfn.CONCAT(D74,"-",LEFT(C74,38),"-PLOT_",J74)</f>
+        <v>SA21-Cornell_WinterOatFounders_2024_Headrow-PLOT_38</v>
+      </c>
+      <c r="J74">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4912,11 +5137,14 @@
         <v>146</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" ref="I75:I89" si="2">_xlfn.CONCAT(LEFT(C75,38),"-",D75,"-1")</f>
-        <v>Cornell_WinterOatFounders_2024_Headrow-DOMACA_ZOB-1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I75:I90" si="2">_xlfn.CONCAT(D75,"-",LEFT(C75,38),"-PLOT_",J75)</f>
+        <v>DOMACA_ZOB-Cornell_WinterOatFounders_2024_Headrow-PLOT_42</v>
+      </c>
+      <c r="J75">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4943,10 +5171,13 @@
       </c>
       <c r="I76" t="str">
         <f t="shared" si="2"/>
-        <v>Cornell_WinterOatFounders_2024_Headrow-AVE265_59-1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>AVE265_59-Cornell_WinterOatFounders_2024_Headrow-PLOT_52</v>
+      </c>
+      <c r="J76">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4973,10 +5204,13 @@
       </c>
       <c r="I77" t="str">
         <f t="shared" si="2"/>
-        <v>Cornell_WinterOatFounders_2024_Headrow-PI344827-1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>PI344827-Cornell_WinterOatFounders_2024_Headrow-PLOT_66</v>
+      </c>
+      <c r="J77">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5003,10 +5237,13 @@
       </c>
       <c r="I78" t="str">
         <f t="shared" si="2"/>
-        <v>Cornell_WinterOatFounders_2024_Headrow-PI365615-1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>PI365615-Cornell_WinterOatFounders_2024_Headrow-PLOT_68</v>
+      </c>
+      <c r="J78">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5033,10 +5270,13 @@
       </c>
       <c r="I79" t="str">
         <f t="shared" si="2"/>
-        <v>Cornell_WinterOatFounders_2024_Headrow-PI365616-1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>PI365616-Cornell_WinterOatFounders_2024_Headrow-PLOT_69</v>
+      </c>
+      <c r="J79">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5063,10 +5303,13 @@
       </c>
       <c r="I80" t="str">
         <f t="shared" si="2"/>
-        <v>Cornell_WinterOatFounders_2024_Headrow-PI365619-1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>PI365619-Cornell_WinterOatFounders_2024_Headrow-PLOT_70</v>
+      </c>
+      <c r="J80">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5093,10 +5336,13 @@
       </c>
       <c r="I81" t="str">
         <f t="shared" si="2"/>
-        <v>Cornell_WinterOatFounders_2024_Headrow-PI365621-1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>PI365621-Cornell_WinterOatFounders_2024_Headrow-PLOT_71</v>
+      </c>
+      <c r="J81">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5123,10 +5369,13 @@
       </c>
       <c r="I82" t="str">
         <f t="shared" si="2"/>
-        <v>Cornell_WinterOatFounders_2024_Headrow-PI365622-1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>PI365622-Cornell_WinterOatFounders_2024_Headrow-PLOT_72</v>
+      </c>
+      <c r="J82">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5153,10 +5402,13 @@
       </c>
       <c r="I83" t="str">
         <f t="shared" si="2"/>
-        <v>Cornell_WinterOatFounders_2024_Headrow-CAV2980-1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>CAV2980-Cornell_WinterOatFounders_2024_Headrow-PLOT_74</v>
+      </c>
+      <c r="J83">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5183,10 +5435,13 @@
       </c>
       <c r="I84" t="str">
         <f t="shared" si="2"/>
-        <v>Cornell_WinterOatFounders_2024_Headrow-CAV3163-1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>CAV3163-Cornell_WinterOatFounders_2024_Headrow-PLOT_75</v>
+      </c>
+      <c r="J84">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5213,10 +5468,13 @@
       </c>
       <c r="I85" t="str">
         <f t="shared" si="2"/>
-        <v>Cornell_WinterOatFounders_2024_Headrow-CAV3088-1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>CAV3088-Cornell_WinterOatFounders_2024_Headrow-PLOT_76</v>
+      </c>
+      <c r="J85">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5243,10 +5501,13 @@
       </c>
       <c r="I86" t="str">
         <f t="shared" si="2"/>
-        <v>Cornell_WinterOatFounders_2024_Headrow-RADNORSHIRE_SPRIG|CIAV3219-1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>RADNORSHIRE_SPRIG|CIAV3219-Cornell_WinterOatFounders_2024_Headrow-PLOT_8</v>
+      </c>
+      <c r="J86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5273,10 +5534,13 @@
       </c>
       <c r="I87" t="str">
         <f t="shared" si="2"/>
-        <v>Cornell_WinterOatFounders_2024_Headrow-KARCAGI-1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>KARCAGI-Cornell_WinterOatFounders_2024_Headrow-PLOT_83</v>
+      </c>
+      <c r="J87">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5303,10 +5567,13 @@
       </c>
       <c r="I88" t="str">
         <f t="shared" si="2"/>
-        <v>Cornell_WinterOatFounders_2024_Headrow-28C2-1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28C2-Cornell_WinterOatFounders_2024_Headrow-PLOT_93</v>
+      </c>
+      <c r="J88">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5333,10 +5600,13 @@
       </c>
       <c r="I89" t="str">
         <f t="shared" si="2"/>
-        <v>Cornell_WinterOatFounders_2024_Headrow-BLACK_MESDAG|PI93284-1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>BLACK_MESDAG|PI93284-Cornell_WinterOatFounders_2024_Headrow-PLOT_96</v>
+      </c>
+      <c r="J89">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5360,6 +5630,10 @@
       </c>
       <c r="H90" t="s">
         <v>146</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="2"/>
+        <v>Blaze-NA-PLOT_</v>
       </c>
     </row>
   </sheetData>

--- a/data/planning.xlsx
+++ b/data/planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C31350-EA5C-4289-B536-AF983C713903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CDFAE2-A451-4180-94D2-C6BB19503F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BEFE39CF-4712-4775-9411-5C503787578E}"/>
+    <workbookView xWindow="31350" yWindow="1710" windowWidth="20685" windowHeight="12360" firstSheet="2" activeTab="5" xr2:uid="{BEFE39CF-4712-4775-9411-5C503787578E}"/>
   </bookViews>
   <sheets>
     <sheet name="selections" sheetId="1" r:id="rId1"/>
@@ -2656,7 +2656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E147DB-166A-44B5-BCC5-098A0311CA8B}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
@@ -11498,8 +11498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8182AD-1F8B-4032-B388-AB87E57B275B}">
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11508,7 +11508,9 @@
     <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>

--- a/data/planning.xlsx
+++ b/data/planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CDFAE2-A451-4180-94D2-C6BB19503F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4DBCCA-CCB3-4714-A982-395E52312390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31350" yWindow="1710" windowWidth="20685" windowHeight="12360" firstSheet="2" activeTab="5" xr2:uid="{BEFE39CF-4712-4775-9411-5C503787578E}"/>
+    <workbookView minimized="1" xWindow="4170" yWindow="690" windowWidth="25320" windowHeight="14985" activeTab="1" xr2:uid="{BEFE39CF-4712-4775-9411-5C503787578E}"/>
   </bookViews>
   <sheets>
     <sheet name="selections" sheetId="1" r:id="rId1"/>
@@ -2656,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E147DB-166A-44B5-BCC5-098A0311CA8B}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K89" sqref="K89"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,7 +2670,7 @@
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5645,8 +5645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3542A165-A526-4E29-B202-B3C719486504}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10980,7 +10980,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C23" sqref="C23:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11498,7 +11498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8182AD-1F8B-4032-B388-AB87E57B275B}">
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
